--- a/assets/Proclaim.xlsx
+++ b/assets/Proclaim.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerus\StudioProjects\proclaim\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C49168-2B0D-4C13-AFA6-ED9AF69B2B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFBE7EC-2E81-4B44-B119-82979DD75D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Testament" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6167" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6171" uniqueCount="767">
   <si>
     <t>Date</t>
   </si>
@@ -2658,7 +2658,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B356" workbookViewId="0">
+      <selection activeCell="D285" sqref="D285:G367"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -9212,10 +9214,10 @@
         <v>400</v>
       </c>
       <c r="D285" s="6">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E285" s="6">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F285" s="8" t="s">
         <v>401</v>
@@ -9235,10 +9237,10 @@
         <v>400</v>
       </c>
       <c r="D286" s="6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E286" s="6">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F286" s="8" t="s">
         <v>401</v>
@@ -9258,10 +9260,10 @@
         <v>400</v>
       </c>
       <c r="D287" s="6">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E287" s="6">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F287" s="8" t="s">
         <v>401</v>
@@ -9281,10 +9283,10 @@
         <v>400</v>
       </c>
       <c r="D288" s="6">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E288" s="6">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F288" s="8" t="s">
         <v>401</v>
@@ -9304,10 +9306,10 @@
         <v>400</v>
       </c>
       <c r="D289" s="6">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E289" s="6">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F289" s="8" t="s">
         <v>401</v>
@@ -9327,10 +9329,10 @@
         <v>400</v>
       </c>
       <c r="D290" s="6">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E290" s="6">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F290" s="8" t="s">
         <v>401</v>
@@ -9350,10 +9352,10 @@
         <v>400</v>
       </c>
       <c r="D291" s="6">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E291" s="6">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F291" s="8" t="s">
         <v>401</v>
@@ -9373,10 +9375,10 @@
         <v>400</v>
       </c>
       <c r="D292" s="6">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E292" s="6">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F292" s="8" t="s">
         <v>401</v>
@@ -9396,16 +9398,16 @@
         <v>400</v>
       </c>
       <c r="D293" s="6">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E293" s="6">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="F293" s="8" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="G293" s="8" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="16.5" customHeight="1">
@@ -9419,10 +9421,10 @@
         <v>427</v>
       </c>
       <c r="D294" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E294" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F294" s="8" t="s">
         <v>428</v>
@@ -9442,10 +9444,10 @@
         <v>427</v>
       </c>
       <c r="D295" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E295" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F295" s="8" t="s">
         <v>428</v>
@@ -9465,10 +9467,10 @@
         <v>427</v>
       </c>
       <c r="D296" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E296" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F296" s="8" t="s">
         <v>428</v>
@@ -9488,10 +9490,10 @@
         <v>427</v>
       </c>
       <c r="D297" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E297" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F297" s="8" t="s">
         <v>428</v>
@@ -9511,10 +9513,10 @@
         <v>427</v>
       </c>
       <c r="D298" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E298" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F298" s="8" t="s">
         <v>428</v>
@@ -9534,10 +9536,10 @@
         <v>427</v>
       </c>
       <c r="D299" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E299" s="6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F299" s="8" t="s">
         <v>428</v>
@@ -9557,10 +9559,10 @@
         <v>427</v>
       </c>
       <c r="D300" s="6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E300" s="6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F300" s="8" t="s">
         <v>428</v>
@@ -9580,10 +9582,10 @@
         <v>427</v>
       </c>
       <c r="D301" s="6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E301" s="6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F301" s="8" t="s">
         <v>428</v>
@@ -9603,10 +9605,10 @@
         <v>427</v>
       </c>
       <c r="D302" s="6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E302" s="6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F302" s="8" t="s">
         <v>428</v>
@@ -9626,10 +9628,10 @@
         <v>427</v>
       </c>
       <c r="D303" s="6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E303" s="6">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F303" s="8" t="s">
         <v>428</v>
@@ -9649,10 +9651,10 @@
         <v>427</v>
       </c>
       <c r="D304" s="6">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E304" s="6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F304" s="8" t="s">
         <v>428</v>
@@ -9672,10 +9674,10 @@
         <v>427</v>
       </c>
       <c r="D305" s="6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E305" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F305" s="8" t="s">
         <v>428</v>
@@ -9695,10 +9697,10 @@
         <v>427</v>
       </c>
       <c r="D306" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E306" s="6">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F306" s="8" t="s">
         <v>428</v>
@@ -9718,10 +9720,10 @@
         <v>427</v>
       </c>
       <c r="D307" s="6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E307" s="6">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F307" s="8" t="s">
         <v>428</v>
@@ -9741,10 +9743,10 @@
         <v>427</v>
       </c>
       <c r="D308" s="6">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E308" s="6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F308" s="8" t="s">
         <v>428</v>
@@ -9764,10 +9766,10 @@
         <v>427</v>
       </c>
       <c r="D309" s="6">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E309" s="6">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F309" s="8" t="s">
         <v>428</v>
@@ -9787,10 +9789,10 @@
         <v>427</v>
       </c>
       <c r="D310" s="6">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E310" s="6">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F310" s="8" t="s">
         <v>428</v>
@@ -9810,10 +9812,10 @@
         <v>427</v>
       </c>
       <c r="D311" s="6">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E311" s="6">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F311" s="8" t="s">
         <v>428</v>
@@ -9833,10 +9835,10 @@
         <v>427</v>
       </c>
       <c r="D312" s="6">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E312" s="6">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F312" s="8" t="s">
         <v>428</v>
@@ -9856,10 +9858,10 @@
         <v>427</v>
       </c>
       <c r="D313" s="6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E313" s="6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F313" s="8" t="s">
         <v>428</v>
@@ -9879,10 +9881,10 @@
         <v>427</v>
       </c>
       <c r="D314" s="6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E314" s="6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F314" s="8" t="s">
         <v>428</v>
@@ -9902,10 +9904,10 @@
         <v>427</v>
       </c>
       <c r="D315" s="6">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E315" s="6">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F315" s="8" t="s">
         <v>428</v>
@@ -9925,16 +9927,16 @@
         <v>427</v>
       </c>
       <c r="D316" s="6">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E316" s="6">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="F316" s="8" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="G316" s="8" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="16.5" customHeight="1">
@@ -9948,10 +9950,10 @@
         <v>454</v>
       </c>
       <c r="D317" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E317" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F317" s="8" t="s">
         <v>455</v>
@@ -9971,10 +9973,10 @@
         <v>454</v>
       </c>
       <c r="D318" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E318" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F318" s="8" t="s">
         <v>455</v>
@@ -9994,16 +9996,16 @@
         <v>454</v>
       </c>
       <c r="D319" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E319" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F319" s="8" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="G319" s="8" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="16.5" customHeight="1">
@@ -10017,10 +10019,10 @@
         <v>461</v>
       </c>
       <c r="D320" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E320" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F320" s="8" t="s">
         <v>462</v>
@@ -10040,10 +10042,10 @@
         <v>461</v>
       </c>
       <c r="D321" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E321" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F321" s="8" t="s">
         <v>462</v>
@@ -10063,10 +10065,10 @@
         <v>461</v>
       </c>
       <c r="D322" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E322" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F322" s="8" t="s">
         <v>462</v>
@@ -10087,10 +10089,10 @@
         <v>461</v>
       </c>
       <c r="D323" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E323" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F323" s="8" t="s">
         <v>462</v>
@@ -10111,10 +10113,10 @@
         <v>461</v>
       </c>
       <c r="D324" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E324" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F324" s="8" t="s">
         <v>462</v>
@@ -10135,10 +10137,10 @@
         <v>461</v>
       </c>
       <c r="D325" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E325" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F325" s="8" t="s">
         <v>462</v>
@@ -10159,10 +10161,10 @@
         <v>461</v>
       </c>
       <c r="D326" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E326" s="6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F326" s="8" t="s">
         <v>462</v>
@@ -10183,10 +10185,10 @@
         <v>461</v>
       </c>
       <c r="D327" s="6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E327" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F327" s="8" t="s">
         <v>462</v>
@@ -10207,10 +10209,10 @@
         <v>461</v>
       </c>
       <c r="D328" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E328" s="6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F328" s="8" t="s">
         <v>462</v>
@@ -10231,10 +10233,10 @@
         <v>461</v>
       </c>
       <c r="D329" s="6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E329" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F329" s="8" t="s">
         <v>462</v>
@@ -10255,10 +10257,10 @@
         <v>461</v>
       </c>
       <c r="D330" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E330" s="6">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F330" s="8" t="s">
         <v>462</v>
@@ -10279,10 +10281,10 @@
         <v>461</v>
       </c>
       <c r="D331" s="6">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E331" s="6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F331" s="8" t="s">
         <v>462</v>
@@ -10303,10 +10305,10 @@
         <v>461</v>
       </c>
       <c r="D332" s="6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E332" s="6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F332" s="8" t="s">
         <v>462</v>
@@ -10327,10 +10329,10 @@
         <v>461</v>
       </c>
       <c r="D333" s="6">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E333" s="6">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F333" s="8" t="s">
         <v>462</v>
@@ -10351,10 +10353,10 @@
         <v>461</v>
       </c>
       <c r="D334" s="6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E334" s="6">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F334" s="8" t="s">
         <v>462</v>
@@ -10375,10 +10377,10 @@
         <v>461</v>
       </c>
       <c r="D335" s="6">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E335" s="6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F335" s="8" t="s">
         <v>462</v>
@@ -10399,10 +10401,10 @@
         <v>461</v>
       </c>
       <c r="D336" s="6">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E336" s="6">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F336" s="8" t="s">
         <v>462</v>
@@ -10423,10 +10425,10 @@
         <v>461</v>
       </c>
       <c r="D337" s="6">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E337" s="6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F337" s="8" t="s">
         <v>462</v>
@@ -10446,10 +10448,10 @@
         <v>461</v>
       </c>
       <c r="D338" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E338" s="6">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F338" s="8" t="s">
         <v>462</v>
@@ -10469,10 +10471,10 @@
         <v>461</v>
       </c>
       <c r="D339" s="6">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E339" s="6">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F339" s="8" t="s">
         <v>462</v>
@@ -10492,10 +10494,10 @@
         <v>461</v>
       </c>
       <c r="D340" s="6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E340" s="6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F340" s="8" t="s">
         <v>462</v>
@@ -10515,10 +10517,10 @@
         <v>461</v>
       </c>
       <c r="D341" s="6">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E341" s="6">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F341" s="8" t="s">
         <v>462</v>
@@ -10538,16 +10540,16 @@
         <v>461</v>
       </c>
       <c r="D342" s="6">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E342" s="6">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="F342" s="8" t="s">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="G342" s="8" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="16.5" customHeight="1">
@@ -10561,10 +10563,10 @@
         <v>488</v>
       </c>
       <c r="D343" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E343" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F343" s="8" t="s">
         <v>489</v>
@@ -10584,10 +10586,10 @@
         <v>488</v>
       </c>
       <c r="D344" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E344" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F344" s="8" t="s">
         <v>489</v>
@@ -10607,10 +10609,10 @@
         <v>488</v>
       </c>
       <c r="D345" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E345" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F345" s="8" t="s">
         <v>489</v>
@@ -10630,10 +10632,10 @@
         <v>488</v>
       </c>
       <c r="D346" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E346" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F346" s="8" t="s">
         <v>489</v>
@@ -10653,10 +10655,10 @@
         <v>488</v>
       </c>
       <c r="D347" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E347" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F347" s="8" t="s">
         <v>489</v>
@@ -10676,16 +10678,16 @@
         <v>488</v>
       </c>
       <c r="D348" s="6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E348" s="6">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F348" s="8" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="G348" s="8" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="16.5" customHeight="1">
@@ -10699,10 +10701,10 @@
         <v>498</v>
       </c>
       <c r="D349" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E349" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F349" s="8" t="s">
         <v>499</v>
@@ -10722,10 +10724,10 @@
         <v>498</v>
       </c>
       <c r="D350" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E350" s="6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F350" s="8" t="s">
         <v>499</v>
@@ -10745,15 +10747,15 @@
         <v>498</v>
       </c>
       <c r="D351" s="6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E351" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F351" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="G351" s="8" t="s">
+      <c r="G351" s="9" t="s">
         <v>500</v>
       </c>
     </row>
@@ -10768,16 +10770,16 @@
         <v>498</v>
       </c>
       <c r="D352" s="6">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E352" s="6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F352" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="G352" s="9" t="s">
-        <v>500</v>
+        <v>507</v>
+      </c>
+      <c r="G352" s="8" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="16.5" customHeight="1">
@@ -10794,13 +10796,13 @@
         <v>1</v>
       </c>
       <c r="E353" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F353" s="8" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="G353" s="8" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="16.5" customHeight="1">
@@ -10814,10 +10816,10 @@
         <v>511</v>
       </c>
       <c r="D354" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E354" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F354" s="8" t="s">
         <v>512</v>
@@ -10837,10 +10839,10 @@
         <v>511</v>
       </c>
       <c r="D355" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E355" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F355" s="8" t="s">
         <v>512</v>
@@ -10860,16 +10862,16 @@
         <v>511</v>
       </c>
       <c r="D356" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E356" s="6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F356" s="8" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="G356" s="8" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="16.5" customHeight="1">
@@ -10886,13 +10888,13 @@
         <v>1</v>
       </c>
       <c r="E357" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F357" s="8" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="G357" s="8" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="16.5" customHeight="1">
@@ -10909,13 +10911,13 @@
         <v>1</v>
       </c>
       <c r="E358" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F358" s="8" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G358" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="16.5" customHeight="1">
@@ -10929,10 +10931,10 @@
         <v>527</v>
       </c>
       <c r="D359" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E359" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F359" s="8" t="s">
         <v>528</v>
@@ -10952,16 +10954,16 @@
         <v>527</v>
       </c>
       <c r="D360" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E360" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F360" s="8" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="G360" s="8" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="16.5" customHeight="1">
@@ -10981,10 +10983,10 @@
         <v>3</v>
       </c>
       <c r="F361" s="8" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="G361" s="8" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="16.5" customHeight="1">
@@ -11004,10 +11006,10 @@
         <v>3</v>
       </c>
       <c r="F362" s="8" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="G362" s="8" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="16.5" customHeight="1">
@@ -11024,13 +11026,13 @@
         <v>1</v>
       </c>
       <c r="E363" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F363" s="8" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="G363" s="8" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="16.5" customHeight="1">
@@ -11047,13 +11049,13 @@
         <v>1</v>
       </c>
       <c r="E364" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F364" s="8" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="G364" s="8" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="16.5" customHeight="1">
@@ -11067,10 +11069,10 @@
         <v>553</v>
       </c>
       <c r="D365" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E365" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F365" s="8" t="s">
         <v>554</v>
@@ -11090,10 +11092,10 @@
         <v>553</v>
       </c>
       <c r="D366" s="6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E366" s="6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F366" s="8" t="s">
         <v>554</v>
@@ -11113,16 +11115,16 @@
         <v>553</v>
       </c>
       <c r="D367" s="6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E367" s="6">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F367" s="8" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="G367" s="8" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="16.5" customHeight="1">
@@ -15583,7 +15585,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="C270" workbookViewId="0">
+      <selection activeCell="E288" sqref="E288"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -21191,10 +21195,10 @@
         <v>677</v>
       </c>
       <c r="D243" s="5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E243" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F243" s="5" t="s">
         <v>678</v>
@@ -21213,11 +21217,11 @@
       <c r="C244" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D244" s="12" t="s">
-        <v>680</v>
-      </c>
-      <c r="E244" s="12" t="s">
-        <v>681</v>
+      <c r="D244" s="5">
+        <v>14</v>
+      </c>
+      <c r="E244" s="10">
+        <v>17</v>
       </c>
       <c r="F244" s="5" t="s">
         <v>678</v>
@@ -21236,11 +21240,11 @@
       <c r="C245" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D245" s="12" t="s">
-        <v>682</v>
-      </c>
-      <c r="E245" s="12" t="s">
-        <v>683</v>
+      <c r="D245" s="5">
+        <v>18</v>
+      </c>
+      <c r="E245" s="10">
+        <v>19</v>
       </c>
       <c r="F245" s="5" t="s">
         <v>678</v>
@@ -21260,10 +21264,10 @@
         <v>677</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E246" s="12" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F246" s="5" t="s">
         <v>678</v>
@@ -21283,10 +21287,10 @@
         <v>677</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E247" s="12" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F247" s="5" t="s">
         <v>678</v>
@@ -21306,10 +21310,10 @@
         <v>677</v>
       </c>
       <c r="D248" s="12" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E248" s="12" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F248" s="5" t="s">
         <v>678</v>
@@ -21329,10 +21333,10 @@
         <v>677</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E249" s="12" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F249" s="5" t="s">
         <v>678</v>
@@ -21352,10 +21356,10 @@
         <v>677</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E250" s="12" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F250" s="5" t="s">
         <v>678</v>
@@ -21375,10 +21379,10 @@
         <v>677</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E251" s="12" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F251" s="5" t="s">
         <v>678</v>
@@ -21398,10 +21402,10 @@
         <v>677</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E252" s="12" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F252" s="5" t="s">
         <v>678</v>
@@ -21421,10 +21425,10 @@
         <v>677</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E253" s="12" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F253" s="5" t="s">
         <v>678</v>
@@ -21444,10 +21448,10 @@
         <v>677</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E254" s="12" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="F254" s="5" t="s">
         <v>678</v>
@@ -21467,10 +21471,10 @@
         <v>677</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E255" s="12" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="F255" s="5" t="s">
         <v>678</v>
@@ -21490,10 +21494,10 @@
         <v>677</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E256" s="12" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="F256" s="5" t="s">
         <v>678</v>
@@ -21513,10 +21517,10 @@
         <v>677</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E257" s="12" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F257" s="5" t="s">
         <v>678</v>
@@ -21536,10 +21540,10 @@
         <v>677</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E258" s="12" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F258" s="5" t="s">
         <v>678</v>
@@ -21559,10 +21563,10 @@
         <v>677</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E259" s="12" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F259" s="5" t="s">
         <v>678</v>
@@ -21582,10 +21586,10 @@
         <v>677</v>
       </c>
       <c r="D260" s="12" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E260" s="12" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F260" s="5" t="s">
         <v>678</v>
@@ -21605,10 +21609,10 @@
         <v>677</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="E261" s="12" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F261" s="5" t="s">
         <v>678</v>
@@ -21628,10 +21632,10 @@
         <v>677</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E262" s="12" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F262" s="5" t="s">
         <v>678</v>
@@ -21651,10 +21655,10 @@
         <v>677</v>
       </c>
       <c r="D263" s="12" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E263" s="12" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F263" s="5" t="s">
         <v>678</v>
@@ -21674,10 +21678,10 @@
         <v>677</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E264" s="12" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="F264" s="5" t="s">
         <v>678</v>
@@ -21697,10 +21701,10 @@
         <v>677</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E265" s="12" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="F265" s="5" t="s">
         <v>678</v>
@@ -21720,10 +21724,10 @@
         <v>677</v>
       </c>
       <c r="D266" s="12" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E266" s="12" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F266" s="5" t="s">
         <v>678</v>
@@ -21743,10 +21747,10 @@
         <v>677</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E267" s="12" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F267" s="5" t="s">
         <v>678</v>
@@ -21769,7 +21773,7 @@
         <v>723</v>
       </c>
       <c r="E268" s="12" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F268" s="5" t="s">
         <v>678</v>
@@ -21789,10 +21793,10 @@
         <v>677</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E269" s="12" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F269" s="5" t="s">
         <v>678</v>
@@ -21812,10 +21816,10 @@
         <v>677</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="E270" s="12" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F270" s="5" t="s">
         <v>678</v>
@@ -21835,10 +21839,10 @@
         <v>677</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E271" s="12" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F271" s="5" t="s">
         <v>678</v>
@@ -21858,10 +21862,10 @@
         <v>677</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E272" s="12" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F272" s="5" t="s">
         <v>678</v>
@@ -21881,10 +21885,10 @@
         <v>677</v>
       </c>
       <c r="D273" s="12" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E273" s="12" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="F273" s="5" t="s">
         <v>678</v>
@@ -21904,10 +21908,10 @@
         <v>677</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E274" s="12" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F274" s="5" t="s">
         <v>678</v>
@@ -21926,11 +21930,11 @@
       <c r="C275" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D275" s="12">
-        <v>97</v>
-      </c>
-      <c r="E275" s="12">
-        <v>101</v>
+      <c r="D275" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="E275" s="12" t="s">
+        <v>734</v>
       </c>
       <c r="F275" s="5" t="s">
         <v>678</v>
@@ -21950,10 +21954,10 @@
         <v>677</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E276" s="12" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F276" s="5" t="s">
         <v>678</v>
@@ -21972,11 +21976,11 @@
       <c r="C277" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D277" s="12" t="s">
-        <v>739</v>
-      </c>
-      <c r="E277" s="12" t="s">
-        <v>739</v>
+      <c r="D277" s="12">
+        <v>97</v>
+      </c>
+      <c r="E277" s="12">
+        <v>101</v>
       </c>
       <c r="F277" s="5" t="s">
         <v>678</v>
@@ -21996,10 +22000,10 @@
         <v>677</v>
       </c>
       <c r="D278" s="12" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E278" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F278" s="5" t="s">
         <v>678</v>
@@ -22019,10 +22023,10 @@
         <v>677</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E279" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F279" s="5" t="s">
         <v>678</v>
@@ -22042,10 +22046,10 @@
         <v>677</v>
       </c>
       <c r="D280" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E280" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F280" s="5" t="s">
         <v>678</v>
@@ -22065,10 +22069,10 @@
         <v>677</v>
       </c>
       <c r="D281" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E281" s="12" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="F281" s="5" t="s">
         <v>678</v>
@@ -22088,10 +22092,10 @@
         <v>677</v>
       </c>
       <c r="D282" s="12" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E282" s="12" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="F282" s="5" t="s">
         <v>678</v>
@@ -22111,10 +22115,10 @@
         <v>677</v>
       </c>
       <c r="D283" s="12" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E283" s="12" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F283" s="5" t="s">
         <v>678</v>
@@ -22134,10 +22138,10 @@
         <v>677</v>
       </c>
       <c r="D284" s="12" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E284" s="12" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F284" s="5" t="s">
         <v>678</v>
@@ -22157,10 +22161,10 @@
         <v>677</v>
       </c>
       <c r="D285" s="12" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E285" s="12" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F285" s="5" t="s">
         <v>678</v>
@@ -22180,10 +22184,10 @@
         <v>677</v>
       </c>
       <c r="D286" s="12" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E286" s="12" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F286" s="5" t="s">
         <v>678</v>
@@ -22249,10 +22253,10 @@
         <v>677</v>
       </c>
       <c r="D289" s="12" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E289" s="12" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F289" s="5" t="s">
         <v>678</v>
@@ -22272,10 +22276,10 @@
         <v>677</v>
       </c>
       <c r="D290" s="12" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E290" s="12" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="F290" s="5" t="s">
         <v>678</v>
@@ -22295,10 +22299,10 @@
         <v>677</v>
       </c>
       <c r="D291" s="12" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E291" s="12" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F291" s="5" t="s">
         <v>678</v>
@@ -22318,10 +22322,10 @@
         <v>677</v>
       </c>
       <c r="D292" s="12" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="E292" s="12" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="F292" s="5" t="s">
         <v>678</v>
@@ -22341,10 +22345,10 @@
         <v>677</v>
       </c>
       <c r="D293" s="12" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="E293" s="12" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="F293" s="5" t="s">
         <v>678</v>
@@ -22364,10 +22368,10 @@
         <v>677</v>
       </c>
       <c r="D294" s="12" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="E294" s="12" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="F294" s="5" t="s">
         <v>678</v>
@@ -22387,10 +22391,10 @@
         <v>677</v>
       </c>
       <c r="D295" s="12" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E295" s="12" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="F295" s="5" t="s">
         <v>678</v>
@@ -22410,10 +22414,10 @@
         <v>677</v>
       </c>
       <c r="D296" s="12" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E296" s="12" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F296" s="5" t="s">
         <v>678</v>
@@ -22432,11 +22436,11 @@
       <c r="C297" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D297" s="5">
-        <v>1</v>
-      </c>
-      <c r="E297" s="10">
-        <v>2</v>
+      <c r="D297" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="E297" s="12" t="s">
+        <v>764</v>
       </c>
       <c r="F297" s="5" t="s">
         <v>678</v>
@@ -22455,11 +22459,11 @@
       <c r="C298" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D298" s="5">
-        <v>3</v>
-      </c>
-      <c r="E298" s="10">
-        <v>6</v>
+      <c r="D298" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="E298" s="12" t="s">
+        <v>766</v>
       </c>
       <c r="F298" s="5" t="s">
         <v>678</v>
@@ -22479,10 +22483,10 @@
         <v>677</v>
       </c>
       <c r="D299" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E299" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F299" s="5" t="s">
         <v>678</v>
@@ -22502,10 +22506,10 @@
         <v>677</v>
       </c>
       <c r="D300" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E300" s="10">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F300" s="5" t="s">
         <v>678</v>
@@ -22525,10 +22529,10 @@
         <v>677</v>
       </c>
       <c r="D301" s="5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E301" s="10">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F301" s="5" t="s">
         <v>678</v>
@@ -22548,10 +22552,10 @@
         <v>677</v>
       </c>
       <c r="D302" s="5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E302" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F302" s="5" t="s">
         <v>678</v>
@@ -22570,11 +22574,11 @@
       <c r="C303" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D303" s="12" t="s">
-        <v>680</v>
-      </c>
-      <c r="E303" s="12" t="s">
-        <v>681</v>
+      <c r="D303" s="5">
+        <v>14</v>
+      </c>
+      <c r="E303" s="10">
+        <v>17</v>
       </c>
       <c r="F303" s="5" t="s">
         <v>678</v>
@@ -22593,11 +22597,11 @@
       <c r="C304" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D304" s="12" t="s">
-        <v>682</v>
-      </c>
-      <c r="E304" s="12" t="s">
-        <v>683</v>
+      <c r="D304" s="5">
+        <v>18</v>
+      </c>
+      <c r="E304" s="10">
+        <v>19</v>
       </c>
       <c r="F304" s="5" t="s">
         <v>678</v>
@@ -22617,10 +22621,10 @@
         <v>677</v>
       </c>
       <c r="D305" s="12" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E305" s="12" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F305" s="5" t="s">
         <v>678</v>
@@ -22640,10 +22644,10 @@
         <v>677</v>
       </c>
       <c r="D306" s="12" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E306" s="12" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F306" s="5" t="s">
         <v>678</v>
@@ -22663,10 +22667,10 @@
         <v>677</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E307" s="12" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F307" s="5" t="s">
         <v>678</v>
@@ -22686,10 +22690,10 @@
         <v>677</v>
       </c>
       <c r="D308" s="12" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E308" s="12" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F308" s="5" t="s">
         <v>678</v>
@@ -22709,10 +22713,10 @@
         <v>677</v>
       </c>
       <c r="D309" s="12" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E309" s="12" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F309" s="5" t="s">
         <v>678</v>
@@ -22732,10 +22736,10 @@
         <v>677</v>
       </c>
       <c r="D310" s="12" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E310" s="12" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F310" s="5" t="s">
         <v>678</v>
@@ -22755,10 +22759,10 @@
         <v>677</v>
       </c>
       <c r="D311" s="12" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E311" s="12" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F311" s="5" t="s">
         <v>678</v>
@@ -22778,10 +22782,10 @@
         <v>677</v>
       </c>
       <c r="D312" s="12" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E312" s="12" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F312" s="5" t="s">
         <v>678</v>
@@ -22801,10 +22805,10 @@
         <v>677</v>
       </c>
       <c r="D313" s="12" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E313" s="12" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="F313" s="5" t="s">
         <v>678</v>
@@ -22824,10 +22828,10 @@
         <v>677</v>
       </c>
       <c r="D314" s="12" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E314" s="12" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="F314" s="5" t="s">
         <v>678</v>
@@ -22847,10 +22851,10 @@
         <v>677</v>
       </c>
       <c r="D315" s="12" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E315" s="12" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="F315" s="5" t="s">
         <v>678</v>
@@ -22870,10 +22874,10 @@
         <v>677</v>
       </c>
       <c r="D316" s="12" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E316" s="12" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F316" s="5" t="s">
         <v>678</v>
@@ -22893,10 +22897,10 @@
         <v>677</v>
       </c>
       <c r="D317" s="12" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E317" s="12" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F317" s="5" t="s">
         <v>678</v>
@@ -22916,10 +22920,10 @@
         <v>677</v>
       </c>
       <c r="D318" s="12" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E318" s="12" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F318" s="5" t="s">
         <v>678</v>
@@ -22939,10 +22943,10 @@
         <v>677</v>
       </c>
       <c r="D319" s="12" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E319" s="12" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F319" s="5" t="s">
         <v>678</v>
@@ -22962,10 +22966,10 @@
         <v>677</v>
       </c>
       <c r="D320" s="12" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="E320" s="12" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F320" s="5" t="s">
         <v>678</v>
@@ -22985,10 +22989,10 @@
         <v>677</v>
       </c>
       <c r="D321" s="12" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E321" s="12" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F321" s="5" t="s">
         <v>678</v>
@@ -23008,10 +23012,10 @@
         <v>677</v>
       </c>
       <c r="D322" s="12" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E322" s="12" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F322" s="5" t="s">
         <v>678</v>
@@ -23031,10 +23035,10 @@
         <v>677</v>
       </c>
       <c r="D323" s="12" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E323" s="12" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="F323" s="5" t="s">
         <v>678</v>
@@ -23054,10 +23058,10 @@
         <v>677</v>
       </c>
       <c r="D324" s="12" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E324" s="12" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="F324" s="5" t="s">
         <v>678</v>
@@ -23077,10 +23081,10 @@
         <v>677</v>
       </c>
       <c r="D325" s="12" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E325" s="12" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F325" s="5" t="s">
         <v>678</v>
@@ -23100,10 +23104,10 @@
         <v>677</v>
       </c>
       <c r="D326" s="12" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E326" s="12" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F326" s="5" t="s">
         <v>678</v>
@@ -23126,7 +23130,7 @@
         <v>723</v>
       </c>
       <c r="E327" s="12" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F327" s="5" t="s">
         <v>678</v>
@@ -23146,10 +23150,10 @@
         <v>677</v>
       </c>
       <c r="D328" s="12" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E328" s="12" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F328" s="5" t="s">
         <v>678</v>
@@ -23169,10 +23173,10 @@
         <v>677</v>
       </c>
       <c r="D329" s="12" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="E329" s="12" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F329" s="5" t="s">
         <v>678</v>
@@ -23192,10 +23196,10 @@
         <v>677</v>
       </c>
       <c r="D330" s="12" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E330" s="12" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F330" s="5" t="s">
         <v>678</v>
@@ -23215,10 +23219,10 @@
         <v>677</v>
       </c>
       <c r="D331" s="12" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E331" s="12" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F331" s="5" t="s">
         <v>678</v>
@@ -23238,10 +23242,10 @@
         <v>677</v>
       </c>
       <c r="D332" s="12" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E332" s="12" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="F332" s="5" t="s">
         <v>678</v>
@@ -23261,10 +23265,10 @@
         <v>677</v>
       </c>
       <c r="D333" s="12" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E333" s="12" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F333" s="5" t="s">
         <v>678</v>
@@ -23283,11 +23287,11 @@
       <c r="C334" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D334" s="12">
-        <v>97</v>
-      </c>
-      <c r="E334" s="12">
-        <v>101</v>
+      <c r="D334" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="E334" s="12" t="s">
+        <v>734</v>
       </c>
       <c r="F334" s="5" t="s">
         <v>678</v>
@@ -23307,10 +23311,10 @@
         <v>677</v>
       </c>
       <c r="D335" s="12" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E335" s="12" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F335" s="5" t="s">
         <v>678</v>
@@ -23329,11 +23333,11 @@
       <c r="C336" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D336" s="12" t="s">
-        <v>739</v>
-      </c>
-      <c r="E336" s="12" t="s">
-        <v>739</v>
+      <c r="D336" s="12">
+        <v>97</v>
+      </c>
+      <c r="E336" s="12">
+        <v>101</v>
       </c>
       <c r="F336" s="5" t="s">
         <v>678</v>
@@ -23353,10 +23357,10 @@
         <v>677</v>
       </c>
       <c r="D337" s="12" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E337" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F337" s="5" t="s">
         <v>678</v>
@@ -23376,10 +23380,10 @@
         <v>677</v>
       </c>
       <c r="D338" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E338" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F338" s="5" t="s">
         <v>678</v>
@@ -23399,10 +23403,10 @@
         <v>677</v>
       </c>
       <c r="D339" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E339" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F339" s="5" t="s">
         <v>678</v>
@@ -23422,10 +23426,10 @@
         <v>677</v>
       </c>
       <c r="D340" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E340" s="12" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="F340" s="5" t="s">
         <v>678</v>
@@ -23445,10 +23449,10 @@
         <v>677</v>
       </c>
       <c r="D341" s="12" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E341" s="12" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="F341" s="5" t="s">
         <v>678</v>
@@ -23468,10 +23472,10 @@
         <v>677</v>
       </c>
       <c r="D342" s="12" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E342" s="12" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F342" s="5" t="s">
         <v>678</v>
@@ -23491,10 +23495,10 @@
         <v>677</v>
       </c>
       <c r="D343" s="12" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E343" s="12" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F343" s="5" t="s">
         <v>678</v>
@@ -23514,10 +23518,10 @@
         <v>677</v>
       </c>
       <c r="D344" s="12" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E344" s="12" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F344" s="5" t="s">
         <v>678</v>
@@ -23537,10 +23541,10 @@
         <v>677</v>
       </c>
       <c r="D345" s="12" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E345" s="12" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F345" s="5" t="s">
         <v>678</v>
@@ -23606,10 +23610,10 @@
         <v>677</v>
       </c>
       <c r="D348" s="12" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E348" s="12" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F348" s="5" t="s">
         <v>678</v>
@@ -23629,10 +23633,10 @@
         <v>677</v>
       </c>
       <c r="D349" s="12" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E349" s="12" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="F349" s="5" t="s">
         <v>678</v>
@@ -23652,10 +23656,10 @@
         <v>677</v>
       </c>
       <c r="D350" s="12" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E350" s="12" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F350" s="5" t="s">
         <v>678</v>
@@ -23675,10 +23679,10 @@
         <v>677</v>
       </c>
       <c r="D351" s="12" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="E351" s="12" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="F351" s="5" t="s">
         <v>678</v>
@@ -23698,10 +23702,10 @@
         <v>677</v>
       </c>
       <c r="D352" s="12" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="E352" s="12" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="F352" s="5" t="s">
         <v>678</v>
@@ -23721,10 +23725,10 @@
         <v>677</v>
       </c>
       <c r="D353" s="12" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="E353" s="12" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="F353" s="5" t="s">
         <v>678</v>
@@ -23744,10 +23748,10 @@
         <v>677</v>
       </c>
       <c r="D354" s="12" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E354" s="12" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="F354" s="5" t="s">
         <v>678</v>
@@ -23767,10 +23771,10 @@
         <v>677</v>
       </c>
       <c r="D355" s="12" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E355" s="12" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F355" s="5" t="s">
         <v>678</v>
@@ -23789,11 +23793,11 @@
       <c r="C356" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D356" s="5">
-        <v>1</v>
-      </c>
-      <c r="E356" s="10">
-        <v>2</v>
+      <c r="D356" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="E356" s="12" t="s">
+        <v>764</v>
       </c>
       <c r="F356" s="5" t="s">
         <v>678</v>
@@ -23812,11 +23816,11 @@
       <c r="C357" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D357" s="5">
-        <v>3</v>
-      </c>
-      <c r="E357" s="10">
-        <v>6</v>
+      <c r="D357" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="E357" s="12" t="s">
+        <v>766</v>
       </c>
       <c r="F357" s="5" t="s">
         <v>678</v>
@@ -23836,10 +23840,10 @@
         <v>677</v>
       </c>
       <c r="D358" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E358" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F358" s="5" t="s">
         <v>678</v>
@@ -23859,10 +23863,10 @@
         <v>677</v>
       </c>
       <c r="D359" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E359" s="10">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F359" s="5" t="s">
         <v>678</v>
@@ -23882,10 +23886,10 @@
         <v>677</v>
       </c>
       <c r="D360" s="5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E360" s="10">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F360" s="5" t="s">
         <v>678</v>
@@ -23905,10 +23909,10 @@
         <v>677</v>
       </c>
       <c r="D361" s="5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E361" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F361" s="5" t="s">
         <v>678</v>
@@ -23927,11 +23931,11 @@
       <c r="C362" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D362" s="12" t="s">
-        <v>680</v>
-      </c>
-      <c r="E362" s="12" t="s">
-        <v>681</v>
+      <c r="D362" s="5">
+        <v>14</v>
+      </c>
+      <c r="E362" s="10">
+        <v>17</v>
       </c>
       <c r="F362" s="5" t="s">
         <v>678</v>
@@ -23950,11 +23954,11 @@
       <c r="C363" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D363" s="12" t="s">
-        <v>682</v>
-      </c>
-      <c r="E363" s="12" t="s">
-        <v>683</v>
+      <c r="D363" s="5">
+        <v>18</v>
+      </c>
+      <c r="E363" s="10">
+        <v>19</v>
       </c>
       <c r="F363" s="5" t="s">
         <v>678</v>
@@ -23974,10 +23978,10 @@
         <v>677</v>
       </c>
       <c r="D364" s="12" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E364" s="12" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F364" s="5" t="s">
         <v>678</v>
@@ -23997,10 +24001,10 @@
         <v>677</v>
       </c>
       <c r="D365" s="12" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E365" s="12" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F365" s="5" t="s">
         <v>678</v>
@@ -24020,10 +24024,10 @@
         <v>677</v>
       </c>
       <c r="D366" s="12" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E366" s="12" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F366" s="5" t="s">
         <v>678</v>
@@ -24043,10 +24047,10 @@
         <v>677</v>
       </c>
       <c r="D367" s="12" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E367" s="12" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F367" s="5" t="s">
         <v>678</v>
@@ -24066,10 +24070,10 @@
         <v>677</v>
       </c>
       <c r="D368" s="12" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E368" s="12" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F368" s="5" t="s">
         <v>678</v>
@@ -24081,18 +24085,34 @@
     <row r="369" spans="2:7" ht="16.5" customHeight="1">
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
-      <c r="D369" s="12"/>
-      <c r="E369" s="12"/>
-      <c r="F369" s="5"/>
-      <c r="G369" s="5"/>
+      <c r="D369" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="E369" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="F369" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="G369" s="5" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="370" spans="2:7" ht="16.5" customHeight="1">
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
-      <c r="D370" s="12"/>
-      <c r="E370" s="12"/>
-      <c r="F370" s="5"/>
-      <c r="G370" s="5"/>
+      <c r="D370" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="E370" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="F370" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="G370" s="5" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="371" spans="2:7" ht="16.5" customHeight="1">
       <c r="B371" s="5"/>
@@ -25043,7 +25063,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="C269" sqref="C269:G284"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -31246,19 +31268,19 @@
         <v>563</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D269" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E269" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F269" s="5" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="16.5" customHeight="1">
@@ -31269,19 +31291,19 @@
         <v>563</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D270" s="1">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E270" s="1">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F270" s="5" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="16.5" customHeight="1">
@@ -31292,19 +31314,19 @@
         <v>563</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D271" s="1">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E271" s="1">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F271" s="5" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="16.5" customHeight="1">
@@ -31318,10 +31340,10 @@
         <v>568</v>
       </c>
       <c r="D272" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E272" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F272" s="5" t="s">
         <v>569</v>
@@ -31341,10 +31363,10 @@
         <v>568</v>
       </c>
       <c r="D273" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E273" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F273" s="5" t="s">
         <v>569</v>
@@ -31361,19 +31383,19 @@
         <v>567</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D274" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E274" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F274" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="16.5" customHeight="1">
@@ -31384,19 +31406,19 @@
         <v>567</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D275" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E275" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="16.5" customHeight="1">
@@ -31407,19 +31429,19 @@
         <v>567</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D276" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E276" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="16.5" customHeight="1">
@@ -31430,19 +31452,19 @@
         <v>567</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D277" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E277" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="16.5" customHeight="1">
@@ -31453,19 +31475,19 @@
         <v>567</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D278" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E278" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="16.5" customHeight="1">
@@ -31476,19 +31498,19 @@
         <v>567</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D279" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E279" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="16.5" customHeight="1">
@@ -31499,19 +31521,19 @@
         <v>567</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D280" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E280" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F280" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="16.5" customHeight="1">
@@ -31522,19 +31544,19 @@
         <v>567</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D281" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E281" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="16.5" customHeight="1">
@@ -31545,19 +31567,19 @@
         <v>567</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D282" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E282" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="16.5" customHeight="1">
@@ -31571,10 +31593,10 @@
         <v>572</v>
       </c>
       <c r="D283" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E283" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F283" s="5" t="s">
         <v>573</v>
@@ -31594,10 +31616,10 @@
         <v>572</v>
       </c>
       <c r="D284" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E284" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F284" s="5" t="s">
         <v>573</v>
@@ -31617,10 +31639,10 @@
         <v>572</v>
       </c>
       <c r="D285" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E285" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F285" s="5" t="s">
         <v>573</v>
@@ -31640,10 +31662,10 @@
         <v>572</v>
       </c>
       <c r="D286" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E286" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F286" s="5" t="s">
         <v>573</v>
@@ -31663,10 +31685,10 @@
         <v>572</v>
       </c>
       <c r="D287" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E287" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F287" s="5" t="s">
         <v>573</v>
@@ -31686,10 +31708,10 @@
         <v>572</v>
       </c>
       <c r="D288" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E288" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F288" s="5" t="s">
         <v>573</v>
@@ -31709,10 +31731,10 @@
         <v>572</v>
       </c>
       <c r="D289" s="1">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E289" s="1">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F289" s="5" t="s">
         <v>573</v>
@@ -31732,10 +31754,10 @@
         <v>572</v>
       </c>
       <c r="D290" s="1">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E290" s="1">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F290" s="5" t="s">
         <v>573</v>
@@ -31755,10 +31777,10 @@
         <v>572</v>
       </c>
       <c r="D291" s="1">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E291" s="1">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F291" s="5" t="s">
         <v>573</v>
@@ -31775,19 +31797,19 @@
         <v>571</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D292" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E292" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="16.5" customHeight="1">
@@ -31798,19 +31820,19 @@
         <v>571</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D293" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E293" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G293" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="16.5" customHeight="1">
@@ -31821,19 +31843,19 @@
         <v>571</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D294" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E294" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G294" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="16.5" customHeight="1">
@@ -31844,19 +31866,19 @@
         <v>571</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D295" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E295" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="16.5" customHeight="1">
@@ -31867,19 +31889,19 @@
         <v>571</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D296" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E296" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="16.5" customHeight="1">
@@ -31890,19 +31912,19 @@
         <v>571</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D297" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E297" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="16.5" customHeight="1">
@@ -31913,19 +31935,19 @@
         <v>571</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D298" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E298" s="1">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="16.5" customHeight="1">
@@ -31936,19 +31958,19 @@
         <v>571</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D299" s="1">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E299" s="1">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="16.5" customHeight="1">
@@ -31959,19 +31981,19 @@
         <v>571</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D300" s="1">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E300" s="1">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F300" s="5" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="16.5" customHeight="1">
@@ -31985,10 +32007,10 @@
         <v>576</v>
       </c>
       <c r="D301" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E301" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F301" s="5" t="s">
         <v>577</v>
@@ -32008,10 +32030,10 @@
         <v>576</v>
       </c>
       <c r="D302" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E302" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F302" s="5" t="s">
         <v>577</v>
@@ -32031,10 +32053,10 @@
         <v>576</v>
       </c>
       <c r="D303" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E303" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F303" s="5" t="s">
         <v>577</v>
@@ -32054,10 +32076,10 @@
         <v>576</v>
       </c>
       <c r="D304" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E304" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F304" s="5" t="s">
         <v>577</v>
@@ -32077,10 +32099,10 @@
         <v>576</v>
       </c>
       <c r="D305" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E305" s="1">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F305" s="5" t="s">
         <v>577</v>
@@ -32097,19 +32119,19 @@
         <v>575</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D306" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E306" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G306" s="5" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="16.5" customHeight="1">
@@ -32120,19 +32142,19 @@
         <v>575</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D307" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E307" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G307" s="5" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="16.5" customHeight="1">
@@ -32143,19 +32165,19 @@
         <v>575</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D308" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E308" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G308" s="5" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="16.5" customHeight="1">
@@ -32166,19 +32188,19 @@
         <v>575</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D309" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E309" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G309" s="5" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="16.5" customHeight="1">
@@ -32189,19 +32211,19 @@
         <v>575</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D310" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E310" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="16.5" customHeight="1">
@@ -32212,19 +32234,19 @@
         <v>575</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D311" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E311" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="16.5" customHeight="1">
@@ -32235,19 +32257,19 @@
         <v>575</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D312" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E312" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F312" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="16.5" customHeight="1">
@@ -32258,19 +32280,19 @@
         <v>575</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D313" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E313" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="16.5" customHeight="1">
@@ -32281,19 +32303,19 @@
         <v>575</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D314" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E314" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="16.5" customHeight="1">
@@ -32307,10 +32329,10 @@
         <v>580</v>
       </c>
       <c r="D315" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E315" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F315" s="5" t="s">
         <v>581</v>
@@ -32330,10 +32352,10 @@
         <v>580</v>
       </c>
       <c r="D316" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E316" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F316" s="5" t="s">
         <v>581</v>
@@ -32353,10 +32375,10 @@
         <v>580</v>
       </c>
       <c r="D317" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E317" s="1">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F317" s="5" t="s">
         <v>581</v>
@@ -32376,10 +32398,10 @@
         <v>580</v>
       </c>
       <c r="D318" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E318" s="1">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F318" s="5" t="s">
         <v>581</v>
@@ -32399,10 +32421,10 @@
         <v>580</v>
       </c>
       <c r="D319" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E319" s="1">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F319" s="5" t="s">
         <v>581</v>
@@ -32422,10 +32444,10 @@
         <v>580</v>
       </c>
       <c r="D320" s="1">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E320" s="1">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F320" s="5" t="s">
         <v>581</v>
@@ -32442,19 +32464,19 @@
         <v>579</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D321" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E321" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F321" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="16.5" customHeight="1">
@@ -32465,19 +32487,19 @@
         <v>579</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D322" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E322" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F322" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="16.5" customHeight="1">
@@ -32488,19 +32510,19 @@
         <v>579</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D323" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E323" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F323" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G323" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="16.5" customHeight="1">
@@ -32511,19 +32533,19 @@
         <v>579</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D324" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E324" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F324" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G324" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="16.5" customHeight="1">
@@ -32534,19 +32556,19 @@
         <v>579</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D325" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E325" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F325" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G325" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="16.5" customHeight="1">
@@ -32557,19 +32579,19 @@
         <v>579</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D326" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E326" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F326" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G326" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="16.5" customHeight="1">
@@ -32580,19 +32602,19 @@
         <v>579</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D327" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E327" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F327" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G327" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="16.5" customHeight="1">
@@ -32603,19 +32625,19 @@
         <v>579</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="D328" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E328" s="1">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F328" s="5" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="G328" s="5" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="16.5" customHeight="1">
@@ -32626,19 +32648,19 @@
         <v>579</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="D329" s="1">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E329" s="1">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F329" s="5" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="G329" s="5" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="16.5" customHeight="1">
@@ -32649,19 +32671,19 @@
         <v>583</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D330" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E330" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="G330" s="5" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="16.5" customHeight="1">
@@ -32672,19 +32694,19 @@
         <v>583</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D331" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E331" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F331" s="5" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="G331" s="5" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="16.5" customHeight="1">
@@ -32695,19 +32717,19 @@
         <v>583</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D332" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E332" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="G332" s="5" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="16.5" customHeight="1">
@@ -32718,19 +32740,19 @@
         <v>583</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D333" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E333" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F333" s="5" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="G333" s="5" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="16.5" customHeight="1">
@@ -32741,19 +32763,19 @@
         <v>583</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D334" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E334" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="G334" s="5" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="16.5" customHeight="1">
@@ -32764,19 +32786,19 @@
         <v>583</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="D335" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E335" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F335" s="5" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="G335" s="5" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="336" spans="1:7" ht="16.5" customHeight="1">
@@ -32787,19 +32809,19 @@
         <v>583</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="D336" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E336" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F336" s="5" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="G336" s="5" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="16.5" customHeight="1">
@@ -32810,19 +32832,19 @@
         <v>587</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="D337" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E337" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="G337" s="5" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="16.5" customHeight="1">
@@ -32833,19 +32855,19 @@
         <v>587</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="D338" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E338" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F338" s="5" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="G338" s="5" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="16.5" customHeight="1">
@@ -32856,19 +32878,19 @@
         <v>587</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="D339" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E339" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="G339" s="5" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="16.5" customHeight="1">
@@ -32879,19 +32901,19 @@
         <v>587</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="D340" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E340" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="G340" s="5" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="16.5" customHeight="1">
@@ -32902,19 +32924,19 @@
         <v>587</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="D341" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E341" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F341" s="5" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="G341" s="5" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="16.5" customHeight="1">
@@ -32925,19 +32947,19 @@
         <v>587</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="D342" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E342" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F342" s="5" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="G342" s="5" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="16.5" customHeight="1">
@@ -32948,19 +32970,19 @@
         <v>587</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="D343" s="1">
-        <v>15</v>
-      </c>
-      <c r="E343" s="1">
-        <v>15</v>
+        <v>605</v>
+      </c>
+      <c r="D343" s="5">
+        <v>6</v>
+      </c>
+      <c r="E343" s="10">
+        <v>6</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="G343" s="5" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="16.5" customHeight="1">
@@ -32971,19 +32993,19 @@
         <v>597</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="D344" s="1">
         <v>1</v>
       </c>
       <c r="E344" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F344" s="5" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="G344" s="5" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="16.5" customHeight="1">
@@ -32994,19 +33016,19 @@
         <v>597</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="D345" s="1">
+        <v>2</v>
+      </c>
+      <c r="E345" s="1">
         <v>4</v>
       </c>
-      <c r="E345" s="1">
-        <v>6</v>
-      </c>
       <c r="F345" s="5" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="G345" s="5" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="16.5" customHeight="1">
@@ -33017,19 +33039,19 @@
         <v>597</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="D346" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E346" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F346" s="5" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="G346" s="5" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="16.5" customHeight="1">
@@ -33040,19 +33062,19 @@
         <v>597</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="D347" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E347" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="G347" s="5" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
     </row>
     <row r="348" spans="1:7" ht="16.5" customHeight="1">
@@ -33063,7 +33085,7 @@
         <v>600</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="D348" s="1">
         <v>1</v>
@@ -33072,10 +33094,10 @@
         <v>3</v>
       </c>
       <c r="F348" s="5" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="G348" s="5" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="16.5" customHeight="1">
@@ -33086,19 +33108,19 @@
         <v>600</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="D349" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E349" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F349" s="5" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="G349" s="5" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
     </row>
     <row r="350" spans="1:7" ht="16.5" customHeight="1">
@@ -33109,19 +33131,19 @@
         <v>604</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="D350" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E350" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F350" s="5" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="G350" s="5" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="16.5" customHeight="1">
@@ -33132,19 +33154,19 @@
         <v>604</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="D351" s="1">
+        <v>1</v>
+      </c>
+      <c r="E351" s="1">
         <v>4</v>
       </c>
-      <c r="E351" s="1">
-        <v>5</v>
-      </c>
       <c r="F351" s="5" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="G351" s="5" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="16.5" customHeight="1">
@@ -33155,19 +33177,19 @@
         <v>604</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="D352" s="5">
-        <v>6</v>
-      </c>
-      <c r="E352" s="10">
-        <v>6</v>
+        <v>633</v>
+      </c>
+      <c r="D352" s="1">
+        <v>1</v>
+      </c>
+      <c r="E352" s="1">
+        <v>3</v>
       </c>
       <c r="F352" s="5" t="s">
-        <v>606</v>
+        <v>634</v>
       </c>
       <c r="G352" s="5" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="16.5" customHeight="1">
@@ -33178,7 +33200,7 @@
         <v>608</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>609</v>
+        <v>636</v>
       </c>
       <c r="D353" s="1">
         <v>1</v>
@@ -33187,10 +33209,10 @@
         <v>1</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="16.5" customHeight="1">
@@ -33201,19 +33223,19 @@
         <v>608</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>609</v>
+        <v>640</v>
       </c>
       <c r="D354" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E354" s="1">
         <v>4</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>610</v>
+        <v>641</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>611</v>
+        <v>642</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="16.5" customHeight="1">
@@ -33224,19 +33246,19 @@
         <v>612</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>613</v>
+        <v>640</v>
       </c>
       <c r="D355" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E355" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>614</v>
+        <v>641</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>615</v>
+        <v>642</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="16.5" customHeight="1">
@@ -33247,19 +33269,19 @@
         <v>616</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="D356" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E356" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>619</v>
+        <v>642</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="16.5" customHeight="1">
@@ -33270,19 +33292,19 @@
         <v>620</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="D357" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E357" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="16.5" customHeight="1">
@@ -33293,19 +33315,19 @@
         <v>624</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="D358" s="1">
         <v>1</v>
       </c>
       <c r="E358" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="16.5" customHeight="1">
@@ -33316,19 +33338,19 @@
         <v>624</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="D359" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E359" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>626</v>
+        <v>675</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="16.5" customHeight="1">

--- a/assets/Proclaim.xlsx
+++ b/assets/Proclaim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerus\StudioProjects\proclaim\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFBE7EC-2E81-4B44-B119-82979DD75D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E2AF01-E2B1-4134-8A5C-D7A87A27D355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Testament" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6171" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6201" uniqueCount="767">
   <si>
     <t>Date</t>
   </si>
@@ -15585,8 +15585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C270" workbookViewId="0">
-      <selection activeCell="E288" sqref="E288"/>
+    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="C286" sqref="C286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -20413,10 +20413,10 @@
         <v>677</v>
       </c>
       <c r="D209" s="12" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="E209" s="12" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="F209" s="5" t="s">
         <v>678</v>
@@ -20436,10 +20436,10 @@
         <v>677</v>
       </c>
       <c r="D210" s="12" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="E210" s="12" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F210" s="5" t="s">
         <v>678</v>
@@ -20459,10 +20459,10 @@
         <v>677</v>
       </c>
       <c r="D211" s="12" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="E211" s="12" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="F211" s="5" t="s">
         <v>678</v>
@@ -20482,10 +20482,10 @@
         <v>677</v>
       </c>
       <c r="D212" s="12" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="E212" s="12" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="F212" s="5" t="s">
         <v>678</v>
@@ -20505,10 +20505,10 @@
         <v>677</v>
       </c>
       <c r="D213" s="12" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="E213" s="12" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="F213" s="5" t="s">
         <v>678</v>
@@ -20528,10 +20528,10 @@
         <v>677</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="E214" s="12" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="F214" s="5" t="s">
         <v>678</v>
@@ -20551,10 +20551,10 @@
         <v>677</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="E215" s="12" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="F215" s="5" t="s">
         <v>678</v>
@@ -20573,11 +20573,11 @@
       <c r="C216" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D216" s="12">
-        <v>97</v>
-      </c>
-      <c r="E216" s="12">
-        <v>101</v>
+      <c r="D216" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="E216" s="12" t="s">
+        <v>727</v>
       </c>
       <c r="F216" s="5" t="s">
         <v>678</v>
@@ -20597,10 +20597,10 @@
         <v>677</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="E217" s="12" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="F217" s="5" t="s">
         <v>678</v>
@@ -20620,10 +20620,10 @@
         <v>677</v>
       </c>
       <c r="D218" s="12" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="E218" s="12" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F218" s="5" t="s">
         <v>678</v>
@@ -20643,10 +20643,10 @@
         <v>677</v>
       </c>
       <c r="D219" s="12" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="E219" s="12" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="F219" s="5" t="s">
         <v>678</v>
@@ -20666,10 +20666,10 @@
         <v>677</v>
       </c>
       <c r="D220" s="12" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="E220" s="12" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="F220" s="5" t="s">
         <v>678</v>
@@ -20689,10 +20689,10 @@
         <v>677</v>
       </c>
       <c r="D221" s="12" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="E221" s="12" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="F221" s="5" t="s">
         <v>678</v>
@@ -20711,11 +20711,11 @@
       <c r="C222" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D222" s="12" t="s">
-        <v>743</v>
-      </c>
-      <c r="E222" s="12" t="s">
-        <v>744</v>
+      <c r="D222" s="12">
+        <v>97</v>
+      </c>
+      <c r="E222" s="12">
+        <v>101</v>
       </c>
       <c r="F222" s="5" t="s">
         <v>678</v>
@@ -20735,10 +20735,10 @@
         <v>677</v>
       </c>
       <c r="D223" s="12" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="E223" s="12" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="F223" s="5" t="s">
         <v>678</v>
@@ -20758,10 +20758,10 @@
         <v>677</v>
       </c>
       <c r="D224" s="12" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E224" s="12" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="F224" s="5" t="s">
         <v>678</v>
@@ -20781,10 +20781,10 @@
         <v>677</v>
       </c>
       <c r="D225" s="12" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="E225" s="12" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="F225" s="5" t="s">
         <v>678</v>
@@ -20804,10 +20804,10 @@
         <v>677</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="E226" s="12" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F226" s="5" t="s">
         <v>678</v>
@@ -20827,10 +20827,10 @@
         <v>677</v>
       </c>
       <c r="D227" s="12" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="E227" s="12" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="F227" s="5" t="s">
         <v>678</v>
@@ -20850,10 +20850,10 @@
         <v>677</v>
       </c>
       <c r="D228" s="12" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="E228" s="12" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="F228" s="5" t="s">
         <v>678</v>
@@ -20873,10 +20873,10 @@
         <v>677</v>
       </c>
       <c r="D229" s="12" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="E229" s="12" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="F229" s="5" t="s">
         <v>678</v>
@@ -20896,10 +20896,10 @@
         <v>677</v>
       </c>
       <c r="D230" s="12" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E230" s="12" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="F230" s="5" t="s">
         <v>678</v>
@@ -20919,10 +20919,10 @@
         <v>677</v>
       </c>
       <c r="D231" s="12" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="E231" s="12" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="F231" s="5" t="s">
         <v>678</v>
@@ -20942,10 +20942,10 @@
         <v>677</v>
       </c>
       <c r="D232" s="12" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E232" s="12" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="F232" s="5" t="s">
         <v>678</v>
@@ -20965,10 +20965,10 @@
         <v>677</v>
       </c>
       <c r="D233" s="12" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="E233" s="12" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F233" s="5" t="s">
         <v>678</v>
@@ -20988,10 +20988,10 @@
         <v>677</v>
       </c>
       <c r="D234" s="12" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="E234" s="12" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="F234" s="5" t="s">
         <v>678</v>
@@ -21011,10 +21011,10 @@
         <v>677</v>
       </c>
       <c r="D235" s="12" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="E235" s="12" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="F235" s="5" t="s">
         <v>678</v>
@@ -21034,10 +21034,10 @@
         <v>677</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="E236" s="12" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="F236" s="5" t="s">
         <v>678</v>
@@ -21057,10 +21057,10 @@
         <v>677</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="E237" s="12" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="F237" s="5" t="s">
         <v>678</v>
@@ -21079,11 +21079,11 @@
       <c r="C238" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D238" s="5">
-        <v>1</v>
-      </c>
-      <c r="E238" s="10">
-        <v>2</v>
+      <c r="D238" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="E238" s="12" t="s">
+        <v>756</v>
       </c>
       <c r="F238" s="5" t="s">
         <v>678</v>
@@ -21102,11 +21102,11 @@
       <c r="C239" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D239" s="5">
-        <v>3</v>
-      </c>
-      <c r="E239" s="10">
-        <v>6</v>
+      <c r="D239" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="E239" s="12" t="s">
+        <v>758</v>
       </c>
       <c r="F239" s="5" t="s">
         <v>678</v>
@@ -21125,11 +21125,11 @@
       <c r="C240" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D240" s="5">
-        <v>7</v>
-      </c>
-      <c r="E240" s="10">
-        <v>9</v>
+      <c r="D240" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="E240" s="12" t="s">
+        <v>760</v>
       </c>
       <c r="F240" s="5" t="s">
         <v>678</v>
@@ -21148,11 +21148,11 @@
       <c r="C241" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D241" s="5">
-        <v>10</v>
-      </c>
-      <c r="E241" s="10">
-        <v>13</v>
+      <c r="D241" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="E241" s="12" t="s">
+        <v>762</v>
       </c>
       <c r="F241" s="5" t="s">
         <v>678</v>
@@ -21171,11 +21171,11 @@
       <c r="C242" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D242" s="5">
-        <v>14</v>
-      </c>
-      <c r="E242" s="10">
-        <v>17</v>
+      <c r="D242" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="E242" s="12" t="s">
+        <v>764</v>
       </c>
       <c r="F242" s="5" t="s">
         <v>678</v>
@@ -21194,11 +21194,11 @@
       <c r="C243" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D243" s="5">
-        <v>10</v>
-      </c>
-      <c r="E243" s="10">
-        <v>13</v>
+      <c r="D243" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="E243" s="12" t="s">
+        <v>766</v>
       </c>
       <c r="F243" s="5" t="s">
         <v>678</v>
@@ -21218,10 +21218,10 @@
         <v>677</v>
       </c>
       <c r="D244" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E244" s="10">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F244" s="5" t="s">
         <v>678</v>
@@ -21241,10 +21241,10 @@
         <v>677</v>
       </c>
       <c r="D245" s="5">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E245" s="10">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F245" s="5" t="s">
         <v>678</v>
@@ -21263,11 +21263,11 @@
       <c r="C246" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D246" s="12" t="s">
-        <v>680</v>
-      </c>
-      <c r="E246" s="12" t="s">
-        <v>681</v>
+      <c r="D246" s="5">
+        <v>7</v>
+      </c>
+      <c r="E246" s="10">
+        <v>9</v>
       </c>
       <c r="F246" s="5" t="s">
         <v>678</v>
@@ -21286,11 +21286,11 @@
       <c r="C247" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D247" s="12" t="s">
-        <v>682</v>
-      </c>
-      <c r="E247" s="12" t="s">
-        <v>683</v>
+      <c r="D247" s="5">
+        <v>10</v>
+      </c>
+      <c r="E247" s="10">
+        <v>13</v>
       </c>
       <c r="F247" s="5" t="s">
         <v>678</v>
@@ -21309,11 +21309,11 @@
       <c r="C248" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D248" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="E248" s="12" t="s">
-        <v>685</v>
+      <c r="D248" s="5">
+        <v>14</v>
+      </c>
+      <c r="E248" s="10">
+        <v>17</v>
       </c>
       <c r="F248" s="5" t="s">
         <v>678</v>
@@ -21332,11 +21332,11 @@
       <c r="C249" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D249" s="12" t="s">
-        <v>686</v>
-      </c>
-      <c r="E249" s="12" t="s">
-        <v>687</v>
+      <c r="D249" s="5">
+        <v>10</v>
+      </c>
+      <c r="E249" s="10">
+        <v>13</v>
       </c>
       <c r="F249" s="5" t="s">
         <v>678</v>
@@ -21355,11 +21355,11 @@
       <c r="C250" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D250" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="E250" s="12" t="s">
-        <v>689</v>
+      <c r="D250" s="5">
+        <v>14</v>
+      </c>
+      <c r="E250" s="10">
+        <v>17</v>
       </c>
       <c r="F250" s="5" t="s">
         <v>678</v>
@@ -21378,11 +21378,11 @@
       <c r="C251" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D251" s="12" t="s">
-        <v>690</v>
-      </c>
-      <c r="E251" s="12" t="s">
-        <v>691</v>
+      <c r="D251" s="5">
+        <v>18</v>
+      </c>
+      <c r="E251" s="10">
+        <v>19</v>
       </c>
       <c r="F251" s="5" t="s">
         <v>678</v>
@@ -21402,10 +21402,10 @@
         <v>677</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="E252" s="12" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="F252" s="5" t="s">
         <v>678</v>
@@ -21425,10 +21425,10 @@
         <v>677</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="E253" s="12" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="F253" s="5" t="s">
         <v>678</v>
@@ -21448,10 +21448,10 @@
         <v>677</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="E254" s="12" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="F254" s="5" t="s">
         <v>678</v>
@@ -21471,10 +21471,10 @@
         <v>677</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="E255" s="12" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="F255" s="5" t="s">
         <v>678</v>
@@ -21494,10 +21494,10 @@
         <v>677</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="E256" s="12" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="F256" s="5" t="s">
         <v>678</v>
@@ -21517,10 +21517,10 @@
         <v>677</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="E257" s="12" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="F257" s="5" t="s">
         <v>678</v>
@@ -21540,10 +21540,10 @@
         <v>677</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="E258" s="12" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="F258" s="5" t="s">
         <v>678</v>
@@ -21563,10 +21563,10 @@
         <v>677</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="E259" s="12" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="F259" s="5" t="s">
         <v>678</v>
@@ -21586,10 +21586,10 @@
         <v>677</v>
       </c>
       <c r="D260" s="12" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="E260" s="12" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="F260" s="5" t="s">
         <v>678</v>
@@ -21609,10 +21609,10 @@
         <v>677</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="E261" s="12" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="F261" s="5" t="s">
         <v>678</v>
@@ -21632,10 +21632,10 @@
         <v>677</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="E262" s="12" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="F262" s="5" t="s">
         <v>678</v>
@@ -21655,10 +21655,10 @@
         <v>677</v>
       </c>
       <c r="D263" s="12" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="E263" s="12" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="F263" s="5" t="s">
         <v>678</v>
@@ -21678,10 +21678,10 @@
         <v>677</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="E264" s="12" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="F264" s="5" t="s">
         <v>678</v>
@@ -21701,10 +21701,10 @@
         <v>677</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="E265" s="12" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="F265" s="5" t="s">
         <v>678</v>
@@ -21724,10 +21724,10 @@
         <v>677</v>
       </c>
       <c r="D266" s="12" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="E266" s="12" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="F266" s="5" t="s">
         <v>678</v>
@@ -21747,10 +21747,10 @@
         <v>677</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="E267" s="12" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="F267" s="5" t="s">
         <v>678</v>
@@ -21770,10 +21770,10 @@
         <v>677</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="E268" s="12" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="F268" s="5" t="s">
         <v>678</v>
@@ -21793,10 +21793,10 @@
         <v>677</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="E269" s="12" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="F269" s="5" t="s">
         <v>678</v>
@@ -21816,10 +21816,10 @@
         <v>677</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="E270" s="12" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="F270" s="5" t="s">
         <v>678</v>
@@ -21839,10 +21839,10 @@
         <v>677</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="E271" s="12" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F271" s="5" t="s">
         <v>678</v>
@@ -21862,10 +21862,10 @@
         <v>677</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="E272" s="12" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="F272" s="5" t="s">
         <v>678</v>
@@ -21885,10 +21885,10 @@
         <v>677</v>
       </c>
       <c r="D273" s="12" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="E273" s="12" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="F273" s="5" t="s">
         <v>678</v>
@@ -21908,10 +21908,10 @@
         <v>677</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="E274" s="12" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="F274" s="5" t="s">
         <v>678</v>
@@ -21931,10 +21931,10 @@
         <v>677</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="E275" s="12" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="F275" s="5" t="s">
         <v>678</v>
@@ -21954,10 +21954,10 @@
         <v>677</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="E276" s="12" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="F276" s="5" t="s">
         <v>678</v>
@@ -21976,11 +21976,11 @@
       <c r="C277" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D277" s="12">
-        <v>97</v>
-      </c>
-      <c r="E277" s="12">
-        <v>101</v>
+      <c r="D277" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="E277" s="12" t="s">
+        <v>727</v>
       </c>
       <c r="F277" s="5" t="s">
         <v>678</v>
@@ -22000,10 +22000,10 @@
         <v>677</v>
       </c>
       <c r="D278" s="12" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="E278" s="12" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="F278" s="5" t="s">
         <v>678</v>
@@ -22023,10 +22023,10 @@
         <v>677</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="E279" s="12" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F279" s="5" t="s">
         <v>678</v>
@@ -22046,10 +22046,10 @@
         <v>677</v>
       </c>
       <c r="D280" s="12" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="E280" s="12" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="F280" s="5" t="s">
         <v>678</v>
@@ -22069,10 +22069,10 @@
         <v>677</v>
       </c>
       <c r="D281" s="12" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="E281" s="12" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="F281" s="5" t="s">
         <v>678</v>
@@ -22092,10 +22092,10 @@
         <v>677</v>
       </c>
       <c r="D282" s="12" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="E282" s="12" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="F282" s="5" t="s">
         <v>678</v>
@@ -22114,11 +22114,11 @@
       <c r="C283" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D283" s="12" t="s">
-        <v>743</v>
-      </c>
-      <c r="E283" s="12" t="s">
-        <v>744</v>
+      <c r="D283" s="12">
+        <v>97</v>
+      </c>
+      <c r="E283" s="12">
+        <v>101</v>
       </c>
       <c r="F283" s="5" t="s">
         <v>678</v>
@@ -22138,10 +22138,10 @@
         <v>677</v>
       </c>
       <c r="D284" s="12" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="E284" s="12" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="F284" s="5" t="s">
         <v>678</v>
@@ -22161,10 +22161,10 @@
         <v>677</v>
       </c>
       <c r="D285" s="12" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E285" s="12" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="F285" s="5" t="s">
         <v>678</v>
@@ -22184,10 +22184,10 @@
         <v>677</v>
       </c>
       <c r="D286" s="12" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="E286" s="12" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="F286" s="5" t="s">
         <v>678</v>
@@ -22207,10 +22207,10 @@
         <v>677</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="E287" s="12" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F287" s="5" t="s">
         <v>678</v>
@@ -22230,10 +22230,10 @@
         <v>677</v>
       </c>
       <c r="D288" s="12" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="E288" s="12" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="F288" s="5" t="s">
         <v>678</v>
@@ -22253,10 +22253,10 @@
         <v>677</v>
       </c>
       <c r="D289" s="12" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="E289" s="12" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="F289" s="5" t="s">
         <v>678</v>
@@ -22276,10 +22276,10 @@
         <v>677</v>
       </c>
       <c r="D290" s="12" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="E290" s="12" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="F290" s="5" t="s">
         <v>678</v>
@@ -22299,10 +22299,10 @@
         <v>677</v>
       </c>
       <c r="D291" s="12" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E291" s="12" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="F291" s="5" t="s">
         <v>678</v>
@@ -22322,10 +22322,10 @@
         <v>677</v>
       </c>
       <c r="D292" s="12" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="E292" s="12" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="F292" s="5" t="s">
         <v>678</v>
@@ -22345,10 +22345,10 @@
         <v>677</v>
       </c>
       <c r="D293" s="12" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E293" s="12" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="F293" s="5" t="s">
         <v>678</v>
@@ -22368,10 +22368,10 @@
         <v>677</v>
       </c>
       <c r="D294" s="12" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="E294" s="12" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F294" s="5" t="s">
         <v>678</v>
@@ -22391,10 +22391,10 @@
         <v>677</v>
       </c>
       <c r="D295" s="12" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="E295" s="12" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="F295" s="5" t="s">
         <v>678</v>
@@ -22414,10 +22414,10 @@
         <v>677</v>
       </c>
       <c r="D296" s="12" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="E296" s="12" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="F296" s="5" t="s">
         <v>678</v>
@@ -22437,10 +22437,10 @@
         <v>677</v>
       </c>
       <c r="D297" s="12" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="E297" s="12" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="F297" s="5" t="s">
         <v>678</v>
@@ -22460,10 +22460,10 @@
         <v>677</v>
       </c>
       <c r="D298" s="12" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="E298" s="12" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="F298" s="5" t="s">
         <v>678</v>
@@ -22482,11 +22482,11 @@
       <c r="C299" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D299" s="5">
-        <v>1</v>
-      </c>
-      <c r="E299" s="10">
-        <v>2</v>
+      <c r="D299" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="E299" s="12" t="s">
+        <v>756</v>
       </c>
       <c r="F299" s="5" t="s">
         <v>678</v>
@@ -22505,11 +22505,11 @@
       <c r="C300" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D300" s="5">
-        <v>3</v>
-      </c>
-      <c r="E300" s="10">
-        <v>6</v>
+      <c r="D300" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="E300" s="12" t="s">
+        <v>758</v>
       </c>
       <c r="F300" s="5" t="s">
         <v>678</v>
@@ -22528,11 +22528,11 @@
       <c r="C301" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D301" s="5">
-        <v>7</v>
-      </c>
-      <c r="E301" s="10">
-        <v>9</v>
+      <c r="D301" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="E301" s="12" t="s">
+        <v>760</v>
       </c>
       <c r="F301" s="5" t="s">
         <v>678</v>
@@ -22551,11 +22551,11 @@
       <c r="C302" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D302" s="5">
-        <v>10</v>
-      </c>
-      <c r="E302" s="10">
-        <v>13</v>
+      <c r="D302" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="E302" s="12" t="s">
+        <v>762</v>
       </c>
       <c r="F302" s="5" t="s">
         <v>678</v>
@@ -22574,11 +22574,11 @@
       <c r="C303" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D303" s="5">
-        <v>14</v>
-      </c>
-      <c r="E303" s="10">
-        <v>17</v>
+      <c r="D303" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="E303" s="12" t="s">
+        <v>764</v>
       </c>
       <c r="F303" s="5" t="s">
         <v>678</v>
@@ -22597,11 +22597,11 @@
       <c r="C304" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D304" s="5">
-        <v>18</v>
-      </c>
-      <c r="E304" s="10">
-        <v>19</v>
+      <c r="D304" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="E304" s="12" t="s">
+        <v>766</v>
       </c>
       <c r="F304" s="5" t="s">
         <v>678</v>
@@ -22620,11 +22620,11 @@
       <c r="C305" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D305" s="12" t="s">
-        <v>680</v>
-      </c>
-      <c r="E305" s="12" t="s">
-        <v>681</v>
+      <c r="D305" s="5">
+        <v>1</v>
+      </c>
+      <c r="E305" s="10">
+        <v>2</v>
       </c>
       <c r="F305" s="5" t="s">
         <v>678</v>
@@ -22643,11 +22643,11 @@
       <c r="C306" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D306" s="12" t="s">
-        <v>682</v>
-      </c>
-      <c r="E306" s="12" t="s">
-        <v>683</v>
+      <c r="D306" s="5">
+        <v>3</v>
+      </c>
+      <c r="E306" s="10">
+        <v>6</v>
       </c>
       <c r="F306" s="5" t="s">
         <v>678</v>
@@ -22666,11 +22666,11 @@
       <c r="C307" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D307" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="E307" s="12" t="s">
-        <v>685</v>
+      <c r="D307" s="5">
+        <v>7</v>
+      </c>
+      <c r="E307" s="10">
+        <v>9</v>
       </c>
       <c r="F307" s="5" t="s">
         <v>678</v>
@@ -22689,11 +22689,11 @@
       <c r="C308" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D308" s="12" t="s">
-        <v>686</v>
-      </c>
-      <c r="E308" s="12" t="s">
-        <v>687</v>
+      <c r="D308" s="5">
+        <v>10</v>
+      </c>
+      <c r="E308" s="10">
+        <v>13</v>
       </c>
       <c r="F308" s="5" t="s">
         <v>678</v>
@@ -22712,11 +22712,11 @@
       <c r="C309" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D309" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="E309" s="12" t="s">
-        <v>689</v>
+      <c r="D309" s="5">
+        <v>14</v>
+      </c>
+      <c r="E309" s="10">
+        <v>17</v>
       </c>
       <c r="F309" s="5" t="s">
         <v>678</v>
@@ -22735,11 +22735,11 @@
       <c r="C310" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D310" s="12" t="s">
-        <v>690</v>
-      </c>
-      <c r="E310" s="12" t="s">
-        <v>691</v>
+      <c r="D310" s="5">
+        <v>18</v>
+      </c>
+      <c r="E310" s="10">
+        <v>19</v>
       </c>
       <c r="F310" s="5" t="s">
         <v>678</v>
@@ -22759,10 +22759,10 @@
         <v>677</v>
       </c>
       <c r="D311" s="12" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="E311" s="12" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="F311" s="5" t="s">
         <v>678</v>
@@ -22782,10 +22782,10 @@
         <v>677</v>
       </c>
       <c r="D312" s="12" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="E312" s="12" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="F312" s="5" t="s">
         <v>678</v>
@@ -22805,10 +22805,10 @@
         <v>677</v>
       </c>
       <c r="D313" s="12" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="E313" s="12" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="F313" s="5" t="s">
         <v>678</v>
@@ -22828,10 +22828,10 @@
         <v>677</v>
       </c>
       <c r="D314" s="12" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="E314" s="12" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="F314" s="5" t="s">
         <v>678</v>
@@ -22851,10 +22851,10 @@
         <v>677</v>
       </c>
       <c r="D315" s="12" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="E315" s="12" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="F315" s="5" t="s">
         <v>678</v>
@@ -22874,10 +22874,10 @@
         <v>677</v>
       </c>
       <c r="D316" s="12" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="E316" s="12" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="F316" s="5" t="s">
         <v>678</v>
@@ -22897,10 +22897,10 @@
         <v>677</v>
       </c>
       <c r="D317" s="12" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="E317" s="12" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="F317" s="5" t="s">
         <v>678</v>
@@ -22920,10 +22920,10 @@
         <v>677</v>
       </c>
       <c r="D318" s="12" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="E318" s="12" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="F318" s="5" t="s">
         <v>678</v>
@@ -22943,10 +22943,10 @@
         <v>677</v>
       </c>
       <c r="D319" s="12" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="E319" s="12" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="F319" s="5" t="s">
         <v>678</v>
@@ -22966,10 +22966,10 @@
         <v>677</v>
       </c>
       <c r="D320" s="12" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="E320" s="12" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="F320" s="5" t="s">
         <v>678</v>
@@ -22989,10 +22989,10 @@
         <v>677</v>
       </c>
       <c r="D321" s="12" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="E321" s="12" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="F321" s="5" t="s">
         <v>678</v>
@@ -23012,10 +23012,10 @@
         <v>677</v>
       </c>
       <c r="D322" s="12" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="E322" s="12" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="F322" s="5" t="s">
         <v>678</v>
@@ -23035,10 +23035,10 @@
         <v>677</v>
       </c>
       <c r="D323" s="12" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="E323" s="12" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="F323" s="5" t="s">
         <v>678</v>
@@ -23058,10 +23058,10 @@
         <v>677</v>
       </c>
       <c r="D324" s="12" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="E324" s="12" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="F324" s="5" t="s">
         <v>678</v>
@@ -23081,10 +23081,10 @@
         <v>677</v>
       </c>
       <c r="D325" s="12" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="E325" s="12" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="F325" s="5" t="s">
         <v>678</v>
@@ -23104,10 +23104,10 @@
         <v>677</v>
       </c>
       <c r="D326" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="E326" s="12" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="F326" s="5" t="s">
         <v>678</v>
@@ -23127,10 +23127,10 @@
         <v>677</v>
       </c>
       <c r="D327" s="12" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="E327" s="12" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="F327" s="5" t="s">
         <v>678</v>
@@ -23150,10 +23150,10 @@
         <v>677</v>
       </c>
       <c r="D328" s="12" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="E328" s="12" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="F328" s="5" t="s">
         <v>678</v>
@@ -23173,10 +23173,10 @@
         <v>677</v>
       </c>
       <c r="D329" s="12" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="E329" s="12" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="F329" s="5" t="s">
         <v>678</v>
@@ -23196,10 +23196,10 @@
         <v>677</v>
       </c>
       <c r="D330" s="12" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="E330" s="12" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F330" s="5" t="s">
         <v>678</v>
@@ -23219,10 +23219,10 @@
         <v>677</v>
       </c>
       <c r="D331" s="12" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="E331" s="12" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="F331" s="5" t="s">
         <v>678</v>
@@ -23242,10 +23242,10 @@
         <v>677</v>
       </c>
       <c r="D332" s="12" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="E332" s="12" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="F332" s="5" t="s">
         <v>678</v>
@@ -23265,10 +23265,10 @@
         <v>677</v>
       </c>
       <c r="D333" s="12" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="E333" s="12" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="F333" s="5" t="s">
         <v>678</v>
@@ -23288,10 +23288,10 @@
         <v>677</v>
       </c>
       <c r="D334" s="12" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="E334" s="12" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="F334" s="5" t="s">
         <v>678</v>
@@ -23311,10 +23311,10 @@
         <v>677</v>
       </c>
       <c r="D335" s="12" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="E335" s="12" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="F335" s="5" t="s">
         <v>678</v>
@@ -23333,11 +23333,11 @@
       <c r="C336" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D336" s="12">
-        <v>97</v>
-      </c>
-      <c r="E336" s="12">
-        <v>101</v>
+      <c r="D336" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="E336" s="12" t="s">
+        <v>727</v>
       </c>
       <c r="F336" s="5" t="s">
         <v>678</v>
@@ -23357,10 +23357,10 @@
         <v>677</v>
       </c>
       <c r="D337" s="12" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="E337" s="12" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="F337" s="5" t="s">
         <v>678</v>
@@ -23380,10 +23380,10 @@
         <v>677</v>
       </c>
       <c r="D338" s="12" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="E338" s="12" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F338" s="5" t="s">
         <v>678</v>
@@ -23403,10 +23403,10 @@
         <v>677</v>
       </c>
       <c r="D339" s="12" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="E339" s="12" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="F339" s="5" t="s">
         <v>678</v>
@@ -23426,10 +23426,10 @@
         <v>677</v>
       </c>
       <c r="D340" s="12" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="E340" s="12" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="F340" s="5" t="s">
         <v>678</v>
@@ -23449,10 +23449,10 @@
         <v>677</v>
       </c>
       <c r="D341" s="12" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="E341" s="12" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="F341" s="5" t="s">
         <v>678</v>
@@ -23471,11 +23471,11 @@
       <c r="C342" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D342" s="12" t="s">
-        <v>743</v>
-      </c>
-      <c r="E342" s="12" t="s">
-        <v>744</v>
+      <c r="D342" s="12">
+        <v>97</v>
+      </c>
+      <c r="E342" s="12">
+        <v>101</v>
       </c>
       <c r="F342" s="5" t="s">
         <v>678</v>
@@ -23495,10 +23495,10 @@
         <v>677</v>
       </c>
       <c r="D343" s="12" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="E343" s="12" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="F343" s="5" t="s">
         <v>678</v>
@@ -23518,10 +23518,10 @@
         <v>677</v>
       </c>
       <c r="D344" s="12" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E344" s="12" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="F344" s="5" t="s">
         <v>678</v>
@@ -23541,10 +23541,10 @@
         <v>677</v>
       </c>
       <c r="D345" s="12" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="E345" s="12" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="F345" s="5" t="s">
         <v>678</v>
@@ -23564,10 +23564,10 @@
         <v>677</v>
       </c>
       <c r="D346" s="12" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="E346" s="12" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F346" s="5" t="s">
         <v>678</v>
@@ -23587,10 +23587,10 @@
         <v>677</v>
       </c>
       <c r="D347" s="12" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="E347" s="12" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="F347" s="5" t="s">
         <v>678</v>
@@ -23610,10 +23610,10 @@
         <v>677</v>
       </c>
       <c r="D348" s="12" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="E348" s="12" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="F348" s="5" t="s">
         <v>678</v>
@@ -23633,10 +23633,10 @@
         <v>677</v>
       </c>
       <c r="D349" s="12" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="E349" s="12" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="F349" s="5" t="s">
         <v>678</v>
@@ -23656,10 +23656,10 @@
         <v>677</v>
       </c>
       <c r="D350" s="12" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E350" s="12" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="F350" s="5" t="s">
         <v>678</v>
@@ -23679,10 +23679,10 @@
         <v>677</v>
       </c>
       <c r="D351" s="12" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="E351" s="12" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="F351" s="5" t="s">
         <v>678</v>
@@ -23702,10 +23702,10 @@
         <v>677</v>
       </c>
       <c r="D352" s="12" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E352" s="12" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="F352" s="5" t="s">
         <v>678</v>
@@ -23725,10 +23725,10 @@
         <v>677</v>
       </c>
       <c r="D353" s="12" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="E353" s="12" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F353" s="5" t="s">
         <v>678</v>
@@ -23748,10 +23748,10 @@
         <v>677</v>
       </c>
       <c r="D354" s="12" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="E354" s="12" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="F354" s="5" t="s">
         <v>678</v>
@@ -23771,10 +23771,10 @@
         <v>677</v>
       </c>
       <c r="D355" s="12" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="E355" s="12" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="F355" s="5" t="s">
         <v>678</v>
@@ -23794,10 +23794,10 @@
         <v>677</v>
       </c>
       <c r="D356" s="12" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="E356" s="12" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="F356" s="5" t="s">
         <v>678</v>
@@ -23817,10 +23817,10 @@
         <v>677</v>
       </c>
       <c r="D357" s="12" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="E357" s="12" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="F357" s="5" t="s">
         <v>678</v>
@@ -23839,11 +23839,11 @@
       <c r="C358" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D358" s="5">
-        <v>1</v>
-      </c>
-      <c r="E358" s="10">
-        <v>2</v>
+      <c r="D358" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="E358" s="12" t="s">
+        <v>756</v>
       </c>
       <c r="F358" s="5" t="s">
         <v>678</v>
@@ -23862,11 +23862,11 @@
       <c r="C359" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D359" s="5">
-        <v>3</v>
-      </c>
-      <c r="E359" s="10">
-        <v>6</v>
+      <c r="D359" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="E359" s="12" t="s">
+        <v>758</v>
       </c>
       <c r="F359" s="5" t="s">
         <v>678</v>
@@ -23885,11 +23885,11 @@
       <c r="C360" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D360" s="5">
-        <v>7</v>
-      </c>
-      <c r="E360" s="10">
-        <v>9</v>
+      <c r="D360" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="E360" s="12" t="s">
+        <v>760</v>
       </c>
       <c r="F360" s="5" t="s">
         <v>678</v>
@@ -23908,11 +23908,11 @@
       <c r="C361" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D361" s="5">
-        <v>10</v>
-      </c>
-      <c r="E361" s="10">
-        <v>13</v>
+      <c r="D361" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="E361" s="12" t="s">
+        <v>762</v>
       </c>
       <c r="F361" s="5" t="s">
         <v>678</v>
@@ -23931,11 +23931,11 @@
       <c r="C362" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D362" s="5">
-        <v>14</v>
-      </c>
-      <c r="E362" s="10">
-        <v>17</v>
+      <c r="D362" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="E362" s="12" t="s">
+        <v>764</v>
       </c>
       <c r="F362" s="5" t="s">
         <v>678</v>
@@ -23954,11 +23954,11 @@
       <c r="C363" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D363" s="5">
-        <v>18</v>
-      </c>
-      <c r="E363" s="10">
-        <v>19</v>
+      <c r="D363" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="E363" s="12" t="s">
+        <v>766</v>
       </c>
       <c r="F363" s="5" t="s">
         <v>678</v>
@@ -23977,11 +23977,11 @@
       <c r="C364" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D364" s="12" t="s">
-        <v>680</v>
-      </c>
-      <c r="E364" s="12" t="s">
-        <v>681</v>
+      <c r="D364" s="5">
+        <v>1</v>
+      </c>
+      <c r="E364" s="10">
+        <v>2</v>
       </c>
       <c r="F364" s="5" t="s">
         <v>678</v>
@@ -24000,11 +24000,11 @@
       <c r="C365" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D365" s="12" t="s">
-        <v>682</v>
-      </c>
-      <c r="E365" s="12" t="s">
-        <v>683</v>
+      <c r="D365" s="5">
+        <v>3</v>
+      </c>
+      <c r="E365" s="10">
+        <v>6</v>
       </c>
       <c r="F365" s="5" t="s">
         <v>678</v>
@@ -24023,11 +24023,11 @@
       <c r="C366" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D366" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="E366" s="12" t="s">
-        <v>685</v>
+      <c r="D366" s="5">
+        <v>7</v>
+      </c>
+      <c r="E366" s="10">
+        <v>9</v>
       </c>
       <c r="F366" s="5" t="s">
         <v>678</v>
@@ -24046,11 +24046,11 @@
       <c r="C367" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D367" s="12" t="s">
-        <v>686</v>
-      </c>
-      <c r="E367" s="12" t="s">
-        <v>687</v>
+      <c r="D367" s="5">
+        <v>10</v>
+      </c>
+      <c r="E367" s="10">
+        <v>13</v>
       </c>
       <c r="F367" s="5" t="s">
         <v>678</v>
@@ -24069,11 +24069,11 @@
       <c r="C368" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D368" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="E368" s="12" t="s">
-        <v>689</v>
+      <c r="D368" s="5">
+        <v>14</v>
+      </c>
+      <c r="E368" s="10">
+        <v>17</v>
       </c>
       <c r="F368" s="5" t="s">
         <v>678</v>
@@ -24084,12 +24084,14 @@
     </row>
     <row r="369" spans="2:7" ht="16.5" customHeight="1">
       <c r="B369" s="5"/>
-      <c r="C369" s="5"/>
-      <c r="D369" s="12" t="s">
-        <v>690</v>
-      </c>
-      <c r="E369" s="12" t="s">
-        <v>691</v>
+      <c r="C369" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="D369" s="5">
+        <v>18</v>
+      </c>
+      <c r="E369" s="10">
+        <v>19</v>
       </c>
       <c r="F369" s="5" t="s">
         <v>678</v>
@@ -24100,12 +24102,14 @@
     </row>
     <row r="370" spans="2:7" ht="16.5" customHeight="1">
       <c r="B370" s="5"/>
-      <c r="C370" s="5"/>
+      <c r="C370" s="5" t="s">
+        <v>677</v>
+      </c>
       <c r="D370" s="12" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="E370" s="12" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="F370" s="5" t="s">
         <v>678</v>
@@ -24116,51 +24120,107 @@
     </row>
     <row r="371" spans="2:7" ht="16.5" customHeight="1">
       <c r="B371" s="5"/>
-      <c r="C371" s="5"/>
-      <c r="D371" s="12"/>
-      <c r="E371" s="12"/>
-      <c r="F371" s="5"/>
-      <c r="G371" s="5"/>
+      <c r="C371" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="D371" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="E371" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="F371" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="G371" s="5" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="372" spans="2:7" ht="16.5" customHeight="1">
       <c r="B372" s="5"/>
-      <c r="C372" s="5"/>
-      <c r="D372" s="12"/>
-      <c r="E372" s="12"/>
-      <c r="F372" s="5"/>
-      <c r="G372" s="5"/>
+      <c r="C372" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="D372" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="E372" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="F372" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="G372" s="5" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="373" spans="2:7" ht="16.5" customHeight="1">
       <c r="B373" s="5"/>
-      <c r="C373" s="5"/>
-      <c r="D373" s="12"/>
-      <c r="E373" s="12"/>
-      <c r="F373" s="5"/>
-      <c r="G373" s="5"/>
+      <c r="C373" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="D373" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="E373" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="F373" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="G373" s="5" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="374" spans="2:7" ht="16.5" customHeight="1">
       <c r="B374" s="5"/>
-      <c r="C374" s="5"/>
-      <c r="D374" s="12"/>
-      <c r="E374" s="12"/>
-      <c r="F374" s="5"/>
-      <c r="G374" s="5"/>
+      <c r="C374" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="D374" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="E374" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="F374" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="G374" s="5" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="375" spans="2:7" ht="16.5" customHeight="1">
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
-      <c r="D375" s="12"/>
-      <c r="E375" s="12"/>
-      <c r="F375" s="5"/>
-      <c r="G375" s="5"/>
+      <c r="D375" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="E375" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="F375" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="G375" s="5" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="376" spans="2:7" ht="16.5" customHeight="1">
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
-      <c r="D376" s="12"/>
-      <c r="E376" s="12"/>
-      <c r="F376" s="5"/>
-      <c r="G376" s="5"/>
+      <c r="D376" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="E376" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="F376" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="G376" s="5" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="377" spans="2:7" ht="16.5" customHeight="1">
       <c r="B377" s="5"/>
@@ -25063,8 +25123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="C269" sqref="C269:G284"/>
+    <sheetView topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="D276" sqref="D276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>

--- a/assets/Proclaim.xlsx
+++ b/assets/Proclaim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerus\StudioProjects\proclaim\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E2AF01-E2B1-4134-8A5C-D7A87A27D355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70B0B64-A530-4E14-B597-346BE3BEBA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6201" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6165" uniqueCount="767">
   <si>
     <t>Date</t>
   </si>
@@ -15585,8 +15585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="C286" sqref="C286"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="C369" sqref="C369:G377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -24084,143 +24084,67 @@
     </row>
     <row r="369" spans="2:7" ht="16.5" customHeight="1">
       <c r="B369" s="5"/>
-      <c r="C369" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="D369" s="5">
-        <v>18</v>
-      </c>
-      <c r="E369" s="10">
-        <v>19</v>
-      </c>
-      <c r="F369" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="G369" s="5" t="s">
-        <v>679</v>
-      </c>
+      <c r="C369" s="5"/>
+      <c r="D369" s="5"/>
+      <c r="E369" s="10"/>
+      <c r="F369" s="5"/>
+      <c r="G369" s="5"/>
     </row>
     <row r="370" spans="2:7" ht="16.5" customHeight="1">
       <c r="B370" s="5"/>
-      <c r="C370" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="D370" s="12" t="s">
-        <v>680</v>
-      </c>
-      <c r="E370" s="12" t="s">
-        <v>681</v>
-      </c>
-      <c r="F370" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="G370" s="5" t="s">
-        <v>679</v>
-      </c>
+      <c r="C370" s="5"/>
+      <c r="D370" s="12"/>
+      <c r="E370" s="12"/>
+      <c r="F370" s="5"/>
+      <c r="G370" s="5"/>
     </row>
     <row r="371" spans="2:7" ht="16.5" customHeight="1">
       <c r="B371" s="5"/>
-      <c r="C371" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="D371" s="12" t="s">
-        <v>682</v>
-      </c>
-      <c r="E371" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="F371" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="G371" s="5" t="s">
-        <v>679</v>
-      </c>
+      <c r="C371" s="5"/>
+      <c r="D371" s="12"/>
+      <c r="E371" s="12"/>
+      <c r="F371" s="5"/>
+      <c r="G371" s="5"/>
     </row>
     <row r="372" spans="2:7" ht="16.5" customHeight="1">
       <c r="B372" s="5"/>
-      <c r="C372" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="D372" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="E372" s="12" t="s">
-        <v>685</v>
-      </c>
-      <c r="F372" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="G372" s="5" t="s">
-        <v>679</v>
-      </c>
+      <c r="C372" s="5"/>
+      <c r="D372" s="12"/>
+      <c r="E372" s="12"/>
+      <c r="F372" s="5"/>
+      <c r="G372" s="5"/>
     </row>
     <row r="373" spans="2:7" ht="16.5" customHeight="1">
       <c r="B373" s="5"/>
-      <c r="C373" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="D373" s="12" t="s">
-        <v>686</v>
-      </c>
-      <c r="E373" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="F373" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="G373" s="5" t="s">
-        <v>679</v>
-      </c>
+      <c r="C373" s="5"/>
+      <c r="D373" s="12"/>
+      <c r="E373" s="12"/>
+      <c r="F373" s="5"/>
+      <c r="G373" s="5"/>
     </row>
     <row r="374" spans="2:7" ht="16.5" customHeight="1">
       <c r="B374" s="5"/>
-      <c r="C374" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="D374" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="E374" s="12" t="s">
-        <v>689</v>
-      </c>
-      <c r="F374" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="G374" s="5" t="s">
-        <v>679</v>
-      </c>
+      <c r="C374" s="5"/>
+      <c r="D374" s="12"/>
+      <c r="E374" s="12"/>
+      <c r="F374" s="5"/>
+      <c r="G374" s="5"/>
     </row>
     <row r="375" spans="2:7" ht="16.5" customHeight="1">
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
-      <c r="D375" s="12" t="s">
-        <v>690</v>
-      </c>
-      <c r="E375" s="12" t="s">
-        <v>691</v>
-      </c>
-      <c r="F375" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="G375" s="5" t="s">
-        <v>679</v>
-      </c>
+      <c r="D375" s="12"/>
+      <c r="E375" s="12"/>
+      <c r="F375" s="5"/>
+      <c r="G375" s="5"/>
     </row>
     <row r="376" spans="2:7" ht="16.5" customHeight="1">
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
-      <c r="D376" s="12" t="s">
-        <v>692</v>
-      </c>
-      <c r="E376" s="12" t="s">
-        <v>693</v>
-      </c>
-      <c r="F376" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="G376" s="5" t="s">
-        <v>679</v>
-      </c>
+      <c r="D376" s="12"/>
+      <c r="E376" s="12"/>
+      <c r="F376" s="5"/>
+      <c r="G376" s="5"/>
     </row>
     <row r="377" spans="2:7" ht="16.5" customHeight="1">
       <c r="B377" s="5"/>

--- a/assets/Proclaim.xlsx
+++ b/assets/Proclaim.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerus\StudioProjects\proclaim\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C49168-2B0D-4C13-AFA6-ED9AF69B2B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70B0B64-A530-4E14-B597-346BE3BEBA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Testament" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6167" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6165" uniqueCount="767">
   <si>
     <t>Date</t>
   </si>
@@ -2658,7 +2658,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B356" workbookViewId="0">
+      <selection activeCell="D285" sqref="D285:G367"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -9212,10 +9214,10 @@
         <v>400</v>
       </c>
       <c r="D285" s="6">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E285" s="6">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F285" s="8" t="s">
         <v>401</v>
@@ -9235,10 +9237,10 @@
         <v>400</v>
       </c>
       <c r="D286" s="6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E286" s="6">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F286" s="8" t="s">
         <v>401</v>
@@ -9258,10 +9260,10 @@
         <v>400</v>
       </c>
       <c r="D287" s="6">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E287" s="6">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F287" s="8" t="s">
         <v>401</v>
@@ -9281,10 +9283,10 @@
         <v>400</v>
       </c>
       <c r="D288" s="6">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E288" s="6">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F288" s="8" t="s">
         <v>401</v>
@@ -9304,10 +9306,10 @@
         <v>400</v>
       </c>
       <c r="D289" s="6">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E289" s="6">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F289" s="8" t="s">
         <v>401</v>
@@ -9327,10 +9329,10 @@
         <v>400</v>
       </c>
       <c r="D290" s="6">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E290" s="6">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F290" s="8" t="s">
         <v>401</v>
@@ -9350,10 +9352,10 @@
         <v>400</v>
       </c>
       <c r="D291" s="6">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E291" s="6">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F291" s="8" t="s">
         <v>401</v>
@@ -9373,10 +9375,10 @@
         <v>400</v>
       </c>
       <c r="D292" s="6">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E292" s="6">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F292" s="8" t="s">
         <v>401</v>
@@ -9396,16 +9398,16 @@
         <v>400</v>
       </c>
       <c r="D293" s="6">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E293" s="6">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="F293" s="8" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="G293" s="8" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="16.5" customHeight="1">
@@ -9419,10 +9421,10 @@
         <v>427</v>
       </c>
       <c r="D294" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E294" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F294" s="8" t="s">
         <v>428</v>
@@ -9442,10 +9444,10 @@
         <v>427</v>
       </c>
       <c r="D295" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E295" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F295" s="8" t="s">
         <v>428</v>
@@ -9465,10 +9467,10 @@
         <v>427</v>
       </c>
       <c r="D296" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E296" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F296" s="8" t="s">
         <v>428</v>
@@ -9488,10 +9490,10 @@
         <v>427</v>
       </c>
       <c r="D297" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E297" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F297" s="8" t="s">
         <v>428</v>
@@ -9511,10 +9513,10 @@
         <v>427</v>
       </c>
       <c r="D298" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E298" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F298" s="8" t="s">
         <v>428</v>
@@ -9534,10 +9536,10 @@
         <v>427</v>
       </c>
       <c r="D299" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E299" s="6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F299" s="8" t="s">
         <v>428</v>
@@ -9557,10 +9559,10 @@
         <v>427</v>
       </c>
       <c r="D300" s="6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E300" s="6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F300" s="8" t="s">
         <v>428</v>
@@ -9580,10 +9582,10 @@
         <v>427</v>
       </c>
       <c r="D301" s="6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E301" s="6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F301" s="8" t="s">
         <v>428</v>
@@ -9603,10 +9605,10 @@
         <v>427</v>
       </c>
       <c r="D302" s="6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E302" s="6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F302" s="8" t="s">
         <v>428</v>
@@ -9626,10 +9628,10 @@
         <v>427</v>
       </c>
       <c r="D303" s="6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E303" s="6">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F303" s="8" t="s">
         <v>428</v>
@@ -9649,10 +9651,10 @@
         <v>427</v>
       </c>
       <c r="D304" s="6">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E304" s="6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F304" s="8" t="s">
         <v>428</v>
@@ -9672,10 +9674,10 @@
         <v>427</v>
       </c>
       <c r="D305" s="6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E305" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F305" s="8" t="s">
         <v>428</v>
@@ -9695,10 +9697,10 @@
         <v>427</v>
       </c>
       <c r="D306" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E306" s="6">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F306" s="8" t="s">
         <v>428</v>
@@ -9718,10 +9720,10 @@
         <v>427</v>
       </c>
       <c r="D307" s="6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E307" s="6">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F307" s="8" t="s">
         <v>428</v>
@@ -9741,10 +9743,10 @@
         <v>427</v>
       </c>
       <c r="D308" s="6">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E308" s="6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F308" s="8" t="s">
         <v>428</v>
@@ -9764,10 +9766,10 @@
         <v>427</v>
       </c>
       <c r="D309" s="6">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E309" s="6">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F309" s="8" t="s">
         <v>428</v>
@@ -9787,10 +9789,10 @@
         <v>427</v>
       </c>
       <c r="D310" s="6">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E310" s="6">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F310" s="8" t="s">
         <v>428</v>
@@ -9810,10 +9812,10 @@
         <v>427</v>
       </c>
       <c r="D311" s="6">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E311" s="6">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F311" s="8" t="s">
         <v>428</v>
@@ -9833,10 +9835,10 @@
         <v>427</v>
       </c>
       <c r="D312" s="6">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E312" s="6">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F312" s="8" t="s">
         <v>428</v>
@@ -9856,10 +9858,10 @@
         <v>427</v>
       </c>
       <c r="D313" s="6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E313" s="6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F313" s="8" t="s">
         <v>428</v>
@@ -9879,10 +9881,10 @@
         <v>427</v>
       </c>
       <c r="D314" s="6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E314" s="6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F314" s="8" t="s">
         <v>428</v>
@@ -9902,10 +9904,10 @@
         <v>427</v>
       </c>
       <c r="D315" s="6">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E315" s="6">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F315" s="8" t="s">
         <v>428</v>
@@ -9925,16 +9927,16 @@
         <v>427</v>
       </c>
       <c r="D316" s="6">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E316" s="6">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="F316" s="8" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="G316" s="8" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="16.5" customHeight="1">
@@ -9948,10 +9950,10 @@
         <v>454</v>
       </c>
       <c r="D317" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E317" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F317" s="8" t="s">
         <v>455</v>
@@ -9971,10 +9973,10 @@
         <v>454</v>
       </c>
       <c r="D318" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E318" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F318" s="8" t="s">
         <v>455</v>
@@ -9994,16 +9996,16 @@
         <v>454</v>
       </c>
       <c r="D319" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E319" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F319" s="8" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="G319" s="8" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="16.5" customHeight="1">
@@ -10017,10 +10019,10 @@
         <v>461</v>
       </c>
       <c r="D320" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E320" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F320" s="8" t="s">
         <v>462</v>
@@ -10040,10 +10042,10 @@
         <v>461</v>
       </c>
       <c r="D321" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E321" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F321" s="8" t="s">
         <v>462</v>
@@ -10063,10 +10065,10 @@
         <v>461</v>
       </c>
       <c r="D322" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E322" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F322" s="8" t="s">
         <v>462</v>
@@ -10087,10 +10089,10 @@
         <v>461</v>
       </c>
       <c r="D323" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E323" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F323" s="8" t="s">
         <v>462</v>
@@ -10111,10 +10113,10 @@
         <v>461</v>
       </c>
       <c r="D324" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E324" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F324" s="8" t="s">
         <v>462</v>
@@ -10135,10 +10137,10 @@
         <v>461</v>
       </c>
       <c r="D325" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E325" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F325" s="8" t="s">
         <v>462</v>
@@ -10159,10 +10161,10 @@
         <v>461</v>
       </c>
       <c r="D326" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E326" s="6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F326" s="8" t="s">
         <v>462</v>
@@ -10183,10 +10185,10 @@
         <v>461</v>
       </c>
       <c r="D327" s="6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E327" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F327" s="8" t="s">
         <v>462</v>
@@ -10207,10 +10209,10 @@
         <v>461</v>
       </c>
       <c r="D328" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E328" s="6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F328" s="8" t="s">
         <v>462</v>
@@ -10231,10 +10233,10 @@
         <v>461</v>
       </c>
       <c r="D329" s="6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E329" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F329" s="8" t="s">
         <v>462</v>
@@ -10255,10 +10257,10 @@
         <v>461</v>
       </c>
       <c r="D330" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E330" s="6">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F330" s="8" t="s">
         <v>462</v>
@@ -10279,10 +10281,10 @@
         <v>461</v>
       </c>
       <c r="D331" s="6">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E331" s="6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F331" s="8" t="s">
         <v>462</v>
@@ -10303,10 +10305,10 @@
         <v>461</v>
       </c>
       <c r="D332" s="6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E332" s="6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F332" s="8" t="s">
         <v>462</v>
@@ -10327,10 +10329,10 @@
         <v>461</v>
       </c>
       <c r="D333" s="6">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E333" s="6">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F333" s="8" t="s">
         <v>462</v>
@@ -10351,10 +10353,10 @@
         <v>461</v>
       </c>
       <c r="D334" s="6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E334" s="6">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F334" s="8" t="s">
         <v>462</v>
@@ -10375,10 +10377,10 @@
         <v>461</v>
       </c>
       <c r="D335" s="6">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E335" s="6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F335" s="8" t="s">
         <v>462</v>
@@ -10399,10 +10401,10 @@
         <v>461</v>
       </c>
       <c r="D336" s="6">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E336" s="6">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F336" s="8" t="s">
         <v>462</v>
@@ -10423,10 +10425,10 @@
         <v>461</v>
       </c>
       <c r="D337" s="6">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E337" s="6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F337" s="8" t="s">
         <v>462</v>
@@ -10446,10 +10448,10 @@
         <v>461</v>
       </c>
       <c r="D338" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E338" s="6">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F338" s="8" t="s">
         <v>462</v>
@@ -10469,10 +10471,10 @@
         <v>461</v>
       </c>
       <c r="D339" s="6">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E339" s="6">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F339" s="8" t="s">
         <v>462</v>
@@ -10492,10 +10494,10 @@
         <v>461</v>
       </c>
       <c r="D340" s="6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E340" s="6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F340" s="8" t="s">
         <v>462</v>
@@ -10515,10 +10517,10 @@
         <v>461</v>
       </c>
       <c r="D341" s="6">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E341" s="6">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F341" s="8" t="s">
         <v>462</v>
@@ -10538,16 +10540,16 @@
         <v>461</v>
       </c>
       <c r="D342" s="6">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E342" s="6">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="F342" s="8" t="s">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="G342" s="8" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="16.5" customHeight="1">
@@ -10561,10 +10563,10 @@
         <v>488</v>
       </c>
       <c r="D343" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E343" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F343" s="8" t="s">
         <v>489</v>
@@ -10584,10 +10586,10 @@
         <v>488</v>
       </c>
       <c r="D344" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E344" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F344" s="8" t="s">
         <v>489</v>
@@ -10607,10 +10609,10 @@
         <v>488</v>
       </c>
       <c r="D345" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E345" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F345" s="8" t="s">
         <v>489</v>
@@ -10630,10 +10632,10 @@
         <v>488</v>
       </c>
       <c r="D346" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E346" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F346" s="8" t="s">
         <v>489</v>
@@ -10653,10 +10655,10 @@
         <v>488</v>
       </c>
       <c r="D347" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E347" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F347" s="8" t="s">
         <v>489</v>
@@ -10676,16 +10678,16 @@
         <v>488</v>
       </c>
       <c r="D348" s="6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E348" s="6">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F348" s="8" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="G348" s="8" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="16.5" customHeight="1">
@@ -10699,10 +10701,10 @@
         <v>498</v>
       </c>
       <c r="D349" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E349" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F349" s="8" t="s">
         <v>499</v>
@@ -10722,10 +10724,10 @@
         <v>498</v>
       </c>
       <c r="D350" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E350" s="6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F350" s="8" t="s">
         <v>499</v>
@@ -10745,15 +10747,15 @@
         <v>498</v>
       </c>
       <c r="D351" s="6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E351" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F351" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="G351" s="8" t="s">
+      <c r="G351" s="9" t="s">
         <v>500</v>
       </c>
     </row>
@@ -10768,16 +10770,16 @@
         <v>498</v>
       </c>
       <c r="D352" s="6">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E352" s="6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F352" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="G352" s="9" t="s">
-        <v>500</v>
+        <v>507</v>
+      </c>
+      <c r="G352" s="8" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="16.5" customHeight="1">
@@ -10794,13 +10796,13 @@
         <v>1</v>
       </c>
       <c r="E353" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F353" s="8" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="G353" s="8" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="16.5" customHeight="1">
@@ -10814,10 +10816,10 @@
         <v>511</v>
       </c>
       <c r="D354" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E354" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F354" s="8" t="s">
         <v>512</v>
@@ -10837,10 +10839,10 @@
         <v>511</v>
       </c>
       <c r="D355" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E355" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F355" s="8" t="s">
         <v>512</v>
@@ -10860,16 +10862,16 @@
         <v>511</v>
       </c>
       <c r="D356" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E356" s="6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F356" s="8" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="G356" s="8" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="16.5" customHeight="1">
@@ -10886,13 +10888,13 @@
         <v>1</v>
       </c>
       <c r="E357" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F357" s="8" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="G357" s="8" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="16.5" customHeight="1">
@@ -10909,13 +10911,13 @@
         <v>1</v>
       </c>
       <c r="E358" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F358" s="8" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G358" s="8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="16.5" customHeight="1">
@@ -10929,10 +10931,10 @@
         <v>527</v>
       </c>
       <c r="D359" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E359" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F359" s="8" t="s">
         <v>528</v>
@@ -10952,16 +10954,16 @@
         <v>527</v>
       </c>
       <c r="D360" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E360" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F360" s="8" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="G360" s="8" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="16.5" customHeight="1">
@@ -10981,10 +10983,10 @@
         <v>3</v>
       </c>
       <c r="F361" s="8" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="G361" s="8" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="16.5" customHeight="1">
@@ -11004,10 +11006,10 @@
         <v>3</v>
       </c>
       <c r="F362" s="8" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="G362" s="8" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="16.5" customHeight="1">
@@ -11024,13 +11026,13 @@
         <v>1</v>
       </c>
       <c r="E363" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F363" s="8" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="G363" s="8" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="16.5" customHeight="1">
@@ -11047,13 +11049,13 @@
         <v>1</v>
       </c>
       <c r="E364" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F364" s="8" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="G364" s="8" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="16.5" customHeight="1">
@@ -11067,10 +11069,10 @@
         <v>553</v>
       </c>
       <c r="D365" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E365" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F365" s="8" t="s">
         <v>554</v>
@@ -11090,10 +11092,10 @@
         <v>553</v>
       </c>
       <c r="D366" s="6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E366" s="6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F366" s="8" t="s">
         <v>554</v>
@@ -11113,16 +11115,16 @@
         <v>553</v>
       </c>
       <c r="D367" s="6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E367" s="6">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F367" s="8" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="G367" s="8" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="16.5" customHeight="1">
@@ -15583,7 +15585,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="C369" sqref="C369:G377"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -20409,10 +20413,10 @@
         <v>677</v>
       </c>
       <c r="D209" s="12" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="E209" s="12" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="F209" s="5" t="s">
         <v>678</v>
@@ -20432,10 +20436,10 @@
         <v>677</v>
       </c>
       <c r="D210" s="12" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="E210" s="12" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F210" s="5" t="s">
         <v>678</v>
@@ -20455,10 +20459,10 @@
         <v>677</v>
       </c>
       <c r="D211" s="12" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="E211" s="12" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="F211" s="5" t="s">
         <v>678</v>
@@ -20478,10 +20482,10 @@
         <v>677</v>
       </c>
       <c r="D212" s="12" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="E212" s="12" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="F212" s="5" t="s">
         <v>678</v>
@@ -20501,10 +20505,10 @@
         <v>677</v>
       </c>
       <c r="D213" s="12" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="E213" s="12" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="F213" s="5" t="s">
         <v>678</v>
@@ -20524,10 +20528,10 @@
         <v>677</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="E214" s="12" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="F214" s="5" t="s">
         <v>678</v>
@@ -20547,10 +20551,10 @@
         <v>677</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="E215" s="12" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="F215" s="5" t="s">
         <v>678</v>
@@ -20569,11 +20573,11 @@
       <c r="C216" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D216" s="12">
-        <v>97</v>
-      </c>
-      <c r="E216" s="12">
-        <v>101</v>
+      <c r="D216" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="E216" s="12" t="s">
+        <v>727</v>
       </c>
       <c r="F216" s="5" t="s">
         <v>678</v>
@@ -20593,10 +20597,10 @@
         <v>677</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="E217" s="12" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="F217" s="5" t="s">
         <v>678</v>
@@ -20616,10 +20620,10 @@
         <v>677</v>
       </c>
       <c r="D218" s="12" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="E218" s="12" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F218" s="5" t="s">
         <v>678</v>
@@ -20639,10 +20643,10 @@
         <v>677</v>
       </c>
       <c r="D219" s="12" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="E219" s="12" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="F219" s="5" t="s">
         <v>678</v>
@@ -20662,10 +20666,10 @@
         <v>677</v>
       </c>
       <c r="D220" s="12" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="E220" s="12" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="F220" s="5" t="s">
         <v>678</v>
@@ -20685,10 +20689,10 @@
         <v>677</v>
       </c>
       <c r="D221" s="12" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="E221" s="12" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="F221" s="5" t="s">
         <v>678</v>
@@ -20707,11 +20711,11 @@
       <c r="C222" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D222" s="12" t="s">
-        <v>743</v>
-      </c>
-      <c r="E222" s="12" t="s">
-        <v>744</v>
+      <c r="D222" s="12">
+        <v>97</v>
+      </c>
+      <c r="E222" s="12">
+        <v>101</v>
       </c>
       <c r="F222" s="5" t="s">
         <v>678</v>
@@ -20731,10 +20735,10 @@
         <v>677</v>
       </c>
       <c r="D223" s="12" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="E223" s="12" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="F223" s="5" t="s">
         <v>678</v>
@@ -20754,10 +20758,10 @@
         <v>677</v>
       </c>
       <c r="D224" s="12" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E224" s="12" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="F224" s="5" t="s">
         <v>678</v>
@@ -20777,10 +20781,10 @@
         <v>677</v>
       </c>
       <c r="D225" s="12" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="E225" s="12" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="F225" s="5" t="s">
         <v>678</v>
@@ -20800,10 +20804,10 @@
         <v>677</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="E226" s="12" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F226" s="5" t="s">
         <v>678</v>
@@ -20823,10 +20827,10 @@
         <v>677</v>
       </c>
       <c r="D227" s="12" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="E227" s="12" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="F227" s="5" t="s">
         <v>678</v>
@@ -20846,10 +20850,10 @@
         <v>677</v>
       </c>
       <c r="D228" s="12" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="E228" s="12" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="F228" s="5" t="s">
         <v>678</v>
@@ -20869,10 +20873,10 @@
         <v>677</v>
       </c>
       <c r="D229" s="12" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="E229" s="12" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="F229" s="5" t="s">
         <v>678</v>
@@ -20892,10 +20896,10 @@
         <v>677</v>
       </c>
       <c r="D230" s="12" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E230" s="12" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="F230" s="5" t="s">
         <v>678</v>
@@ -20915,10 +20919,10 @@
         <v>677</v>
       </c>
       <c r="D231" s="12" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="E231" s="12" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="F231" s="5" t="s">
         <v>678</v>
@@ -20938,10 +20942,10 @@
         <v>677</v>
       </c>
       <c r="D232" s="12" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E232" s="12" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="F232" s="5" t="s">
         <v>678</v>
@@ -20961,10 +20965,10 @@
         <v>677</v>
       </c>
       <c r="D233" s="12" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="E233" s="12" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F233" s="5" t="s">
         <v>678</v>
@@ -20984,10 +20988,10 @@
         <v>677</v>
       </c>
       <c r="D234" s="12" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="E234" s="12" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="F234" s="5" t="s">
         <v>678</v>
@@ -21007,10 +21011,10 @@
         <v>677</v>
       </c>
       <c r="D235" s="12" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="E235" s="12" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="F235" s="5" t="s">
         <v>678</v>
@@ -21030,10 +21034,10 @@
         <v>677</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="E236" s="12" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="F236" s="5" t="s">
         <v>678</v>
@@ -21053,10 +21057,10 @@
         <v>677</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="E237" s="12" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="F237" s="5" t="s">
         <v>678</v>
@@ -21075,11 +21079,11 @@
       <c r="C238" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D238" s="5">
-        <v>1</v>
-      </c>
-      <c r="E238" s="10">
-        <v>2</v>
+      <c r="D238" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="E238" s="12" t="s">
+        <v>756</v>
       </c>
       <c r="F238" s="5" t="s">
         <v>678</v>
@@ -21098,11 +21102,11 @@
       <c r="C239" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D239" s="5">
-        <v>3</v>
-      </c>
-      <c r="E239" s="10">
-        <v>6</v>
+      <c r="D239" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="E239" s="12" t="s">
+        <v>758</v>
       </c>
       <c r="F239" s="5" t="s">
         <v>678</v>
@@ -21121,11 +21125,11 @@
       <c r="C240" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D240" s="5">
-        <v>7</v>
-      </c>
-      <c r="E240" s="10">
-        <v>9</v>
+      <c r="D240" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="E240" s="12" t="s">
+        <v>760</v>
       </c>
       <c r="F240" s="5" t="s">
         <v>678</v>
@@ -21144,11 +21148,11 @@
       <c r="C241" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D241" s="5">
-        <v>10</v>
-      </c>
-      <c r="E241" s="10">
-        <v>13</v>
+      <c r="D241" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="E241" s="12" t="s">
+        <v>762</v>
       </c>
       <c r="F241" s="5" t="s">
         <v>678</v>
@@ -21167,11 +21171,11 @@
       <c r="C242" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D242" s="5">
-        <v>14</v>
-      </c>
-      <c r="E242" s="10">
-        <v>17</v>
+      <c r="D242" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="E242" s="12" t="s">
+        <v>764</v>
       </c>
       <c r="F242" s="5" t="s">
         <v>678</v>
@@ -21190,11 +21194,11 @@
       <c r="C243" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D243" s="5">
-        <v>18</v>
-      </c>
-      <c r="E243" s="10">
-        <v>19</v>
+      <c r="D243" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="E243" s="12" t="s">
+        <v>766</v>
       </c>
       <c r="F243" s="5" t="s">
         <v>678</v>
@@ -21213,11 +21217,11 @@
       <c r="C244" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D244" s="12" t="s">
-        <v>680</v>
-      </c>
-      <c r="E244" s="12" t="s">
-        <v>681</v>
+      <c r="D244" s="5">
+        <v>1</v>
+      </c>
+      <c r="E244" s="10">
+        <v>2</v>
       </c>
       <c r="F244" s="5" t="s">
         <v>678</v>
@@ -21236,11 +21240,11 @@
       <c r="C245" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D245" s="12" t="s">
-        <v>682</v>
-      </c>
-      <c r="E245" s="12" t="s">
-        <v>683</v>
+      <c r="D245" s="5">
+        <v>3</v>
+      </c>
+      <c r="E245" s="10">
+        <v>6</v>
       </c>
       <c r="F245" s="5" t="s">
         <v>678</v>
@@ -21259,11 +21263,11 @@
       <c r="C246" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D246" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="E246" s="12" t="s">
-        <v>685</v>
+      <c r="D246" s="5">
+        <v>7</v>
+      </c>
+      <c r="E246" s="10">
+        <v>9</v>
       </c>
       <c r="F246" s="5" t="s">
         <v>678</v>
@@ -21282,11 +21286,11 @@
       <c r="C247" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D247" s="12" t="s">
-        <v>686</v>
-      </c>
-      <c r="E247" s="12" t="s">
-        <v>687</v>
+      <c r="D247" s="5">
+        <v>10</v>
+      </c>
+      <c r="E247" s="10">
+        <v>13</v>
       </c>
       <c r="F247" s="5" t="s">
         <v>678</v>
@@ -21305,11 +21309,11 @@
       <c r="C248" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D248" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="E248" s="12" t="s">
-        <v>689</v>
+      <c r="D248" s="5">
+        <v>14</v>
+      </c>
+      <c r="E248" s="10">
+        <v>17</v>
       </c>
       <c r="F248" s="5" t="s">
         <v>678</v>
@@ -21328,11 +21332,11 @@
       <c r="C249" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D249" s="12" t="s">
-        <v>690</v>
-      </c>
-      <c r="E249" s="12" t="s">
-        <v>691</v>
+      <c r="D249" s="5">
+        <v>10</v>
+      </c>
+      <c r="E249" s="10">
+        <v>13</v>
       </c>
       <c r="F249" s="5" t="s">
         <v>678</v>
@@ -21351,11 +21355,11 @@
       <c r="C250" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D250" s="12" t="s">
-        <v>692</v>
-      </c>
-      <c r="E250" s="12" t="s">
-        <v>693</v>
+      <c r="D250" s="5">
+        <v>14</v>
+      </c>
+      <c r="E250" s="10">
+        <v>17</v>
       </c>
       <c r="F250" s="5" t="s">
         <v>678</v>
@@ -21374,11 +21378,11 @@
       <c r="C251" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D251" s="12" t="s">
-        <v>694</v>
-      </c>
-      <c r="E251" s="12" t="s">
-        <v>694</v>
+      <c r="D251" s="5">
+        <v>18</v>
+      </c>
+      <c r="E251" s="10">
+        <v>19</v>
       </c>
       <c r="F251" s="5" t="s">
         <v>678</v>
@@ -21398,10 +21402,10 @@
         <v>677</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="E252" s="12" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="F252" s="5" t="s">
         <v>678</v>
@@ -21421,10 +21425,10 @@
         <v>677</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="E253" s="12" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="F253" s="5" t="s">
         <v>678</v>
@@ -21444,10 +21448,10 @@
         <v>677</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="E254" s="12" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="F254" s="5" t="s">
         <v>678</v>
@@ -21467,10 +21471,10 @@
         <v>677</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="E255" s="12" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="F255" s="5" t="s">
         <v>678</v>
@@ -21490,10 +21494,10 @@
         <v>677</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="E256" s="12" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="F256" s="5" t="s">
         <v>678</v>
@@ -21513,10 +21517,10 @@
         <v>677</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="E257" s="12" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="F257" s="5" t="s">
         <v>678</v>
@@ -21536,10 +21540,10 @@
         <v>677</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="E258" s="12" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="F258" s="5" t="s">
         <v>678</v>
@@ -21559,10 +21563,10 @@
         <v>677</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="E259" s="12" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="F259" s="5" t="s">
         <v>678</v>
@@ -21582,10 +21586,10 @@
         <v>677</v>
       </c>
       <c r="D260" s="12" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="E260" s="12" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="F260" s="5" t="s">
         <v>678</v>
@@ -21605,10 +21609,10 @@
         <v>677</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="E261" s="12" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="F261" s="5" t="s">
         <v>678</v>
@@ -21628,10 +21632,10 @@
         <v>677</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="E262" s="12" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="F262" s="5" t="s">
         <v>678</v>
@@ -21651,10 +21655,10 @@
         <v>677</v>
       </c>
       <c r="D263" s="12" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="E263" s="12" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="F263" s="5" t="s">
         <v>678</v>
@@ -21674,10 +21678,10 @@
         <v>677</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="E264" s="12" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="F264" s="5" t="s">
         <v>678</v>
@@ -21697,10 +21701,10 @@
         <v>677</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="E265" s="12" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="F265" s="5" t="s">
         <v>678</v>
@@ -21720,10 +21724,10 @@
         <v>677</v>
       </c>
       <c r="D266" s="12" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="E266" s="12" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="F266" s="5" t="s">
         <v>678</v>
@@ -21743,10 +21747,10 @@
         <v>677</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="E267" s="12" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="F267" s="5" t="s">
         <v>678</v>
@@ -21766,10 +21770,10 @@
         <v>677</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="E268" s="12" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="F268" s="5" t="s">
         <v>678</v>
@@ -21789,10 +21793,10 @@
         <v>677</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="E269" s="12" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="F269" s="5" t="s">
         <v>678</v>
@@ -21812,10 +21816,10 @@
         <v>677</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="E270" s="12" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="F270" s="5" t="s">
         <v>678</v>
@@ -21835,10 +21839,10 @@
         <v>677</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="E271" s="12" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="F271" s="5" t="s">
         <v>678</v>
@@ -21858,10 +21862,10 @@
         <v>677</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="E272" s="12" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="F272" s="5" t="s">
         <v>678</v>
@@ -21881,10 +21885,10 @@
         <v>677</v>
       </c>
       <c r="D273" s="12" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="E273" s="12" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="F273" s="5" t="s">
         <v>678</v>
@@ -21904,10 +21908,10 @@
         <v>677</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="E274" s="12" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="F274" s="5" t="s">
         <v>678</v>
@@ -21926,11 +21930,11 @@
       <c r="C275" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D275" s="12">
-        <v>97</v>
-      </c>
-      <c r="E275" s="12">
-        <v>101</v>
+      <c r="D275" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="E275" s="12" t="s">
+        <v>725</v>
       </c>
       <c r="F275" s="5" t="s">
         <v>678</v>
@@ -21950,10 +21954,10 @@
         <v>677</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="E276" s="12" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="F276" s="5" t="s">
         <v>678</v>
@@ -21973,10 +21977,10 @@
         <v>677</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="E277" s="12" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="F277" s="5" t="s">
         <v>678</v>
@@ -21996,10 +22000,10 @@
         <v>677</v>
       </c>
       <c r="D278" s="12" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="E278" s="12" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="F278" s="5" t="s">
         <v>678</v>
@@ -22019,10 +22023,10 @@
         <v>677</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="E279" s="12" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F279" s="5" t="s">
         <v>678</v>
@@ -22042,10 +22046,10 @@
         <v>677</v>
       </c>
       <c r="D280" s="12" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="E280" s="12" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="F280" s="5" t="s">
         <v>678</v>
@@ -22065,10 +22069,10 @@
         <v>677</v>
       </c>
       <c r="D281" s="12" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="E281" s="12" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="F281" s="5" t="s">
         <v>678</v>
@@ -22088,10 +22092,10 @@
         <v>677</v>
       </c>
       <c r="D282" s="12" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="E282" s="12" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="F282" s="5" t="s">
         <v>678</v>
@@ -22110,11 +22114,11 @@
       <c r="C283" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D283" s="12" t="s">
-        <v>747</v>
-      </c>
-      <c r="E283" s="12" t="s">
-        <v>748</v>
+      <c r="D283" s="12">
+        <v>97</v>
+      </c>
+      <c r="E283" s="12">
+        <v>101</v>
       </c>
       <c r="F283" s="5" t="s">
         <v>678</v>
@@ -22134,10 +22138,10 @@
         <v>677</v>
       </c>
       <c r="D284" s="12" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="E284" s="12" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="F284" s="5" t="s">
         <v>678</v>
@@ -22157,10 +22161,10 @@
         <v>677</v>
       </c>
       <c r="D285" s="12" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="E285" s="12" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="F285" s="5" t="s">
         <v>678</v>
@@ -22180,10 +22184,10 @@
         <v>677</v>
       </c>
       <c r="D286" s="12" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="E286" s="12" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="F286" s="5" t="s">
         <v>678</v>
@@ -22203,10 +22207,10 @@
         <v>677</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="E287" s="12" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F287" s="5" t="s">
         <v>678</v>
@@ -22226,10 +22230,10 @@
         <v>677</v>
       </c>
       <c r="D288" s="12" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="E288" s="12" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="F288" s="5" t="s">
         <v>678</v>
@@ -22249,10 +22253,10 @@
         <v>677</v>
       </c>
       <c r="D289" s="12" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="E289" s="12" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="F289" s="5" t="s">
         <v>678</v>
@@ -22272,10 +22276,10 @@
         <v>677</v>
       </c>
       <c r="D290" s="12" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="E290" s="12" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="F290" s="5" t="s">
         <v>678</v>
@@ -22295,10 +22299,10 @@
         <v>677</v>
       </c>
       <c r="D291" s="12" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="E291" s="12" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="F291" s="5" t="s">
         <v>678</v>
@@ -22318,10 +22322,10 @@
         <v>677</v>
       </c>
       <c r="D292" s="12" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="E292" s="12" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="F292" s="5" t="s">
         <v>678</v>
@@ -22341,10 +22345,10 @@
         <v>677</v>
       </c>
       <c r="D293" s="12" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="E293" s="12" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="F293" s="5" t="s">
         <v>678</v>
@@ -22364,10 +22368,10 @@
         <v>677</v>
       </c>
       <c r="D294" s="12" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="E294" s="12" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="F294" s="5" t="s">
         <v>678</v>
@@ -22387,10 +22391,10 @@
         <v>677</v>
       </c>
       <c r="D295" s="12" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="E295" s="12" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="F295" s="5" t="s">
         <v>678</v>
@@ -22410,10 +22414,10 @@
         <v>677</v>
       </c>
       <c r="D296" s="12" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="E296" s="12" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="F296" s="5" t="s">
         <v>678</v>
@@ -22432,11 +22436,11 @@
       <c r="C297" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D297" s="5">
-        <v>1</v>
-      </c>
-      <c r="E297" s="10">
-        <v>2</v>
+      <c r="D297" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="E297" s="12" t="s">
+        <v>752</v>
       </c>
       <c r="F297" s="5" t="s">
         <v>678</v>
@@ -22455,11 +22459,11 @@
       <c r="C298" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D298" s="5">
-        <v>3</v>
-      </c>
-      <c r="E298" s="10">
-        <v>6</v>
+      <c r="D298" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="E298" s="12" t="s">
+        <v>754</v>
       </c>
       <c r="F298" s="5" t="s">
         <v>678</v>
@@ -22478,11 +22482,11 @@
       <c r="C299" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D299" s="5">
-        <v>7</v>
-      </c>
-      <c r="E299" s="10">
-        <v>9</v>
+      <c r="D299" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="E299" s="12" t="s">
+        <v>756</v>
       </c>
       <c r="F299" s="5" t="s">
         <v>678</v>
@@ -22501,11 +22505,11 @@
       <c r="C300" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D300" s="5">
-        <v>10</v>
-      </c>
-      <c r="E300" s="10">
-        <v>13</v>
+      <c r="D300" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="E300" s="12" t="s">
+        <v>758</v>
       </c>
       <c r="F300" s="5" t="s">
         <v>678</v>
@@ -22524,11 +22528,11 @@
       <c r="C301" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D301" s="5">
-        <v>14</v>
-      </c>
-      <c r="E301" s="10">
-        <v>17</v>
+      <c r="D301" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="E301" s="12" t="s">
+        <v>760</v>
       </c>
       <c r="F301" s="5" t="s">
         <v>678</v>
@@ -22547,11 +22551,11 @@
       <c r="C302" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D302" s="5">
-        <v>18</v>
-      </c>
-      <c r="E302" s="10">
-        <v>19</v>
+      <c r="D302" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="E302" s="12" t="s">
+        <v>762</v>
       </c>
       <c r="F302" s="5" t="s">
         <v>678</v>
@@ -22571,10 +22575,10 @@
         <v>677</v>
       </c>
       <c r="D303" s="12" t="s">
-        <v>680</v>
+        <v>763</v>
       </c>
       <c r="E303" s="12" t="s">
-        <v>681</v>
+        <v>764</v>
       </c>
       <c r="F303" s="5" t="s">
         <v>678</v>
@@ -22594,10 +22598,10 @@
         <v>677</v>
       </c>
       <c r="D304" s="12" t="s">
-        <v>682</v>
+        <v>765</v>
       </c>
       <c r="E304" s="12" t="s">
-        <v>683</v>
+        <v>766</v>
       </c>
       <c r="F304" s="5" t="s">
         <v>678</v>
@@ -22616,11 +22620,11 @@
       <c r="C305" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D305" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="E305" s="12" t="s">
-        <v>685</v>
+      <c r="D305" s="5">
+        <v>1</v>
+      </c>
+      <c r="E305" s="10">
+        <v>2</v>
       </c>
       <c r="F305" s="5" t="s">
         <v>678</v>
@@ -22639,11 +22643,11 @@
       <c r="C306" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D306" s="12" t="s">
-        <v>686</v>
-      </c>
-      <c r="E306" s="12" t="s">
-        <v>687</v>
+      <c r="D306" s="5">
+        <v>3</v>
+      </c>
+      <c r="E306" s="10">
+        <v>6</v>
       </c>
       <c r="F306" s="5" t="s">
         <v>678</v>
@@ -22662,11 +22666,11 @@
       <c r="C307" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D307" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="E307" s="12" t="s">
-        <v>689</v>
+      <c r="D307" s="5">
+        <v>7</v>
+      </c>
+      <c r="E307" s="10">
+        <v>9</v>
       </c>
       <c r="F307" s="5" t="s">
         <v>678</v>
@@ -22685,11 +22689,11 @@
       <c r="C308" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D308" s="12" t="s">
-        <v>690</v>
-      </c>
-      <c r="E308" s="12" t="s">
-        <v>691</v>
+      <c r="D308" s="5">
+        <v>10</v>
+      </c>
+      <c r="E308" s="10">
+        <v>13</v>
       </c>
       <c r="F308" s="5" t="s">
         <v>678</v>
@@ -22708,11 +22712,11 @@
       <c r="C309" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D309" s="12" t="s">
-        <v>692</v>
-      </c>
-      <c r="E309" s="12" t="s">
-        <v>693</v>
+      <c r="D309" s="5">
+        <v>14</v>
+      </c>
+      <c r="E309" s="10">
+        <v>17</v>
       </c>
       <c r="F309" s="5" t="s">
         <v>678</v>
@@ -22731,11 +22735,11 @@
       <c r="C310" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D310" s="12" t="s">
-        <v>694</v>
-      </c>
-      <c r="E310" s="12" t="s">
-        <v>694</v>
+      <c r="D310" s="5">
+        <v>18</v>
+      </c>
+      <c r="E310" s="10">
+        <v>19</v>
       </c>
       <c r="F310" s="5" t="s">
         <v>678</v>
@@ -22755,10 +22759,10 @@
         <v>677</v>
       </c>
       <c r="D311" s="12" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="E311" s="12" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="F311" s="5" t="s">
         <v>678</v>
@@ -22778,10 +22782,10 @@
         <v>677</v>
       </c>
       <c r="D312" s="12" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="E312" s="12" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="F312" s="5" t="s">
         <v>678</v>
@@ -22801,10 +22805,10 @@
         <v>677</v>
       </c>
       <c r="D313" s="12" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="E313" s="12" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="F313" s="5" t="s">
         <v>678</v>
@@ -22824,10 +22828,10 @@
         <v>677</v>
       </c>
       <c r="D314" s="12" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="E314" s="12" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="F314" s="5" t="s">
         <v>678</v>
@@ -22847,10 +22851,10 @@
         <v>677</v>
       </c>
       <c r="D315" s="12" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="E315" s="12" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="F315" s="5" t="s">
         <v>678</v>
@@ -22870,10 +22874,10 @@
         <v>677</v>
       </c>
       <c r="D316" s="12" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="E316" s="12" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="F316" s="5" t="s">
         <v>678</v>
@@ -22893,10 +22897,10 @@
         <v>677</v>
       </c>
       <c r="D317" s="12" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="E317" s="12" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="F317" s="5" t="s">
         <v>678</v>
@@ -22916,10 +22920,10 @@
         <v>677</v>
       </c>
       <c r="D318" s="12" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="E318" s="12" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="F318" s="5" t="s">
         <v>678</v>
@@ -22939,10 +22943,10 @@
         <v>677</v>
       </c>
       <c r="D319" s="12" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="E319" s="12" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="F319" s="5" t="s">
         <v>678</v>
@@ -22962,10 +22966,10 @@
         <v>677</v>
       </c>
       <c r="D320" s="12" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="E320" s="12" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="F320" s="5" t="s">
         <v>678</v>
@@ -22985,10 +22989,10 @@
         <v>677</v>
       </c>
       <c r="D321" s="12" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="E321" s="12" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="F321" s="5" t="s">
         <v>678</v>
@@ -23008,10 +23012,10 @@
         <v>677</v>
       </c>
       <c r="D322" s="12" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="E322" s="12" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="F322" s="5" t="s">
         <v>678</v>
@@ -23031,10 +23035,10 @@
         <v>677</v>
       </c>
       <c r="D323" s="12" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="E323" s="12" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="F323" s="5" t="s">
         <v>678</v>
@@ -23054,10 +23058,10 @@
         <v>677</v>
       </c>
       <c r="D324" s="12" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="E324" s="12" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="F324" s="5" t="s">
         <v>678</v>
@@ -23077,10 +23081,10 @@
         <v>677</v>
       </c>
       <c r="D325" s="12" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="E325" s="12" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="F325" s="5" t="s">
         <v>678</v>
@@ -23100,10 +23104,10 @@
         <v>677</v>
       </c>
       <c r="D326" s="12" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="E326" s="12" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="F326" s="5" t="s">
         <v>678</v>
@@ -23123,10 +23127,10 @@
         <v>677</v>
       </c>
       <c r="D327" s="12" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="E327" s="12" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="F327" s="5" t="s">
         <v>678</v>
@@ -23146,10 +23150,10 @@
         <v>677</v>
       </c>
       <c r="D328" s="12" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="E328" s="12" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="F328" s="5" t="s">
         <v>678</v>
@@ -23169,10 +23173,10 @@
         <v>677</v>
       </c>
       <c r="D329" s="12" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="E329" s="12" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="F329" s="5" t="s">
         <v>678</v>
@@ -23192,10 +23196,10 @@
         <v>677</v>
       </c>
       <c r="D330" s="12" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="E330" s="12" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="F330" s="5" t="s">
         <v>678</v>
@@ -23215,10 +23219,10 @@
         <v>677</v>
       </c>
       <c r="D331" s="12" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="E331" s="12" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="F331" s="5" t="s">
         <v>678</v>
@@ -23238,10 +23242,10 @@
         <v>677</v>
       </c>
       <c r="D332" s="12" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="E332" s="12" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="F332" s="5" t="s">
         <v>678</v>
@@ -23261,10 +23265,10 @@
         <v>677</v>
       </c>
       <c r="D333" s="12" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="E333" s="12" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="F333" s="5" t="s">
         <v>678</v>
@@ -23283,11 +23287,11 @@
       <c r="C334" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D334" s="12">
-        <v>97</v>
-      </c>
-      <c r="E334" s="12">
-        <v>101</v>
+      <c r="D334" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="E334" s="12" t="s">
+        <v>725</v>
       </c>
       <c r="F334" s="5" t="s">
         <v>678</v>
@@ -23307,10 +23311,10 @@
         <v>677</v>
       </c>
       <c r="D335" s="12" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="E335" s="12" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="F335" s="5" t="s">
         <v>678</v>
@@ -23330,10 +23334,10 @@
         <v>677</v>
       </c>
       <c r="D336" s="12" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="E336" s="12" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="F336" s="5" t="s">
         <v>678</v>
@@ -23353,10 +23357,10 @@
         <v>677</v>
       </c>
       <c r="D337" s="12" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="E337" s="12" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="F337" s="5" t="s">
         <v>678</v>
@@ -23376,10 +23380,10 @@
         <v>677</v>
       </c>
       <c r="D338" s="12" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="E338" s="12" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F338" s="5" t="s">
         <v>678</v>
@@ -23399,10 +23403,10 @@
         <v>677</v>
       </c>
       <c r="D339" s="12" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="E339" s="12" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="F339" s="5" t="s">
         <v>678</v>
@@ -23422,10 +23426,10 @@
         <v>677</v>
       </c>
       <c r="D340" s="12" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="E340" s="12" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="F340" s="5" t="s">
         <v>678</v>
@@ -23445,10 +23449,10 @@
         <v>677</v>
       </c>
       <c r="D341" s="12" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="E341" s="12" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="F341" s="5" t="s">
         <v>678</v>
@@ -23467,11 +23471,11 @@
       <c r="C342" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D342" s="12" t="s">
-        <v>747</v>
-      </c>
-      <c r="E342" s="12" t="s">
-        <v>748</v>
+      <c r="D342" s="12">
+        <v>97</v>
+      </c>
+      <c r="E342" s="12">
+        <v>101</v>
       </c>
       <c r="F342" s="5" t="s">
         <v>678</v>
@@ -23491,10 +23495,10 @@
         <v>677</v>
       </c>
       <c r="D343" s="12" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="E343" s="12" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="F343" s="5" t="s">
         <v>678</v>
@@ -23514,10 +23518,10 @@
         <v>677</v>
       </c>
       <c r="D344" s="12" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="E344" s="12" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="F344" s="5" t="s">
         <v>678</v>
@@ -23537,10 +23541,10 @@
         <v>677</v>
       </c>
       <c r="D345" s="12" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="E345" s="12" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="F345" s="5" t="s">
         <v>678</v>
@@ -23560,10 +23564,10 @@
         <v>677</v>
       </c>
       <c r="D346" s="12" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="E346" s="12" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F346" s="5" t="s">
         <v>678</v>
@@ -23583,10 +23587,10 @@
         <v>677</v>
       </c>
       <c r="D347" s="12" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="E347" s="12" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="F347" s="5" t="s">
         <v>678</v>
@@ -23606,10 +23610,10 @@
         <v>677</v>
       </c>
       <c r="D348" s="12" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="E348" s="12" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="F348" s="5" t="s">
         <v>678</v>
@@ -23629,10 +23633,10 @@
         <v>677</v>
       </c>
       <c r="D349" s="12" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="E349" s="12" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="F349" s="5" t="s">
         <v>678</v>
@@ -23652,10 +23656,10 @@
         <v>677</v>
       </c>
       <c r="D350" s="12" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="E350" s="12" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="F350" s="5" t="s">
         <v>678</v>
@@ -23675,10 +23679,10 @@
         <v>677</v>
       </c>
       <c r="D351" s="12" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="E351" s="12" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="F351" s="5" t="s">
         <v>678</v>
@@ -23698,10 +23702,10 @@
         <v>677</v>
       </c>
       <c r="D352" s="12" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="E352" s="12" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="F352" s="5" t="s">
         <v>678</v>
@@ -23721,10 +23725,10 @@
         <v>677</v>
       </c>
       <c r="D353" s="12" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="E353" s="12" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="F353" s="5" t="s">
         <v>678</v>
@@ -23744,10 +23748,10 @@
         <v>677</v>
       </c>
       <c r="D354" s="12" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="E354" s="12" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="F354" s="5" t="s">
         <v>678</v>
@@ -23767,10 +23771,10 @@
         <v>677</v>
       </c>
       <c r="D355" s="12" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="E355" s="12" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="F355" s="5" t="s">
         <v>678</v>
@@ -23789,11 +23793,11 @@
       <c r="C356" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D356" s="5">
-        <v>1</v>
-      </c>
-      <c r="E356" s="10">
-        <v>2</v>
+      <c r="D356" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="E356" s="12" t="s">
+        <v>752</v>
       </c>
       <c r="F356" s="5" t="s">
         <v>678</v>
@@ -23812,11 +23816,11 @@
       <c r="C357" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D357" s="5">
-        <v>3</v>
-      </c>
-      <c r="E357" s="10">
-        <v>6</v>
+      <c r="D357" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="E357" s="12" t="s">
+        <v>754</v>
       </c>
       <c r="F357" s="5" t="s">
         <v>678</v>
@@ -23835,11 +23839,11 @@
       <c r="C358" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D358" s="5">
-        <v>7</v>
-      </c>
-      <c r="E358" s="10">
-        <v>9</v>
+      <c r="D358" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="E358" s="12" t="s">
+        <v>756</v>
       </c>
       <c r="F358" s="5" t="s">
         <v>678</v>
@@ -23858,11 +23862,11 @@
       <c r="C359" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D359" s="5">
-        <v>10</v>
-      </c>
-      <c r="E359" s="10">
-        <v>13</v>
+      <c r="D359" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="E359" s="12" t="s">
+        <v>758</v>
       </c>
       <c r="F359" s="5" t="s">
         <v>678</v>
@@ -23881,11 +23885,11 @@
       <c r="C360" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D360" s="5">
-        <v>14</v>
-      </c>
-      <c r="E360" s="10">
-        <v>17</v>
+      <c r="D360" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="E360" s="12" t="s">
+        <v>760</v>
       </c>
       <c r="F360" s="5" t="s">
         <v>678</v>
@@ -23904,11 +23908,11 @@
       <c r="C361" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D361" s="5">
-        <v>18</v>
-      </c>
-      <c r="E361" s="10">
-        <v>19</v>
+      <c r="D361" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="E361" s="12" t="s">
+        <v>762</v>
       </c>
       <c r="F361" s="5" t="s">
         <v>678</v>
@@ -23928,10 +23932,10 @@
         <v>677</v>
       </c>
       <c r="D362" s="12" t="s">
-        <v>680</v>
+        <v>763</v>
       </c>
       <c r="E362" s="12" t="s">
-        <v>681</v>
+        <v>764</v>
       </c>
       <c r="F362" s="5" t="s">
         <v>678</v>
@@ -23951,10 +23955,10 @@
         <v>677</v>
       </c>
       <c r="D363" s="12" t="s">
-        <v>682</v>
+        <v>765</v>
       </c>
       <c r="E363" s="12" t="s">
-        <v>683</v>
+        <v>766</v>
       </c>
       <c r="F363" s="5" t="s">
         <v>678</v>
@@ -23973,11 +23977,11 @@
       <c r="C364" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D364" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="E364" s="12" t="s">
-        <v>685</v>
+      <c r="D364" s="5">
+        <v>1</v>
+      </c>
+      <c r="E364" s="10">
+        <v>2</v>
       </c>
       <c r="F364" s="5" t="s">
         <v>678</v>
@@ -23996,11 +24000,11 @@
       <c r="C365" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D365" s="12" t="s">
-        <v>686</v>
-      </c>
-      <c r="E365" s="12" t="s">
-        <v>687</v>
+      <c r="D365" s="5">
+        <v>3</v>
+      </c>
+      <c r="E365" s="10">
+        <v>6</v>
       </c>
       <c r="F365" s="5" t="s">
         <v>678</v>
@@ -24019,11 +24023,11 @@
       <c r="C366" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D366" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="E366" s="12" t="s">
-        <v>689</v>
+      <c r="D366" s="5">
+        <v>7</v>
+      </c>
+      <c r="E366" s="10">
+        <v>9</v>
       </c>
       <c r="F366" s="5" t="s">
         <v>678</v>
@@ -24042,11 +24046,11 @@
       <c r="C367" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D367" s="12" t="s">
-        <v>690</v>
-      </c>
-      <c r="E367" s="12" t="s">
-        <v>691</v>
+      <c r="D367" s="5">
+        <v>10</v>
+      </c>
+      <c r="E367" s="10">
+        <v>13</v>
       </c>
       <c r="F367" s="5" t="s">
         <v>678</v>
@@ -24065,11 +24069,11 @@
       <c r="C368" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D368" s="12" t="s">
-        <v>692</v>
-      </c>
-      <c r="E368" s="12" t="s">
-        <v>693</v>
+      <c r="D368" s="5">
+        <v>14</v>
+      </c>
+      <c r="E368" s="10">
+        <v>17</v>
       </c>
       <c r="F368" s="5" t="s">
         <v>678</v>
@@ -24081,8 +24085,8 @@
     <row r="369" spans="2:7" ht="16.5" customHeight="1">
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
-      <c r="D369" s="12"/>
-      <c r="E369" s="12"/>
+      <c r="D369" s="5"/>
+      <c r="E369" s="10"/>
       <c r="F369" s="5"/>
       <c r="G369" s="5"/>
     </row>
@@ -25043,7 +25047,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="D276" sqref="D276"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -31246,19 +31252,19 @@
         <v>563</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D269" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E269" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F269" s="5" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="16.5" customHeight="1">
@@ -31269,19 +31275,19 @@
         <v>563</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D270" s="1">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E270" s="1">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F270" s="5" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="16.5" customHeight="1">
@@ -31292,19 +31298,19 @@
         <v>563</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D271" s="1">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E271" s="1">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F271" s="5" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="16.5" customHeight="1">
@@ -31318,10 +31324,10 @@
         <v>568</v>
       </c>
       <c r="D272" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E272" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F272" s="5" t="s">
         <v>569</v>
@@ -31341,10 +31347,10 @@
         <v>568</v>
       </c>
       <c r="D273" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E273" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F273" s="5" t="s">
         <v>569</v>
@@ -31361,19 +31367,19 @@
         <v>567</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D274" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E274" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F274" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="16.5" customHeight="1">
@@ -31384,19 +31390,19 @@
         <v>567</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D275" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E275" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="16.5" customHeight="1">
@@ -31407,19 +31413,19 @@
         <v>567</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D276" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E276" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="16.5" customHeight="1">
@@ -31430,19 +31436,19 @@
         <v>567</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D277" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E277" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="16.5" customHeight="1">
@@ -31453,19 +31459,19 @@
         <v>567</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D278" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E278" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="16.5" customHeight="1">
@@ -31476,19 +31482,19 @@
         <v>567</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D279" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E279" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="16.5" customHeight="1">
@@ -31499,19 +31505,19 @@
         <v>567</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D280" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E280" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F280" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="16.5" customHeight="1">
@@ -31522,19 +31528,19 @@
         <v>567</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D281" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E281" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="16.5" customHeight="1">
@@ -31545,19 +31551,19 @@
         <v>567</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D282" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E282" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="16.5" customHeight="1">
@@ -31571,10 +31577,10 @@
         <v>572</v>
       </c>
       <c r="D283" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E283" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F283" s="5" t="s">
         <v>573</v>
@@ -31594,10 +31600,10 @@
         <v>572</v>
       </c>
       <c r="D284" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E284" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F284" s="5" t="s">
         <v>573</v>
@@ -31617,10 +31623,10 @@
         <v>572</v>
       </c>
       <c r="D285" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E285" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F285" s="5" t="s">
         <v>573</v>
@@ -31640,10 +31646,10 @@
         <v>572</v>
       </c>
       <c r="D286" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E286" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F286" s="5" t="s">
         <v>573</v>
@@ -31663,10 +31669,10 @@
         <v>572</v>
       </c>
       <c r="D287" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E287" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F287" s="5" t="s">
         <v>573</v>
@@ -31686,10 +31692,10 @@
         <v>572</v>
       </c>
       <c r="D288" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E288" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F288" s="5" t="s">
         <v>573</v>
@@ -31709,10 +31715,10 @@
         <v>572</v>
       </c>
       <c r="D289" s="1">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E289" s="1">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F289" s="5" t="s">
         <v>573</v>
@@ -31732,10 +31738,10 @@
         <v>572</v>
       </c>
       <c r="D290" s="1">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E290" s="1">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F290" s="5" t="s">
         <v>573</v>
@@ -31755,10 +31761,10 @@
         <v>572</v>
       </c>
       <c r="D291" s="1">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E291" s="1">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F291" s="5" t="s">
         <v>573</v>
@@ -31775,19 +31781,19 @@
         <v>571</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D292" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E292" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="16.5" customHeight="1">
@@ -31798,19 +31804,19 @@
         <v>571</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D293" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E293" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G293" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="16.5" customHeight="1">
@@ -31821,19 +31827,19 @@
         <v>571</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D294" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E294" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G294" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="16.5" customHeight="1">
@@ -31844,19 +31850,19 @@
         <v>571</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D295" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E295" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="16.5" customHeight="1">
@@ -31867,19 +31873,19 @@
         <v>571</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D296" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E296" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="16.5" customHeight="1">
@@ -31890,19 +31896,19 @@
         <v>571</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D297" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E297" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="16.5" customHeight="1">
@@ -31913,19 +31919,19 @@
         <v>571</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D298" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E298" s="1">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="16.5" customHeight="1">
@@ -31936,19 +31942,19 @@
         <v>571</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D299" s="1">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E299" s="1">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="16.5" customHeight="1">
@@ -31959,19 +31965,19 @@
         <v>571</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D300" s="1">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E300" s="1">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F300" s="5" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="16.5" customHeight="1">
@@ -31985,10 +31991,10 @@
         <v>576</v>
       </c>
       <c r="D301" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E301" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F301" s="5" t="s">
         <v>577</v>
@@ -32008,10 +32014,10 @@
         <v>576</v>
       </c>
       <c r="D302" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E302" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F302" s="5" t="s">
         <v>577</v>
@@ -32031,10 +32037,10 @@
         <v>576</v>
       </c>
       <c r="D303" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E303" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F303" s="5" t="s">
         <v>577</v>
@@ -32054,10 +32060,10 @@
         <v>576</v>
       </c>
       <c r="D304" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E304" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F304" s="5" t="s">
         <v>577</v>
@@ -32077,10 +32083,10 @@
         <v>576</v>
       </c>
       <c r="D305" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E305" s="1">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F305" s="5" t="s">
         <v>577</v>
@@ -32097,19 +32103,19 @@
         <v>575</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D306" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E306" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G306" s="5" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="16.5" customHeight="1">
@@ -32120,19 +32126,19 @@
         <v>575</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D307" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E307" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G307" s="5" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="16.5" customHeight="1">
@@ -32143,19 +32149,19 @@
         <v>575</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D308" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E308" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G308" s="5" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="16.5" customHeight="1">
@@ -32166,19 +32172,19 @@
         <v>575</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D309" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E309" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G309" s="5" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="16.5" customHeight="1">
@@ -32189,19 +32195,19 @@
         <v>575</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D310" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E310" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="16.5" customHeight="1">
@@ -32212,19 +32218,19 @@
         <v>575</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D311" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E311" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="16.5" customHeight="1">
@@ -32235,19 +32241,19 @@
         <v>575</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D312" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E312" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F312" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="16.5" customHeight="1">
@@ -32258,19 +32264,19 @@
         <v>575</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D313" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E313" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="16.5" customHeight="1">
@@ -32281,19 +32287,19 @@
         <v>575</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D314" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E314" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="16.5" customHeight="1">
@@ -32307,10 +32313,10 @@
         <v>580</v>
       </c>
       <c r="D315" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E315" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F315" s="5" t="s">
         <v>581</v>
@@ -32330,10 +32336,10 @@
         <v>580</v>
       </c>
       <c r="D316" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E316" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F316" s="5" t="s">
         <v>581</v>
@@ -32353,10 +32359,10 @@
         <v>580</v>
       </c>
       <c r="D317" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E317" s="1">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F317" s="5" t="s">
         <v>581</v>
@@ -32376,10 +32382,10 @@
         <v>580</v>
       </c>
       <c r="D318" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E318" s="1">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F318" s="5" t="s">
         <v>581</v>
@@ -32399,10 +32405,10 @@
         <v>580</v>
       </c>
       <c r="D319" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E319" s="1">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F319" s="5" t="s">
         <v>581</v>
@@ -32422,10 +32428,10 @@
         <v>580</v>
       </c>
       <c r="D320" s="1">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E320" s="1">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F320" s="5" t="s">
         <v>581</v>
@@ -32442,19 +32448,19 @@
         <v>579</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D321" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E321" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F321" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="16.5" customHeight="1">
@@ -32465,19 +32471,19 @@
         <v>579</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D322" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E322" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F322" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="16.5" customHeight="1">
@@ -32488,19 +32494,19 @@
         <v>579</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D323" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E323" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F323" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G323" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="16.5" customHeight="1">
@@ -32511,19 +32517,19 @@
         <v>579</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D324" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E324" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F324" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G324" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="16.5" customHeight="1">
@@ -32534,19 +32540,19 @@
         <v>579</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D325" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E325" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F325" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G325" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="16.5" customHeight="1">
@@ -32557,19 +32563,19 @@
         <v>579</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D326" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E326" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F326" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G326" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="16.5" customHeight="1">
@@ -32580,19 +32586,19 @@
         <v>579</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D327" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E327" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F327" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G327" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="16.5" customHeight="1">
@@ -32603,19 +32609,19 @@
         <v>579</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="D328" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E328" s="1">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F328" s="5" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="G328" s="5" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="16.5" customHeight="1">
@@ -32626,19 +32632,19 @@
         <v>579</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="D329" s="1">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E329" s="1">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F329" s="5" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="G329" s="5" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="16.5" customHeight="1">
@@ -32649,19 +32655,19 @@
         <v>583</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D330" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E330" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="G330" s="5" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="16.5" customHeight="1">
@@ -32672,19 +32678,19 @@
         <v>583</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D331" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E331" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F331" s="5" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="G331" s="5" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="16.5" customHeight="1">
@@ -32695,19 +32701,19 @@
         <v>583</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D332" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E332" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="G332" s="5" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="16.5" customHeight="1">
@@ -32718,19 +32724,19 @@
         <v>583</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D333" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E333" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F333" s="5" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="G333" s="5" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="16.5" customHeight="1">
@@ -32741,19 +32747,19 @@
         <v>583</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D334" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E334" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="G334" s="5" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="16.5" customHeight="1">
@@ -32764,19 +32770,19 @@
         <v>583</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="D335" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E335" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F335" s="5" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="G335" s="5" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="336" spans="1:7" ht="16.5" customHeight="1">
@@ -32787,19 +32793,19 @@
         <v>583</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="D336" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E336" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F336" s="5" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="G336" s="5" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="16.5" customHeight="1">
@@ -32810,19 +32816,19 @@
         <v>587</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="D337" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E337" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="G337" s="5" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="16.5" customHeight="1">
@@ -32833,19 +32839,19 @@
         <v>587</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="D338" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E338" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F338" s="5" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="G338" s="5" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="16.5" customHeight="1">
@@ -32856,19 +32862,19 @@
         <v>587</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="D339" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E339" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="G339" s="5" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="16.5" customHeight="1">
@@ -32879,19 +32885,19 @@
         <v>587</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="D340" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E340" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="G340" s="5" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="16.5" customHeight="1">
@@ -32902,19 +32908,19 @@
         <v>587</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="D341" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E341" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F341" s="5" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="G341" s="5" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="16.5" customHeight="1">
@@ -32925,19 +32931,19 @@
         <v>587</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="D342" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E342" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F342" s="5" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="G342" s="5" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="16.5" customHeight="1">
@@ -32948,19 +32954,19 @@
         <v>587</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="D343" s="1">
-        <v>15</v>
-      </c>
-      <c r="E343" s="1">
-        <v>15</v>
+        <v>605</v>
+      </c>
+      <c r="D343" s="5">
+        <v>6</v>
+      </c>
+      <c r="E343" s="10">
+        <v>6</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="G343" s="5" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="16.5" customHeight="1">
@@ -32971,19 +32977,19 @@
         <v>597</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="D344" s="1">
         <v>1</v>
       </c>
       <c r="E344" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F344" s="5" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="G344" s="5" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="16.5" customHeight="1">
@@ -32994,19 +33000,19 @@
         <v>597</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="D345" s="1">
+        <v>2</v>
+      </c>
+      <c r="E345" s="1">
         <v>4</v>
       </c>
-      <c r="E345" s="1">
-        <v>6</v>
-      </c>
       <c r="F345" s="5" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="G345" s="5" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="16.5" customHeight="1">
@@ -33017,19 +33023,19 @@
         <v>597</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="D346" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E346" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F346" s="5" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="G346" s="5" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="16.5" customHeight="1">
@@ -33040,19 +33046,19 @@
         <v>597</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="D347" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E347" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="G347" s="5" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
     </row>
     <row r="348" spans="1:7" ht="16.5" customHeight="1">
@@ -33063,7 +33069,7 @@
         <v>600</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="D348" s="1">
         <v>1</v>
@@ -33072,10 +33078,10 @@
         <v>3</v>
       </c>
       <c r="F348" s="5" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="G348" s="5" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="16.5" customHeight="1">
@@ -33086,19 +33092,19 @@
         <v>600</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="D349" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E349" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F349" s="5" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="G349" s="5" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
     </row>
     <row r="350" spans="1:7" ht="16.5" customHeight="1">
@@ -33109,19 +33115,19 @@
         <v>604</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="D350" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E350" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F350" s="5" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="G350" s="5" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="16.5" customHeight="1">
@@ -33132,19 +33138,19 @@
         <v>604</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="D351" s="1">
+        <v>1</v>
+      </c>
+      <c r="E351" s="1">
         <v>4</v>
       </c>
-      <c r="E351" s="1">
-        <v>5</v>
-      </c>
       <c r="F351" s="5" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="G351" s="5" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="16.5" customHeight="1">
@@ -33155,19 +33161,19 @@
         <v>604</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="D352" s="5">
-        <v>6</v>
-      </c>
-      <c r="E352" s="10">
-        <v>6</v>
+        <v>633</v>
+      </c>
+      <c r="D352" s="1">
+        <v>1</v>
+      </c>
+      <c r="E352" s="1">
+        <v>3</v>
       </c>
       <c r="F352" s="5" t="s">
-        <v>606</v>
+        <v>634</v>
       </c>
       <c r="G352" s="5" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="16.5" customHeight="1">
@@ -33178,7 +33184,7 @@
         <v>608</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>609</v>
+        <v>636</v>
       </c>
       <c r="D353" s="1">
         <v>1</v>
@@ -33187,10 +33193,10 @@
         <v>1</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="16.5" customHeight="1">
@@ -33201,19 +33207,19 @@
         <v>608</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>609</v>
+        <v>640</v>
       </c>
       <c r="D354" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E354" s="1">
         <v>4</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>610</v>
+        <v>641</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>611</v>
+        <v>642</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="16.5" customHeight="1">
@@ -33224,19 +33230,19 @@
         <v>612</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>613</v>
+        <v>640</v>
       </c>
       <c r="D355" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E355" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>614</v>
+        <v>641</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>615</v>
+        <v>642</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="16.5" customHeight="1">
@@ -33247,19 +33253,19 @@
         <v>616</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="D356" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E356" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>619</v>
+        <v>642</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="16.5" customHeight="1">
@@ -33270,19 +33276,19 @@
         <v>620</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="D357" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E357" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="16.5" customHeight="1">
@@ -33293,19 +33299,19 @@
         <v>624</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="D358" s="1">
         <v>1</v>
       </c>
       <c r="E358" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="16.5" customHeight="1">
@@ -33316,19 +33322,19 @@
         <v>624</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="D359" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E359" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>626</v>
+        <v>675</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="16.5" customHeight="1">

--- a/assets/Proclaim.xlsx
+++ b/assets/Proclaim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerus\StudioProjects\proclaim\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70B0B64-A530-4E14-B597-346BE3BEBA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224B1A61-58E9-4257-B7B2-AED24509A00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Testament" sheetId="1" r:id="rId1"/>
@@ -2662,10 +2662,10 @@
       <selection activeCell="D285" sqref="D285:G367"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="17.73046875" customWidth="1"/>
-    <col min="8" max="28" width="8.73046875" customWidth="1"/>
+    <col min="1" max="7" width="17.7265625" customWidth="1"/>
+    <col min="8" max="28" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1">
@@ -15585,15 +15585,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+    <sheetView topLeftCell="A361" workbookViewId="0">
       <selection activeCell="C369" sqref="C369:G377"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.73046875" customWidth="1"/>
-    <col min="2" max="7" width="17.53125" customWidth="1"/>
-    <col min="8" max="28" width="8.73046875" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" customWidth="1"/>
+    <col min="2" max="7" width="17.54296875" customWidth="1"/>
+    <col min="8" max="28" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1">
@@ -25047,15 +25047,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="D276" sqref="D276"/>
+    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="E292" sqref="E292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.73046875" customWidth="1"/>
-    <col min="2" max="7" width="17.53125" customWidth="1"/>
-    <col min="8" max="28" width="8.73046875" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" customWidth="1"/>
+    <col min="2" max="7" width="17.54296875" customWidth="1"/>
+    <col min="8" max="28" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1">
@@ -31778,7 +31778,7 @@
         <v>423</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>576</v>
@@ -31801,7 +31801,7 @@
         <v>424</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>576</v>
@@ -31824,7 +31824,7 @@
         <v>425</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>576</v>
@@ -31847,7 +31847,7 @@
         <v>430</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>576</v>
@@ -31870,7 +31870,7 @@
         <v>431</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>576</v>
@@ -31893,7 +31893,7 @@
         <v>432</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>576</v>
@@ -31916,7 +31916,7 @@
         <v>433</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>576</v>
@@ -31939,7 +31939,7 @@
         <v>434</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>576</v>
@@ -31962,7 +31962,7 @@
         <v>435</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>576</v>
@@ -34249,6 +34249,6 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/Proclaim.xlsx
+++ b/assets/Proclaim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerus\StudioProjects\proclaim\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224B1A61-58E9-4257-B7B2-AED24509A00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD45324-735F-416A-AB5C-10460490BE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Testament" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6165" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6189" uniqueCount="772">
   <si>
     <t>Date</t>
   </si>
@@ -2323,6 +2323,26 @@
   </si>
   <si>
     <t>150</t>
+  </si>
+  <si>
+    <t>1-48</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>49-96</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>97-136</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>137-176</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verse</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2333,7 +2353,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2376,6 +2396,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2403,7 +2430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2440,6 +2467,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2658,14 +2689,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B356" workbookViewId="0">
-      <selection activeCell="D285" sqref="D285:G367"/>
+    <sheetView topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="C363" sqref="C363"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="17.7265625" customWidth="1"/>
-    <col min="8" max="28" width="8.7265625" customWidth="1"/>
+    <col min="1" max="7" width="17.73046875" customWidth="1"/>
+    <col min="8" max="28" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1">
@@ -9392,10 +9423,10 @@
         <v>424</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="D293" s="6">
         <v>1</v>
@@ -9924,7 +9955,7 @@
         <v>426</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="D316" s="6">
         <v>1</v>
@@ -9993,7 +10024,7 @@
         <v>453</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D319" s="6">
         <v>1</v>
@@ -10537,7 +10568,7 @@
         <v>460</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="D342" s="6">
         <v>1</v>
@@ -10675,7 +10706,7 @@
         <v>487</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="D348" s="6">
         <v>1</v>
@@ -10767,7 +10798,7 @@
         <v>497</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="D352" s="6">
         <v>1</v>
@@ -10790,7 +10821,7 @@
         <v>505</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D353" s="6">
         <v>1</v>
@@ -10859,7 +10890,7 @@
         <v>510</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D356" s="6">
         <v>1</v>
@@ -10882,7 +10913,7 @@
         <v>516</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D357" s="6">
         <v>1</v>
@@ -10905,7 +10936,7 @@
         <v>521</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D358" s="6">
         <v>1</v>
@@ -10951,7 +10982,7 @@
         <v>526</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="D360" s="6">
         <v>1</v>
@@ -10974,7 +11005,7 @@
         <v>532</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D361" s="6">
         <v>1</v>
@@ -10997,7 +11028,7 @@
         <v>537</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D362" s="6">
         <v>1</v>
@@ -11020,7 +11051,7 @@
         <v>542</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="D363" s="6">
         <v>1</v>
@@ -11043,7 +11074,7 @@
         <v>547</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D364" s="6">
         <v>1</v>
@@ -11112,7 +11143,7 @@
         <v>552</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="D367" s="6">
         <v>1</v>
@@ -15585,15 +15616,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="C369" sqref="C369:G377"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
-    <col min="2" max="7" width="17.54296875" customWidth="1"/>
-    <col min="8" max="28" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.73046875" customWidth="1"/>
+    <col min="2" max="7" width="17.53125" customWidth="1"/>
+    <col min="8" max="8" width="14.59765625" customWidth="1"/>
+    <col min="9" max="28" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1">
@@ -15618,8 +15650,8 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
+      <c r="H1" s="14" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1">
@@ -16703,7 +16735,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16.5" customHeight="1">
+    <row r="49" spans="1:8" ht="16.5" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>63</v>
       </c>
@@ -16725,8 +16757,11 @@
       <c r="G49" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H49" s="13" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>64</v>
       </c>
@@ -16748,8 +16783,11 @@
       <c r="G50" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H50" s="13" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" customHeight="1">
       <c r="A51" s="5" t="s">
         <v>69</v>
       </c>
@@ -16771,8 +16809,11 @@
       <c r="G51" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H51" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>70</v>
       </c>
@@ -16794,8 +16835,11 @@
       <c r="G52" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H52" s="13" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>71</v>
       </c>
@@ -16818,7 +16862,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="16.5" customHeight="1">
+    <row r="54" spans="1:8" ht="16.5" customHeight="1">
       <c r="A54" s="5" t="s">
         <v>72</v>
       </c>
@@ -16841,7 +16885,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16.5" customHeight="1">
+    <row r="55" spans="1:8" ht="16.5" customHeight="1">
       <c r="A55" s="5" t="s">
         <v>73</v>
       </c>
@@ -16864,7 +16908,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16.5" customHeight="1">
+    <row r="56" spans="1:8" ht="16.5" customHeight="1">
       <c r="A56" s="5" t="s">
         <v>74</v>
       </c>
@@ -16887,7 +16931,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="16.5" customHeight="1">
+    <row r="57" spans="1:8" ht="16.5" customHeight="1">
       <c r="A57" s="5" t="s">
         <v>75</v>
       </c>
@@ -16910,7 +16954,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16.5" customHeight="1">
+    <row r="58" spans="1:8" ht="16.5" customHeight="1">
       <c r="A58" s="5" t="s">
         <v>76</v>
       </c>
@@ -16933,7 +16977,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16.5" customHeight="1">
+    <row r="59" spans="1:8" ht="16.5" customHeight="1">
       <c r="A59" s="5" t="s">
         <v>77</v>
       </c>
@@ -16956,7 +17000,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16.5" customHeight="1">
+    <row r="60" spans="1:8" ht="16.5" customHeight="1">
       <c r="A60" s="5" t="s">
         <v>78</v>
       </c>
@@ -16979,7 +17023,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16.5" customHeight="1">
+    <row r="61" spans="1:8" ht="16.5" customHeight="1">
       <c r="A61" s="5" t="s">
         <v>79</v>
       </c>
@@ -17002,7 +17046,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="16.5" customHeight="1">
+    <row r="62" spans="1:8" ht="16.5" customHeight="1">
       <c r="A62" s="5" t="s">
         <v>80</v>
       </c>
@@ -17025,7 +17069,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="16.5" customHeight="1">
+    <row r="63" spans="1:8" ht="16.5" customHeight="1">
       <c r="A63" s="5" t="s">
         <v>81</v>
       </c>
@@ -17048,7 +17092,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16.5" customHeight="1">
+    <row r="64" spans="1:8" ht="16.5" customHeight="1">
       <c r="A64" s="5" t="s">
         <v>82</v>
       </c>
@@ -18101,6 +18145,9 @@
       <c r="G108" s="5" t="s">
         <v>679</v>
       </c>
+      <c r="H108" s="13" t="s">
+        <v>767</v>
+      </c>
     </row>
     <row r="109" spans="1:28" ht="16.5" customHeight="1">
       <c r="A109" s="5" t="s">
@@ -18124,6 +18171,9 @@
       <c r="G109" s="5" t="s">
         <v>679</v>
       </c>
+      <c r="H109" s="13" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="110" spans="1:28" ht="16.5" customHeight="1">
       <c r="A110" s="5" t="s">
@@ -18147,6 +18197,9 @@
       <c r="G110" s="5" t="s">
         <v>679</v>
       </c>
+      <c r="H110" s="13" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="111" spans="1:28" ht="16.5" customHeight="1">
       <c r="A111" s="5" t="s">
@@ -18170,6 +18223,9 @@
       <c r="G111" s="5" t="s">
         <v>679</v>
       </c>
+      <c r="H111" s="13" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="112" spans="1:28" ht="16.5" customHeight="1">
       <c r="A112" s="5" t="s">
@@ -19298,7 +19354,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="16.5" customHeight="1">
+    <row r="161" spans="1:8" ht="16.5" customHeight="1">
       <c r="A161" s="5" t="s">
         <v>227</v>
       </c>
@@ -19321,7 +19377,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="16.5" customHeight="1">
+    <row r="162" spans="1:8" ht="16.5" customHeight="1">
       <c r="A162" s="5" t="s">
         <v>229</v>
       </c>
@@ -19344,7 +19400,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="16.5" customHeight="1">
+    <row r="163" spans="1:8" ht="16.5" customHeight="1">
       <c r="A163" s="5" t="s">
         <v>231</v>
       </c>
@@ -19367,7 +19423,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="16.5" customHeight="1">
+    <row r="164" spans="1:8" ht="16.5" customHeight="1">
       <c r="A164" s="5" t="s">
         <v>233</v>
       </c>
@@ -19390,7 +19446,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="16.5" customHeight="1">
+    <row r="165" spans="1:8" ht="16.5" customHeight="1">
       <c r="A165" s="5" t="s">
         <v>235</v>
       </c>
@@ -19413,7 +19469,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="16.5" customHeight="1">
+    <row r="166" spans="1:8" ht="16.5" customHeight="1">
       <c r="A166" s="5" t="s">
         <v>237</v>
       </c>
@@ -19436,7 +19492,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="16.5" customHeight="1">
+    <row r="167" spans="1:8" ht="16.5" customHeight="1">
       <c r="A167" s="5" t="s">
         <v>239</v>
       </c>
@@ -19458,8 +19514,11 @@
       <c r="G167" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H167" s="13" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="16.5" customHeight="1">
       <c r="A168" s="5" t="s">
         <v>241</v>
       </c>
@@ -19481,8 +19540,11 @@
       <c r="G168" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H168" s="13" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="16.5" customHeight="1">
       <c r="A169" s="5" t="s">
         <v>243</v>
       </c>
@@ -19504,8 +19566,11 @@
       <c r="G169" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H169" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="16.5" customHeight="1">
       <c r="A170" s="5" t="s">
         <v>247</v>
       </c>
@@ -19527,8 +19592,11 @@
       <c r="G170" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H170" s="13" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="16.5" customHeight="1">
       <c r="A171" s="5" t="s">
         <v>248</v>
       </c>
@@ -19551,7 +19619,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="16.5" customHeight="1">
+    <row r="172" spans="1:8" ht="16.5" customHeight="1">
       <c r="A172" s="5" t="s">
         <v>249</v>
       </c>
@@ -19574,7 +19642,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="16.5" customHeight="1">
+    <row r="173" spans="1:8" ht="16.5" customHeight="1">
       <c r="A173" s="5" t="s">
         <v>250</v>
       </c>
@@ -19597,7 +19665,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="16.5" customHeight="1">
+    <row r="174" spans="1:8" ht="16.5" customHeight="1">
       <c r="A174" s="5" t="s">
         <v>251</v>
       </c>
@@ -19620,7 +19688,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="16.5" customHeight="1">
+    <row r="175" spans="1:8" ht="16.5" customHeight="1">
       <c r="A175" s="5" t="s">
         <v>252</v>
       </c>
@@ -19643,7 +19711,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="16.5" customHeight="1">
+    <row r="176" spans="1:8" ht="16.5" customHeight="1">
       <c r="A176" s="5" t="s">
         <v>253</v>
       </c>
@@ -20770,7 +20838,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="16.5" customHeight="1">
+    <row r="225" spans="1:8" ht="16.5" customHeight="1">
       <c r="A225" s="5" t="s">
         <v>333</v>
       </c>
@@ -20793,7 +20861,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="16.5" customHeight="1">
+    <row r="226" spans="1:8" ht="16.5" customHeight="1">
       <c r="A226" s="5" t="s">
         <v>334</v>
       </c>
@@ -20816,7 +20884,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="16.5" customHeight="1">
+    <row r="227" spans="1:8" ht="16.5" customHeight="1">
       <c r="A227" s="5" t="s">
         <v>335</v>
       </c>
@@ -20839,7 +20907,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="16.5" customHeight="1">
+    <row r="228" spans="1:8" ht="16.5" customHeight="1">
       <c r="A228" s="5" t="s">
         <v>336</v>
       </c>
@@ -20862,7 +20930,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="16.5" customHeight="1">
+    <row r="229" spans="1:8" ht="16.5" customHeight="1">
       <c r="A229" s="5" t="s">
         <v>341</v>
       </c>
@@ -20885,7 +20953,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="16.5" customHeight="1">
+    <row r="230" spans="1:8" ht="16.5" customHeight="1">
       <c r="A230" s="5" t="s">
         <v>342</v>
       </c>
@@ -20908,7 +20976,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="16.5" customHeight="1">
+    <row r="231" spans="1:8" ht="16.5" customHeight="1">
       <c r="A231" s="5" t="s">
         <v>343</v>
       </c>
@@ -20931,7 +20999,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="16.5" customHeight="1">
+    <row r="232" spans="1:8" ht="16.5" customHeight="1">
       <c r="A232" s="5" t="s">
         <v>347</v>
       </c>
@@ -20953,8 +21021,11 @@
       <c r="G232" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H232" s="13" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="16.5" customHeight="1">
       <c r="A233" s="5" t="s">
         <v>348</v>
       </c>
@@ -20976,8 +21047,11 @@
       <c r="G233" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H233" s="13" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="16.5" customHeight="1">
       <c r="A234" s="5" t="s">
         <v>349</v>
       </c>
@@ -20999,8 +21073,11 @@
       <c r="G234" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H234" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="16.5" customHeight="1">
       <c r="A235" s="5" t="s">
         <v>350</v>
       </c>
@@ -21022,8 +21099,11 @@
       <c r="G235" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H235" s="13" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="16.5" customHeight="1">
       <c r="A236" s="5" t="s">
         <v>351</v>
       </c>
@@ -21046,7 +21126,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="16.5" customHeight="1">
+    <row r="237" spans="1:8" ht="16.5" customHeight="1">
       <c r="A237" s="5" t="s">
         <v>352</v>
       </c>
@@ -21069,7 +21149,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="16.5" customHeight="1">
+    <row r="238" spans="1:8" ht="16.5" customHeight="1">
       <c r="A238" s="5" t="s">
         <v>353</v>
       </c>
@@ -21092,7 +21172,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="16.5" customHeight="1">
+    <row r="239" spans="1:8" ht="16.5" customHeight="1">
       <c r="A239" s="5" t="s">
         <v>354</v>
       </c>
@@ -21115,7 +21195,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="16.5" customHeight="1">
+    <row r="240" spans="1:8" ht="16.5" customHeight="1">
       <c r="A240" s="5" t="s">
         <v>355</v>
       </c>
@@ -22242,7 +22322,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="16.5" customHeight="1">
+    <row r="289" spans="1:8" ht="16.5" customHeight="1">
       <c r="A289" s="5" t="s">
         <v>420</v>
       </c>
@@ -22265,7 +22345,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="16.5" customHeight="1">
+    <row r="290" spans="1:8" ht="16.5" customHeight="1">
       <c r="A290" s="5" t="s">
         <v>421</v>
       </c>
@@ -22288,7 +22368,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="16.5" customHeight="1">
+    <row r="291" spans="1:8" ht="16.5" customHeight="1">
       <c r="A291" s="5" t="s">
         <v>422</v>
       </c>
@@ -22311,7 +22391,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="16.5" customHeight="1">
+    <row r="292" spans="1:8" ht="16.5" customHeight="1">
       <c r="A292" s="5" t="s">
         <v>423</v>
       </c>
@@ -22334,7 +22414,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="16.5" customHeight="1">
+    <row r="293" spans="1:8" ht="16.5" customHeight="1">
       <c r="A293" s="5" t="s">
         <v>424</v>
       </c>
@@ -22356,8 +22436,11 @@
       <c r="G293" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H293" s="13" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" ht="16.5" customHeight="1">
       <c r="A294" s="5" t="s">
         <v>425</v>
       </c>
@@ -22379,8 +22462,11 @@
       <c r="G294" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H294" s="13" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" ht="16.5" customHeight="1">
       <c r="A295" s="5" t="s">
         <v>430</v>
       </c>
@@ -22402,8 +22488,11 @@
       <c r="G295" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H295" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="16.5" customHeight="1">
       <c r="A296" s="5" t="s">
         <v>431</v>
       </c>
@@ -22425,8 +22514,11 @@
       <c r="G296" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H296" s="13" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" ht="16.5" customHeight="1">
       <c r="A297" s="5" t="s">
         <v>432</v>
       </c>
@@ -22449,7 +22541,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="16.5" customHeight="1">
+    <row r="298" spans="1:8" ht="16.5" customHeight="1">
       <c r="A298" s="5" t="s">
         <v>433</v>
       </c>
@@ -22472,7 +22564,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="16.5" customHeight="1">
+    <row r="299" spans="1:8" ht="16.5" customHeight="1">
       <c r="A299" s="5" t="s">
         <v>434</v>
       </c>
@@ -22495,7 +22587,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="16.5" customHeight="1">
+    <row r="300" spans="1:8" ht="16.5" customHeight="1">
       <c r="A300" s="5" t="s">
         <v>435</v>
       </c>
@@ -22518,7 +22610,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="16.5" customHeight="1">
+    <row r="301" spans="1:8" ht="16.5" customHeight="1">
       <c r="A301" s="5" t="s">
         <v>436</v>
       </c>
@@ -22541,7 +22633,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="16.5" customHeight="1">
+    <row r="302" spans="1:8" ht="16.5" customHeight="1">
       <c r="A302" s="5" t="s">
         <v>437</v>
       </c>
@@ -22564,7 +22656,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="16.5" customHeight="1">
+    <row r="303" spans="1:8" ht="16.5" customHeight="1">
       <c r="A303" s="5" t="s">
         <v>438</v>
       </c>
@@ -22587,7 +22679,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="16.5" customHeight="1">
+    <row r="304" spans="1:8" ht="16.5" customHeight="1">
       <c r="A304" s="5" t="s">
         <v>439</v>
       </c>
@@ -23346,7 +23438,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="16.5" customHeight="1">
+    <row r="337" spans="1:8" ht="16.5" customHeight="1">
       <c r="A337" s="5" t="s">
         <v>480</v>
       </c>
@@ -23369,7 +23461,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="16.5" customHeight="1">
+    <row r="338" spans="1:8" ht="16.5" customHeight="1">
       <c r="A338" s="5" t="s">
         <v>481</v>
       </c>
@@ -23392,7 +23484,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="16.5" customHeight="1">
+    <row r="339" spans="1:8" ht="16.5" customHeight="1">
       <c r="A339" s="5" t="s">
         <v>482</v>
       </c>
@@ -23415,7 +23507,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="16.5" customHeight="1">
+    <row r="340" spans="1:8" ht="16.5" customHeight="1">
       <c r="A340" s="5" t="s">
         <v>483</v>
       </c>
@@ -23438,7 +23530,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="16.5" customHeight="1">
+    <row r="341" spans="1:8" ht="16.5" customHeight="1">
       <c r="A341" s="5" t="s">
         <v>484</v>
       </c>
@@ -23461,7 +23553,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="16.5" customHeight="1">
+    <row r="342" spans="1:8" ht="16.5" customHeight="1">
       <c r="A342" s="5" t="s">
         <v>485</v>
       </c>
@@ -23484,7 +23576,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="16.5" customHeight="1">
+    <row r="343" spans="1:8" ht="16.5" customHeight="1">
       <c r="A343" s="5" t="s">
         <v>486</v>
       </c>
@@ -23507,7 +23599,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="16.5" customHeight="1">
+    <row r="344" spans="1:8" ht="16.5" customHeight="1">
       <c r="A344" s="5" t="s">
         <v>491</v>
       </c>
@@ -23530,7 +23622,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="16.5" customHeight="1">
+    <row r="345" spans="1:8" ht="16.5" customHeight="1">
       <c r="A345" s="5" t="s">
         <v>492</v>
       </c>
@@ -23553,7 +23645,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="16.5" customHeight="1">
+    <row r="346" spans="1:8" ht="16.5" customHeight="1">
       <c r="A346" s="5" t="s">
         <v>493</v>
       </c>
@@ -23576,7 +23668,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="16.5" customHeight="1">
+    <row r="347" spans="1:8" ht="16.5" customHeight="1">
       <c r="A347" s="5" t="s">
         <v>494</v>
       </c>
@@ -23599,7 +23691,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="16.5" customHeight="1">
+    <row r="348" spans="1:8" ht="16.5" customHeight="1">
       <c r="A348" s="5" t="s">
         <v>495</v>
       </c>
@@ -23622,7 +23714,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="16.5" customHeight="1">
+    <row r="349" spans="1:8" ht="16.5" customHeight="1">
       <c r="A349" s="5" t="s">
         <v>496</v>
       </c>
@@ -23645,7 +23737,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="16.5" customHeight="1">
+    <row r="350" spans="1:8" ht="16.5" customHeight="1">
       <c r="A350" s="5" t="s">
         <v>501</v>
       </c>
@@ -23668,7 +23760,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="16.5" customHeight="1">
+    <row r="351" spans="1:8" ht="16.5" customHeight="1">
       <c r="A351" s="5" t="s">
         <v>502</v>
       </c>
@@ -23691,7 +23783,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="16.5" customHeight="1">
+    <row r="352" spans="1:8" ht="16.5" customHeight="1">
       <c r="A352" s="5" t="s">
         <v>503</v>
       </c>
@@ -23713,8 +23805,11 @@
       <c r="G352" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H352" s="13" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" ht="16.5" customHeight="1">
       <c r="A353" s="5" t="s">
         <v>504</v>
       </c>
@@ -23736,8 +23831,11 @@
       <c r="G353" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H353" s="13" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" ht="16.5" customHeight="1">
       <c r="A354" s="5" t="s">
         <v>509</v>
       </c>
@@ -23759,8 +23857,11 @@
       <c r="G354" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H354" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" ht="16.5" customHeight="1">
       <c r="A355" s="5" t="s">
         <v>514</v>
       </c>
@@ -23782,8 +23883,11 @@
       <c r="G355" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H355" s="13" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" ht="16.5" customHeight="1">
       <c r="A356" s="5" t="s">
         <v>515</v>
       </c>
@@ -23806,7 +23910,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="16.5" customHeight="1">
+    <row r="357" spans="1:8" ht="16.5" customHeight="1">
       <c r="A357" s="5" t="s">
         <v>515</v>
       </c>
@@ -23829,7 +23933,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="16.5" customHeight="1">
+    <row r="358" spans="1:8" ht="16.5" customHeight="1">
       <c r="A358" s="5" t="s">
         <v>520</v>
       </c>
@@ -23852,7 +23956,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="16.5" customHeight="1">
+    <row r="359" spans="1:8" ht="16.5" customHeight="1">
       <c r="A359" s="5" t="s">
         <v>525</v>
       </c>
@@ -23875,7 +23979,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="16.5" customHeight="1">
+    <row r="360" spans="1:8" ht="16.5" customHeight="1">
       <c r="A360" s="5" t="s">
         <v>530</v>
       </c>
@@ -23898,7 +24002,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="16.5" customHeight="1">
+    <row r="361" spans="1:8" ht="16.5" customHeight="1">
       <c r="A361" s="5" t="s">
         <v>531</v>
       </c>
@@ -23921,7 +24025,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="16.5" customHeight="1">
+    <row r="362" spans="1:8" ht="16.5" customHeight="1">
       <c r="A362" s="5" t="s">
         <v>536</v>
       </c>
@@ -23944,7 +24048,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="16.5" customHeight="1">
+    <row r="363" spans="1:8" ht="16.5" customHeight="1">
       <c r="A363" s="5" t="s">
         <v>541</v>
       </c>
@@ -23967,7 +24071,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="16.5" customHeight="1">
+    <row r="364" spans="1:8" ht="16.5" customHeight="1">
       <c r="A364" s="5" t="s">
         <v>546</v>
       </c>
@@ -23990,7 +24094,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="16.5" customHeight="1">
+    <row r="365" spans="1:8" ht="16.5" customHeight="1">
       <c r="A365" s="5" t="s">
         <v>551</v>
       </c>
@@ -24013,7 +24117,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="16.5" customHeight="1">
+    <row r="366" spans="1:8" ht="16.5" customHeight="1">
       <c r="A366" s="5" t="s">
         <v>556</v>
       </c>
@@ -24036,7 +24140,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="16.5" customHeight="1">
+    <row r="367" spans="1:8" ht="16.5" customHeight="1">
       <c r="A367" s="5" t="s">
         <v>557</v>
       </c>
@@ -24059,7 +24163,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="16.5" customHeight="1">
+    <row r="368" spans="1:8" ht="16.5" customHeight="1">
       <c r="A368" s="5" t="s">
         <v>558</v>
       </c>
@@ -25047,15 +25151,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
+    <sheetView topLeftCell="A351" workbookViewId="0">
       <selection activeCell="E292" sqref="E292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
-    <col min="2" max="7" width="17.54296875" customWidth="1"/>
-    <col min="8" max="28" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.73046875" customWidth="1"/>
+    <col min="2" max="7" width="17.53125" customWidth="1"/>
+    <col min="8" max="28" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1">

--- a/assets/Proclaim.xlsx
+++ b/assets/Proclaim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerus\StudioProjects\proclaim\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD45324-735F-416A-AB5C-10460490BE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB63DE9-8A78-48E2-A79B-5C3DAEB23CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Testament" sheetId="1" r:id="rId1"/>
@@ -2689,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="C363" sqref="C363"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="J293" sqref="J293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -15616,8 +15616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>

--- a/assets/Proclaim.xlsx
+++ b/assets/Proclaim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerus\StudioProjects\proclaim\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB63DE9-8A78-48E2-A79B-5C3DAEB23CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891EA76C-409B-444A-8EDA-4194B45515F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Testament" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6189" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6188" uniqueCount="772">
   <si>
     <t>Date</t>
   </si>
@@ -2689,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="J293" sqref="J293"/>
+    <sheetView topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="E297" sqref="E297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -15616,8 +15616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="H290" sqref="H290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -22531,8 +22531,8 @@
       <c r="D297" s="12" t="s">
         <v>751</v>
       </c>
-      <c r="E297" s="12" t="s">
-        <v>752</v>
+      <c r="E297" s="12">
+        <v>122</v>
       </c>
       <c r="F297" s="5" t="s">
         <v>678</v>
@@ -25151,8 +25151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A351" workbookViewId="0">
-      <selection activeCell="E292" sqref="E292"/>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="G296" sqref="G296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>

--- a/assets/Proclaim.xlsx
+++ b/assets/Proclaim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerus\StudioProjects\proclaim\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891EA76C-409B-444A-8EDA-4194B45515F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C294E4DD-8BDB-415D-8A3E-BD9FA0DA69B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Testament" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6188" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6186" uniqueCount="772">
   <si>
     <t>Date</t>
   </si>
@@ -15616,8 +15616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="H290" sqref="H290"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="H300" sqref="H300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -22551,11 +22551,11 @@
       <c r="C298" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D298" s="12" t="s">
-        <v>753</v>
-      </c>
-      <c r="E298" s="12" t="s">
-        <v>754</v>
+      <c r="D298" s="12">
+        <v>123</v>
+      </c>
+      <c r="E298" s="12">
+        <v>125</v>
       </c>
       <c r="F298" s="5" t="s">
         <v>678</v>
@@ -25151,7 +25151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+    <sheetView topLeftCell="A282" workbookViewId="0">
       <selection activeCell="G296" sqref="G296"/>
     </sheetView>
   </sheetViews>

--- a/assets/Proclaim.xlsx
+++ b/assets/Proclaim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerus\StudioProjects\proclaim\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C294E4DD-8BDB-415D-8A3E-BD9FA0DA69B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE47857-F739-432A-958F-A07677140D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6186" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6184" uniqueCount="772">
   <si>
     <t>Date</t>
   </si>
@@ -15617,7 +15617,7 @@
   <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="H300" sqref="H300"/>
+      <selection activeCell="K307" sqref="K307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -22574,11 +22574,11 @@
       <c r="C299" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D299" s="12" t="s">
-        <v>755</v>
-      </c>
-      <c r="E299" s="12" t="s">
-        <v>756</v>
+      <c r="D299" s="12">
+        <v>126</v>
+      </c>
+      <c r="E299" s="12">
+        <v>128</v>
       </c>
       <c r="F299" s="5" t="s">
         <v>678</v>

--- a/assets/Proclaim.xlsx
+++ b/assets/Proclaim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerus\StudioProjects\proclaim\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE47857-F739-432A-958F-A07677140D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBCC049-FB7E-4FC6-B7F7-CB695CADF4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1470" windowWidth="21600" windowHeight="11190" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Testament" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6184" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6182" uniqueCount="772">
   <si>
     <t>Date</t>
   </si>
@@ -2689,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="E297" sqref="E297"/>
+    <sheetView topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="D300" sqref="D300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -15616,8 +15616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="K307" sqref="K307"/>
+    <sheetView topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="E300" sqref="E300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -22597,11 +22597,11 @@
       <c r="C300" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D300" s="12" t="s">
-        <v>757</v>
-      </c>
-      <c r="E300" s="12" t="s">
-        <v>758</v>
+      <c r="D300" s="12">
+        <v>129</v>
+      </c>
+      <c r="E300" s="12">
+        <v>131</v>
       </c>
       <c r="F300" s="5" t="s">
         <v>678</v>
@@ -25151,8 +25151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="G296" sqref="G296"/>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="M290" sqref="M290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>

--- a/assets/Proclaim.xlsx
+++ b/assets/Proclaim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerus\StudioProjects\proclaim\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBCC049-FB7E-4FC6-B7F7-CB695CADF4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE938A5-49C1-43A4-BBEE-342FCC448640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1470" windowWidth="21600" windowHeight="11190" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Testament" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6182" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6178" uniqueCount="772">
   <si>
     <t>Date</t>
   </si>
@@ -2689,7 +2689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A282" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
       <selection activeCell="D300" sqref="D300"/>
     </sheetView>
   </sheetViews>
@@ -15617,7 +15617,7 @@
   <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="E300" sqref="E300"/>
+      <selection activeCell="F301" sqref="F301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -22620,11 +22620,11 @@
       <c r="C301" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D301" s="12" t="s">
-        <v>759</v>
-      </c>
-      <c r="E301" s="12" t="s">
-        <v>760</v>
+      <c r="D301" s="12">
+        <v>132</v>
+      </c>
+      <c r="E301" s="12">
+        <v>135</v>
       </c>
       <c r="F301" s="5" t="s">
         <v>678</v>
@@ -22643,11 +22643,11 @@
       <c r="C302" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D302" s="12" t="s">
-        <v>761</v>
-      </c>
-      <c r="E302" s="12" t="s">
-        <v>762</v>
+      <c r="D302" s="12">
+        <v>136</v>
+      </c>
+      <c r="E302" s="12">
+        <v>138</v>
       </c>
       <c r="F302" s="5" t="s">
         <v>678</v>
@@ -25151,7 +25151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+    <sheetView topLeftCell="A287" workbookViewId="0">
       <selection activeCell="M290" sqref="M290"/>
     </sheetView>
   </sheetViews>

--- a/assets/Proclaim.xlsx
+++ b/assets/Proclaim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerus\StudioProjects\proclaim\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE938A5-49C1-43A4-BBEE-342FCC448640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0440F955-5D0F-4DEF-9A2E-E6BD710FC25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1590" windowWidth="21600" windowHeight="11190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Testament" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6178" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6176" uniqueCount="772">
   <si>
     <t>Date</t>
   </si>
@@ -2689,7 +2689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+    <sheetView topLeftCell="A282" workbookViewId="0">
       <selection activeCell="D300" sqref="D300"/>
     </sheetView>
   </sheetViews>
@@ -15616,8 +15616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="F301" sqref="F301"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="G303" sqref="G303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -22666,11 +22666,11 @@
       <c r="C303" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D303" s="12" t="s">
-        <v>763</v>
-      </c>
-      <c r="E303" s="12" t="s">
-        <v>764</v>
+      <c r="D303" s="12">
+        <v>139</v>
+      </c>
+      <c r="E303" s="12">
+        <v>141</v>
       </c>
       <c r="F303" s="5" t="s">
         <v>678</v>

--- a/assets/Proclaim.xlsx
+++ b/assets/Proclaim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerus\StudioProjects\proclaim\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0440F955-5D0F-4DEF-9A2E-E6BD710FC25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEB103F-CE62-4584-9C27-89E119B4DED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1590" windowWidth="21600" windowHeight="11190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8" yWindow="8" windowWidth="21585" windowHeight="12765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Testament" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6176" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6174" uniqueCount="772">
   <si>
     <t>Date</t>
   </si>
@@ -15616,8 +15616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="G303" sqref="G303"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="E304" sqref="E304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -22689,11 +22689,11 @@
       <c r="C304" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D304" s="12" t="s">
-        <v>765</v>
-      </c>
-      <c r="E304" s="12" t="s">
-        <v>766</v>
+      <c r="D304" s="12">
+        <v>142</v>
+      </c>
+      <c r="E304" s="12">
+        <v>144</v>
       </c>
       <c r="F304" s="5" t="s">
         <v>678</v>

--- a/assets/Proclaim.xlsx
+++ b/assets/Proclaim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerus\StudioProjects\proclaim\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEB103F-CE62-4584-9C27-89E119B4DED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2545AB-6C07-4CFF-AF43-16995B582313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8" yWindow="8" windowWidth="21585" windowHeight="12765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="21585" windowHeight="12765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Testament" sheetId="1" r:id="rId1"/>
@@ -15617,7 +15617,7 @@
   <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="E304" sqref="E304"/>
+      <selection activeCell="E305" sqref="E305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -22713,10 +22713,10 @@
         <v>677</v>
       </c>
       <c r="D305" s="5">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="E305" s="10">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="F305" s="5" t="s">
         <v>678</v>

--- a/assets/Proclaim.xlsx
+++ b/assets/Proclaim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerus\StudioProjects\proclaim\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2545AB-6C07-4CFF-AF43-16995B582313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558439E6-7A8E-4F49-AF42-7B772C7801EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="21585" windowHeight="12765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Testament" sheetId="1" r:id="rId1"/>
@@ -2689,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="D300" sqref="D300"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="F308" sqref="F308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -15616,8 +15616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="E305" sqref="E305"/>
+    <sheetView topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="D306" sqref="D306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -22736,10 +22736,10 @@
         <v>677</v>
       </c>
       <c r="D306" s="5">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="E306" s="10">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="F306" s="5" t="s">
         <v>678</v>
@@ -25151,7 +25151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A287" workbookViewId="0">
+    <sheetView topLeftCell="A300" workbookViewId="0">
       <selection activeCell="M290" sqref="M290"/>
     </sheetView>
   </sheetViews>

--- a/assets/Proclaim.xlsx
+++ b/assets/Proclaim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerus\StudioProjects\proclaim\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558439E6-7A8E-4F49-AF42-7B772C7801EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352A8FD8-68D3-4347-8FC8-0774F28BE79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Testament" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6174" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6174" uniqueCount="775">
   <si>
     <t>Date</t>
   </si>
@@ -2342,6 +2342,18 @@
   </si>
   <si>
     <t>Verse</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>행</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>롬</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>고전</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2689,7 +2701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+    <sheetView topLeftCell="A301" workbookViewId="0">
       <selection activeCell="F308" sqref="F308"/>
     </sheetView>
   </sheetViews>
@@ -25151,8 +25163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="M290" sqref="M290"/>
+    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="C364" sqref="C364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -32204,7 +32216,7 @@
         <v>441</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>575</v>
+        <v>772</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>580</v>
@@ -32227,7 +32239,7 @@
         <v>442</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>575</v>
+        <v>772</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>580</v>
@@ -32250,7 +32262,7 @@
         <v>443</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>575</v>
+        <v>772</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>580</v>
@@ -32273,7 +32285,7 @@
         <v>444</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>575</v>
+        <v>772</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>580</v>
@@ -32296,7 +32308,7 @@
         <v>445</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>575</v>
+        <v>772</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>580</v>
@@ -32319,7 +32331,7 @@
         <v>446</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>575</v>
+        <v>772</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>580</v>
@@ -32342,7 +32354,7 @@
         <v>447</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>575</v>
+        <v>772</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>580</v>
@@ -32365,7 +32377,7 @@
         <v>448</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>575</v>
+        <v>772</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>580</v>
@@ -32388,7 +32400,7 @@
         <v>449</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>575</v>
+        <v>772</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>580</v>
@@ -32411,7 +32423,7 @@
         <v>450</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>579</v>
+        <v>772</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>580</v>
@@ -32434,7 +32446,7 @@
         <v>451</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>579</v>
+        <v>772</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>580</v>
@@ -32457,7 +32469,7 @@
         <v>452</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>579</v>
+        <v>772</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>580</v>
@@ -32480,7 +32492,7 @@
         <v>457</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>579</v>
+        <v>772</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>580</v>
@@ -32503,7 +32515,7 @@
         <v>458</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>579</v>
+        <v>772</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>580</v>
@@ -32526,7 +32538,7 @@
         <v>459</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>579</v>
+        <v>772</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>580</v>
@@ -32549,7 +32561,7 @@
         <v>464</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>579</v>
+        <v>773</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>584</v>
@@ -32572,7 +32584,7 @@
         <v>465</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>579</v>
+        <v>773</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>584</v>
@@ -32595,7 +32607,7 @@
         <v>466</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>579</v>
+        <v>773</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>584</v>
@@ -32618,7 +32630,7 @@
         <v>467</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>579</v>
+        <v>773</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>584</v>
@@ -32641,7 +32653,7 @@
         <v>468</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>579</v>
+        <v>773</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>584</v>
@@ -32664,7 +32676,7 @@
         <v>469</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>579</v>
+        <v>773</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>584</v>
@@ -32687,7 +32699,7 @@
         <v>470</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>579</v>
+        <v>773</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>584</v>
@@ -32710,7 +32722,7 @@
         <v>471</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>579</v>
+        <v>774</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>588</v>
@@ -32733,7 +32745,7 @@
         <v>472</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>579</v>
+        <v>774</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>588</v>
@@ -32756,7 +32768,7 @@
         <v>473</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>583</v>
+        <v>774</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>588</v>
@@ -32779,7 +32791,7 @@
         <v>474</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>583</v>
+        <v>774</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>588</v>
@@ -32802,7 +32814,7 @@
         <v>475</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>583</v>
+        <v>774</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>588</v>
@@ -32825,7 +32837,7 @@
         <v>476</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>583</v>
+        <v>774</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>588</v>
@@ -32848,7 +32860,7 @@
         <v>477</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>583</v>
+        <v>774</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>588</v>
@@ -32871,7 +32883,7 @@
         <v>478</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>598</v>
@@ -32894,7 +32906,7 @@
         <v>479</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>598</v>
@@ -32917,7 +32929,7 @@
         <v>480</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>598</v>
@@ -32940,7 +32952,7 @@
         <v>481</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>598</v>
@@ -32963,7 +32975,7 @@
         <v>482</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>601</v>
@@ -32986,7 +32998,7 @@
         <v>483</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>601</v>
@@ -33009,7 +33021,7 @@
         <v>484</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>605</v>
@@ -33032,7 +33044,7 @@
         <v>485</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>605</v>
@@ -33055,7 +33067,7 @@
         <v>486</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>605</v>
@@ -33078,7 +33090,7 @@
         <v>491</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>609</v>
@@ -33101,7 +33113,7 @@
         <v>492</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>609</v>
@@ -33124,7 +33136,7 @@
         <v>493</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>613</v>
@@ -33147,7 +33159,7 @@
         <v>494</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>617</v>
@@ -33170,7 +33182,7 @@
         <v>495</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>621</v>
@@ -33193,7 +33205,7 @@
         <v>496</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>625</v>
@@ -33216,7 +33228,7 @@
         <v>501</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>625</v>
@@ -33239,7 +33251,7 @@
         <v>502</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>629</v>
@@ -33262,7 +33274,7 @@
         <v>503</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>604</v>
+        <v>632</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>633</v>
@@ -33308,7 +33320,7 @@
         <v>509</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>608</v>
+        <v>639</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>640</v>
@@ -33331,7 +33343,7 @@
         <v>514</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>640</v>
@@ -33354,7 +33366,7 @@
         <v>515</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>640</v>
@@ -33377,7 +33389,7 @@
         <v>515</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>620</v>
+        <v>639</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>640</v>
@@ -33400,7 +33412,7 @@
         <v>520</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>644</v>
@@ -33423,7 +33435,7 @@
         <v>525</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>644</v>

--- a/assets/Proclaim.xlsx
+++ b/assets/Proclaim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerus\StudioProjects\proclaim\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352A8FD8-68D3-4347-8FC8-0774F28BE79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0440F955-5D0F-4DEF-9A2E-E6BD710FC25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1590" windowWidth="21600" windowHeight="11190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Testament" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6174" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6176" uniqueCount="772">
   <si>
     <t>Date</t>
   </si>
@@ -2342,18 +2342,6 @@
   </si>
   <si>
     <t>Verse</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>행</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>롬</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>고전</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2701,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="F308" sqref="F308"/>
+    <sheetView topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="D300" sqref="D300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -15628,8 +15616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="D306" sqref="D306"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="G303" sqref="G303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -22701,11 +22689,11 @@
       <c r="C304" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D304" s="12">
-        <v>142</v>
-      </c>
-      <c r="E304" s="12">
-        <v>144</v>
+      <c r="D304" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="E304" s="12" t="s">
+        <v>766</v>
       </c>
       <c r="F304" s="5" t="s">
         <v>678</v>
@@ -22725,10 +22713,10 @@
         <v>677</v>
       </c>
       <c r="D305" s="5">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E305" s="10">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="F305" s="5" t="s">
         <v>678</v>
@@ -22748,10 +22736,10 @@
         <v>677</v>
       </c>
       <c r="D306" s="5">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="E306" s="10">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="F306" s="5" t="s">
         <v>678</v>
@@ -25163,8 +25151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
-      <selection activeCell="C364" sqref="C364"/>
+    <sheetView topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="M290" sqref="M290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -32216,7 +32204,7 @@
         <v>441</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>772</v>
+        <v>575</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>580</v>
@@ -32239,7 +32227,7 @@
         <v>442</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>772</v>
+        <v>575</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>580</v>
@@ -32262,7 +32250,7 @@
         <v>443</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>772</v>
+        <v>575</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>580</v>
@@ -32285,7 +32273,7 @@
         <v>444</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>772</v>
+        <v>575</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>580</v>
@@ -32308,7 +32296,7 @@
         <v>445</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>772</v>
+        <v>575</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>580</v>
@@ -32331,7 +32319,7 @@
         <v>446</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>772</v>
+        <v>575</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>580</v>
@@ -32354,7 +32342,7 @@
         <v>447</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>772</v>
+        <v>575</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>580</v>
@@ -32377,7 +32365,7 @@
         <v>448</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>772</v>
+        <v>575</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>580</v>
@@ -32400,7 +32388,7 @@
         <v>449</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>772</v>
+        <v>575</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>580</v>
@@ -32423,7 +32411,7 @@
         <v>450</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>772</v>
+        <v>579</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>580</v>
@@ -32446,7 +32434,7 @@
         <v>451</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>772</v>
+        <v>579</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>580</v>
@@ -32469,7 +32457,7 @@
         <v>452</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>772</v>
+        <v>579</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>580</v>
@@ -32492,7 +32480,7 @@
         <v>457</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>772</v>
+        <v>579</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>580</v>
@@ -32515,7 +32503,7 @@
         <v>458</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>772</v>
+        <v>579</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>580</v>
@@ -32538,7 +32526,7 @@
         <v>459</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>772</v>
+        <v>579</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>580</v>
@@ -32561,7 +32549,7 @@
         <v>464</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>773</v>
+        <v>579</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>584</v>
@@ -32584,7 +32572,7 @@
         <v>465</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>773</v>
+        <v>579</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>584</v>
@@ -32607,7 +32595,7 @@
         <v>466</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>773</v>
+        <v>579</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>584</v>
@@ -32630,7 +32618,7 @@
         <v>467</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>773</v>
+        <v>579</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>584</v>
@@ -32653,7 +32641,7 @@
         <v>468</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>773</v>
+        <v>579</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>584</v>
@@ -32676,7 +32664,7 @@
         <v>469</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>773</v>
+        <v>579</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>584</v>
@@ -32699,7 +32687,7 @@
         <v>470</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>773</v>
+        <v>579</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>584</v>
@@ -32722,7 +32710,7 @@
         <v>471</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>774</v>
+        <v>579</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>588</v>
@@ -32745,7 +32733,7 @@
         <v>472</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>774</v>
+        <v>579</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>588</v>
@@ -32768,7 +32756,7 @@
         <v>473</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>774</v>
+        <v>583</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>588</v>
@@ -32791,7 +32779,7 @@
         <v>474</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>774</v>
+        <v>583</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>588</v>
@@ -32814,7 +32802,7 @@
         <v>475</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>774</v>
+        <v>583</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>588</v>
@@ -32837,7 +32825,7 @@
         <v>476</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>774</v>
+        <v>583</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>588</v>
@@ -32860,7 +32848,7 @@
         <v>477</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>774</v>
+        <v>583</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>588</v>
@@ -32883,7 +32871,7 @@
         <v>478</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>598</v>
@@ -32906,7 +32894,7 @@
         <v>479</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>598</v>
@@ -32929,7 +32917,7 @@
         <v>480</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>598</v>
@@ -32952,7 +32940,7 @@
         <v>481</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>598</v>
@@ -32975,7 +32963,7 @@
         <v>482</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>601</v>
@@ -32998,7 +32986,7 @@
         <v>483</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>601</v>
@@ -33021,7 +33009,7 @@
         <v>484</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>605</v>
@@ -33044,7 +33032,7 @@
         <v>485</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>605</v>
@@ -33067,7 +33055,7 @@
         <v>486</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>605</v>
@@ -33090,7 +33078,7 @@
         <v>491</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>609</v>
@@ -33113,7 +33101,7 @@
         <v>492</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>609</v>
@@ -33136,7 +33124,7 @@
         <v>493</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>613</v>
@@ -33159,7 +33147,7 @@
         <v>494</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>617</v>
@@ -33182,7 +33170,7 @@
         <v>495</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>621</v>
@@ -33205,7 +33193,7 @@
         <v>496</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>625</v>
@@ -33228,7 +33216,7 @@
         <v>501</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>625</v>
@@ -33251,7 +33239,7 @@
         <v>502</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>629</v>
@@ -33274,7 +33262,7 @@
         <v>503</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>632</v>
+        <v>604</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>633</v>
@@ -33320,7 +33308,7 @@
         <v>509</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>639</v>
+        <v>608</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>640</v>
@@ -33343,7 +33331,7 @@
         <v>514</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>639</v>
+        <v>612</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>640</v>
@@ -33366,7 +33354,7 @@
         <v>515</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>639</v>
+        <v>616</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>640</v>
@@ -33389,7 +33377,7 @@
         <v>515</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>640</v>
@@ -33412,7 +33400,7 @@
         <v>520</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>644</v>
@@ -33435,7 +33423,7 @@
         <v>525</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>644</v>

--- a/assets/Proclaim.xlsx
+++ b/assets/Proclaim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerus\StudioProjects\proclaim\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70B0B64-A530-4E14-B597-346BE3BEBA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352A8FD8-68D3-4347-8FC8-0774F28BE79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Testament" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6165" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6174" uniqueCount="775">
   <si>
     <t>Date</t>
   </si>
@@ -2323,6 +2323,38 @@
   </si>
   <si>
     <t>150</t>
+  </si>
+  <si>
+    <t>1-48</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>49-96</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>97-136</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>137-176</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verse</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>행</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>롬</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>고전</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2333,7 +2365,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2376,6 +2408,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2403,7 +2442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2440,6 +2479,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2658,11 +2701,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B356" workbookViewId="0">
-      <selection activeCell="D285" sqref="D285:G367"/>
+    <sheetView topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="F308" sqref="F308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="7" width="17.73046875" customWidth="1"/>
     <col min="8" max="28" width="8.73046875" customWidth="1"/>
@@ -9392,10 +9435,10 @@
         <v>424</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="D293" s="6">
         <v>1</v>
@@ -9924,7 +9967,7 @@
         <v>426</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="D316" s="6">
         <v>1</v>
@@ -9993,7 +10036,7 @@
         <v>453</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D319" s="6">
         <v>1</v>
@@ -10537,7 +10580,7 @@
         <v>460</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="D342" s="6">
         <v>1</v>
@@ -10675,7 +10718,7 @@
         <v>487</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="D348" s="6">
         <v>1</v>
@@ -10767,7 +10810,7 @@
         <v>497</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="D352" s="6">
         <v>1</v>
@@ -10790,7 +10833,7 @@
         <v>505</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D353" s="6">
         <v>1</v>
@@ -10859,7 +10902,7 @@
         <v>510</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D356" s="6">
         <v>1</v>
@@ -10882,7 +10925,7 @@
         <v>516</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D357" s="6">
         <v>1</v>
@@ -10905,7 +10948,7 @@
         <v>521</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D358" s="6">
         <v>1</v>
@@ -10951,7 +10994,7 @@
         <v>526</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="D360" s="6">
         <v>1</v>
@@ -10974,7 +11017,7 @@
         <v>532</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D361" s="6">
         <v>1</v>
@@ -10997,7 +11040,7 @@
         <v>537</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D362" s="6">
         <v>1</v>
@@ -11020,7 +11063,7 @@
         <v>542</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="D363" s="6">
         <v>1</v>
@@ -11043,7 +11086,7 @@
         <v>547</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D364" s="6">
         <v>1</v>
@@ -11112,7 +11155,7 @@
         <v>552</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="D367" s="6">
         <v>1</v>
@@ -15585,15 +15628,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="C369" sqref="C369:G377"/>
+    <sheetView topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="D306" sqref="D306"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.73046875" customWidth="1"/>
     <col min="2" max="7" width="17.53125" customWidth="1"/>
-    <col min="8" max="28" width="8.73046875" customWidth="1"/>
+    <col min="8" max="8" width="14.59765625" customWidth="1"/>
+    <col min="9" max="28" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1">
@@ -15618,8 +15662,8 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
+      <c r="H1" s="14" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1">
@@ -16703,7 +16747,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16.5" customHeight="1">
+    <row r="49" spans="1:8" ht="16.5" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>63</v>
       </c>
@@ -16725,8 +16769,11 @@
       <c r="G49" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H49" s="13" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>64</v>
       </c>
@@ -16748,8 +16795,11 @@
       <c r="G50" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H50" s="13" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" customHeight="1">
       <c r="A51" s="5" t="s">
         <v>69</v>
       </c>
@@ -16771,8 +16821,11 @@
       <c r="G51" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H51" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>70</v>
       </c>
@@ -16794,8 +16847,11 @@
       <c r="G52" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H52" s="13" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>71</v>
       </c>
@@ -16818,7 +16874,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="16.5" customHeight="1">
+    <row r="54" spans="1:8" ht="16.5" customHeight="1">
       <c r="A54" s="5" t="s">
         <v>72</v>
       </c>
@@ -16841,7 +16897,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16.5" customHeight="1">
+    <row r="55" spans="1:8" ht="16.5" customHeight="1">
       <c r="A55" s="5" t="s">
         <v>73</v>
       </c>
@@ -16864,7 +16920,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16.5" customHeight="1">
+    <row r="56" spans="1:8" ht="16.5" customHeight="1">
       <c r="A56" s="5" t="s">
         <v>74</v>
       </c>
@@ -16887,7 +16943,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="16.5" customHeight="1">
+    <row r="57" spans="1:8" ht="16.5" customHeight="1">
       <c r="A57" s="5" t="s">
         <v>75</v>
       </c>
@@ -16910,7 +16966,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16.5" customHeight="1">
+    <row r="58" spans="1:8" ht="16.5" customHeight="1">
       <c r="A58" s="5" t="s">
         <v>76</v>
       </c>
@@ -16933,7 +16989,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16.5" customHeight="1">
+    <row r="59" spans="1:8" ht="16.5" customHeight="1">
       <c r="A59" s="5" t="s">
         <v>77</v>
       </c>
@@ -16956,7 +17012,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16.5" customHeight="1">
+    <row r="60" spans="1:8" ht="16.5" customHeight="1">
       <c r="A60" s="5" t="s">
         <v>78</v>
       </c>
@@ -16979,7 +17035,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16.5" customHeight="1">
+    <row r="61" spans="1:8" ht="16.5" customHeight="1">
       <c r="A61" s="5" t="s">
         <v>79</v>
       </c>
@@ -17002,7 +17058,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="16.5" customHeight="1">
+    <row r="62" spans="1:8" ht="16.5" customHeight="1">
       <c r="A62" s="5" t="s">
         <v>80</v>
       </c>
@@ -17025,7 +17081,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="16.5" customHeight="1">
+    <row r="63" spans="1:8" ht="16.5" customHeight="1">
       <c r="A63" s="5" t="s">
         <v>81</v>
       </c>
@@ -17048,7 +17104,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16.5" customHeight="1">
+    <row r="64" spans="1:8" ht="16.5" customHeight="1">
       <c r="A64" s="5" t="s">
         <v>82</v>
       </c>
@@ -18101,6 +18157,9 @@
       <c r="G108" s="5" t="s">
         <v>679</v>
       </c>
+      <c r="H108" s="13" t="s">
+        <v>767</v>
+      </c>
     </row>
     <row r="109" spans="1:28" ht="16.5" customHeight="1">
       <c r="A109" s="5" t="s">
@@ -18124,6 +18183,9 @@
       <c r="G109" s="5" t="s">
         <v>679</v>
       </c>
+      <c r="H109" s="13" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="110" spans="1:28" ht="16.5" customHeight="1">
       <c r="A110" s="5" t="s">
@@ -18147,6 +18209,9 @@
       <c r="G110" s="5" t="s">
         <v>679</v>
       </c>
+      <c r="H110" s="13" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="111" spans="1:28" ht="16.5" customHeight="1">
       <c r="A111" s="5" t="s">
@@ -18170,6 +18235,9 @@
       <c r="G111" s="5" t="s">
         <v>679</v>
       </c>
+      <c r="H111" s="13" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="112" spans="1:28" ht="16.5" customHeight="1">
       <c r="A112" s="5" t="s">
@@ -19298,7 +19366,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="16.5" customHeight="1">
+    <row r="161" spans="1:8" ht="16.5" customHeight="1">
       <c r="A161" s="5" t="s">
         <v>227</v>
       </c>
@@ -19321,7 +19389,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="16.5" customHeight="1">
+    <row r="162" spans="1:8" ht="16.5" customHeight="1">
       <c r="A162" s="5" t="s">
         <v>229</v>
       </c>
@@ -19344,7 +19412,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="16.5" customHeight="1">
+    <row r="163" spans="1:8" ht="16.5" customHeight="1">
       <c r="A163" s="5" t="s">
         <v>231</v>
       </c>
@@ -19367,7 +19435,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="16.5" customHeight="1">
+    <row r="164" spans="1:8" ht="16.5" customHeight="1">
       <c r="A164" s="5" t="s">
         <v>233</v>
       </c>
@@ -19390,7 +19458,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="16.5" customHeight="1">
+    <row r="165" spans="1:8" ht="16.5" customHeight="1">
       <c r="A165" s="5" t="s">
         <v>235</v>
       </c>
@@ -19413,7 +19481,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="16.5" customHeight="1">
+    <row r="166" spans="1:8" ht="16.5" customHeight="1">
       <c r="A166" s="5" t="s">
         <v>237</v>
       </c>
@@ -19436,7 +19504,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="16.5" customHeight="1">
+    <row r="167" spans="1:8" ht="16.5" customHeight="1">
       <c r="A167" s="5" t="s">
         <v>239</v>
       </c>
@@ -19458,8 +19526,11 @@
       <c r="G167" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H167" s="13" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="16.5" customHeight="1">
       <c r="A168" s="5" t="s">
         <v>241</v>
       </c>
@@ -19481,8 +19552,11 @@
       <c r="G168" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H168" s="13" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="16.5" customHeight="1">
       <c r="A169" s="5" t="s">
         <v>243</v>
       </c>
@@ -19504,8 +19578,11 @@
       <c r="G169" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H169" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="16.5" customHeight="1">
       <c r="A170" s="5" t="s">
         <v>247</v>
       </c>
@@ -19527,8 +19604,11 @@
       <c r="G170" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H170" s="13" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="16.5" customHeight="1">
       <c r="A171" s="5" t="s">
         <v>248</v>
       </c>
@@ -19551,7 +19631,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="16.5" customHeight="1">
+    <row r="172" spans="1:8" ht="16.5" customHeight="1">
       <c r="A172" s="5" t="s">
         <v>249</v>
       </c>
@@ -19574,7 +19654,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="16.5" customHeight="1">
+    <row r="173" spans="1:8" ht="16.5" customHeight="1">
       <c r="A173" s="5" t="s">
         <v>250</v>
       </c>
@@ -19597,7 +19677,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="16.5" customHeight="1">
+    <row r="174" spans="1:8" ht="16.5" customHeight="1">
       <c r="A174" s="5" t="s">
         <v>251</v>
       </c>
@@ -19620,7 +19700,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="16.5" customHeight="1">
+    <row r="175" spans="1:8" ht="16.5" customHeight="1">
       <c r="A175" s="5" t="s">
         <v>252</v>
       </c>
@@ -19643,7 +19723,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="16.5" customHeight="1">
+    <row r="176" spans="1:8" ht="16.5" customHeight="1">
       <c r="A176" s="5" t="s">
         <v>253</v>
       </c>
@@ -20770,7 +20850,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="16.5" customHeight="1">
+    <row r="225" spans="1:8" ht="16.5" customHeight="1">
       <c r="A225" s="5" t="s">
         <v>333</v>
       </c>
@@ -20793,7 +20873,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="16.5" customHeight="1">
+    <row r="226" spans="1:8" ht="16.5" customHeight="1">
       <c r="A226" s="5" t="s">
         <v>334</v>
       </c>
@@ -20816,7 +20896,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="16.5" customHeight="1">
+    <row r="227" spans="1:8" ht="16.5" customHeight="1">
       <c r="A227" s="5" t="s">
         <v>335</v>
       </c>
@@ -20839,7 +20919,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="16.5" customHeight="1">
+    <row r="228" spans="1:8" ht="16.5" customHeight="1">
       <c r="A228" s="5" t="s">
         <v>336</v>
       </c>
@@ -20862,7 +20942,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="16.5" customHeight="1">
+    <row r="229" spans="1:8" ht="16.5" customHeight="1">
       <c r="A229" s="5" t="s">
         <v>341</v>
       </c>
@@ -20885,7 +20965,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="16.5" customHeight="1">
+    <row r="230" spans="1:8" ht="16.5" customHeight="1">
       <c r="A230" s="5" t="s">
         <v>342</v>
       </c>
@@ -20908,7 +20988,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="16.5" customHeight="1">
+    <row r="231" spans="1:8" ht="16.5" customHeight="1">
       <c r="A231" s="5" t="s">
         <v>343</v>
       </c>
@@ -20931,7 +21011,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="16.5" customHeight="1">
+    <row r="232" spans="1:8" ht="16.5" customHeight="1">
       <c r="A232" s="5" t="s">
         <v>347</v>
       </c>
@@ -20953,8 +21033,11 @@
       <c r="G232" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H232" s="13" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="16.5" customHeight="1">
       <c r="A233" s="5" t="s">
         <v>348</v>
       </c>
@@ -20976,8 +21059,11 @@
       <c r="G233" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H233" s="13" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="16.5" customHeight="1">
       <c r="A234" s="5" t="s">
         <v>349</v>
       </c>
@@ -20999,8 +21085,11 @@
       <c r="G234" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H234" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="16.5" customHeight="1">
       <c r="A235" s="5" t="s">
         <v>350</v>
       </c>
@@ -21022,8 +21111,11 @@
       <c r="G235" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H235" s="13" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="16.5" customHeight="1">
       <c r="A236" s="5" t="s">
         <v>351</v>
       </c>
@@ -21046,7 +21138,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="16.5" customHeight="1">
+    <row r="237" spans="1:8" ht="16.5" customHeight="1">
       <c r="A237" s="5" t="s">
         <v>352</v>
       </c>
@@ -21069,7 +21161,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="16.5" customHeight="1">
+    <row r="238" spans="1:8" ht="16.5" customHeight="1">
       <c r="A238" s="5" t="s">
         <v>353</v>
       </c>
@@ -21092,7 +21184,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="16.5" customHeight="1">
+    <row r="239" spans="1:8" ht="16.5" customHeight="1">
       <c r="A239" s="5" t="s">
         <v>354</v>
       </c>
@@ -21115,7 +21207,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="16.5" customHeight="1">
+    <row r="240" spans="1:8" ht="16.5" customHeight="1">
       <c r="A240" s="5" t="s">
         <v>355</v>
       </c>
@@ -22242,7 +22334,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="16.5" customHeight="1">
+    <row r="289" spans="1:8" ht="16.5" customHeight="1">
       <c r="A289" s="5" t="s">
         <v>420</v>
       </c>
@@ -22265,7 +22357,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="16.5" customHeight="1">
+    <row r="290" spans="1:8" ht="16.5" customHeight="1">
       <c r="A290" s="5" t="s">
         <v>421</v>
       </c>
@@ -22288,7 +22380,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="16.5" customHeight="1">
+    <row r="291" spans="1:8" ht="16.5" customHeight="1">
       <c r="A291" s="5" t="s">
         <v>422</v>
       </c>
@@ -22311,7 +22403,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="16.5" customHeight="1">
+    <row r="292" spans="1:8" ht="16.5" customHeight="1">
       <c r="A292" s="5" t="s">
         <v>423</v>
       </c>
@@ -22334,7 +22426,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="16.5" customHeight="1">
+    <row r="293" spans="1:8" ht="16.5" customHeight="1">
       <c r="A293" s="5" t="s">
         <v>424</v>
       </c>
@@ -22356,8 +22448,11 @@
       <c r="G293" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H293" s="13" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" ht="16.5" customHeight="1">
       <c r="A294" s="5" t="s">
         <v>425</v>
       </c>
@@ -22379,8 +22474,11 @@
       <c r="G294" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H294" s="13" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" ht="16.5" customHeight="1">
       <c r="A295" s="5" t="s">
         <v>430</v>
       </c>
@@ -22402,8 +22500,11 @@
       <c r="G295" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H295" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="16.5" customHeight="1">
       <c r="A296" s="5" t="s">
         <v>431</v>
       </c>
@@ -22425,8 +22526,11 @@
       <c r="G296" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H296" s="13" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" ht="16.5" customHeight="1">
       <c r="A297" s="5" t="s">
         <v>432</v>
       </c>
@@ -22439,8 +22543,8 @@
       <c r="D297" s="12" t="s">
         <v>751</v>
       </c>
-      <c r="E297" s="12" t="s">
-        <v>752</v>
+      <c r="E297" s="12">
+        <v>122</v>
       </c>
       <c r="F297" s="5" t="s">
         <v>678</v>
@@ -22449,7 +22553,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="16.5" customHeight="1">
+    <row r="298" spans="1:8" ht="16.5" customHeight="1">
       <c r="A298" s="5" t="s">
         <v>433</v>
       </c>
@@ -22459,11 +22563,11 @@
       <c r="C298" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D298" s="12" t="s">
-        <v>753</v>
-      </c>
-      <c r="E298" s="12" t="s">
-        <v>754</v>
+      <c r="D298" s="12">
+        <v>123</v>
+      </c>
+      <c r="E298" s="12">
+        <v>125</v>
       </c>
       <c r="F298" s="5" t="s">
         <v>678</v>
@@ -22472,7 +22576,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="16.5" customHeight="1">
+    <row r="299" spans="1:8" ht="16.5" customHeight="1">
       <c r="A299" s="5" t="s">
         <v>434</v>
       </c>
@@ -22482,11 +22586,11 @@
       <c r="C299" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D299" s="12" t="s">
-        <v>755</v>
-      </c>
-      <c r="E299" s="12" t="s">
-        <v>756</v>
+      <c r="D299" s="12">
+        <v>126</v>
+      </c>
+      <c r="E299" s="12">
+        <v>128</v>
       </c>
       <c r="F299" s="5" t="s">
         <v>678</v>
@@ -22495,7 +22599,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="16.5" customHeight="1">
+    <row r="300" spans="1:8" ht="16.5" customHeight="1">
       <c r="A300" s="5" t="s">
         <v>435</v>
       </c>
@@ -22505,11 +22609,11 @@
       <c r="C300" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D300" s="12" t="s">
-        <v>757</v>
-      </c>
-      <c r="E300" s="12" t="s">
-        <v>758</v>
+      <c r="D300" s="12">
+        <v>129</v>
+      </c>
+      <c r="E300" s="12">
+        <v>131</v>
       </c>
       <c r="F300" s="5" t="s">
         <v>678</v>
@@ -22518,7 +22622,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="16.5" customHeight="1">
+    <row r="301" spans="1:8" ht="16.5" customHeight="1">
       <c r="A301" s="5" t="s">
         <v>436</v>
       </c>
@@ -22528,11 +22632,11 @@
       <c r="C301" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D301" s="12" t="s">
-        <v>759</v>
-      </c>
-      <c r="E301" s="12" t="s">
-        <v>760</v>
+      <c r="D301" s="12">
+        <v>132</v>
+      </c>
+      <c r="E301" s="12">
+        <v>135</v>
       </c>
       <c r="F301" s="5" t="s">
         <v>678</v>
@@ -22541,7 +22645,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="16.5" customHeight="1">
+    <row r="302" spans="1:8" ht="16.5" customHeight="1">
       <c r="A302" s="5" t="s">
         <v>437</v>
       </c>
@@ -22551,11 +22655,11 @@
       <c r="C302" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D302" s="12" t="s">
-        <v>761</v>
-      </c>
-      <c r="E302" s="12" t="s">
-        <v>762</v>
+      <c r="D302" s="12">
+        <v>136</v>
+      </c>
+      <c r="E302" s="12">
+        <v>138</v>
       </c>
       <c r="F302" s="5" t="s">
         <v>678</v>
@@ -22564,7 +22668,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="16.5" customHeight="1">
+    <row r="303" spans="1:8" ht="16.5" customHeight="1">
       <c r="A303" s="5" t="s">
         <v>438</v>
       </c>
@@ -22574,11 +22678,11 @@
       <c r="C303" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D303" s="12" t="s">
-        <v>763</v>
-      </c>
-      <c r="E303" s="12" t="s">
-        <v>764</v>
+      <c r="D303" s="12">
+        <v>139</v>
+      </c>
+      <c r="E303" s="12">
+        <v>141</v>
       </c>
       <c r="F303" s="5" t="s">
         <v>678</v>
@@ -22587,7 +22691,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="16.5" customHeight="1">
+    <row r="304" spans="1:8" ht="16.5" customHeight="1">
       <c r="A304" s="5" t="s">
         <v>439</v>
       </c>
@@ -22597,11 +22701,11 @@
       <c r="C304" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D304" s="12" t="s">
-        <v>765</v>
-      </c>
-      <c r="E304" s="12" t="s">
-        <v>766</v>
+      <c r="D304" s="12">
+        <v>142</v>
+      </c>
+      <c r="E304" s="12">
+        <v>144</v>
       </c>
       <c r="F304" s="5" t="s">
         <v>678</v>
@@ -22621,10 +22725,10 @@
         <v>677</v>
       </c>
       <c r="D305" s="5">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="E305" s="10">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="F305" s="5" t="s">
         <v>678</v>
@@ -22644,10 +22748,10 @@
         <v>677</v>
       </c>
       <c r="D306" s="5">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="E306" s="10">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="F306" s="5" t="s">
         <v>678</v>
@@ -23346,7 +23450,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="16.5" customHeight="1">
+    <row r="337" spans="1:8" ht="16.5" customHeight="1">
       <c r="A337" s="5" t="s">
         <v>480</v>
       </c>
@@ -23369,7 +23473,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="16.5" customHeight="1">
+    <row r="338" spans="1:8" ht="16.5" customHeight="1">
       <c r="A338" s="5" t="s">
         <v>481</v>
       </c>
@@ -23392,7 +23496,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="16.5" customHeight="1">
+    <row r="339" spans="1:8" ht="16.5" customHeight="1">
       <c r="A339" s="5" t="s">
         <v>482</v>
       </c>
@@ -23415,7 +23519,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="16.5" customHeight="1">
+    <row r="340" spans="1:8" ht="16.5" customHeight="1">
       <c r="A340" s="5" t="s">
         <v>483</v>
       </c>
@@ -23438,7 +23542,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="16.5" customHeight="1">
+    <row r="341" spans="1:8" ht="16.5" customHeight="1">
       <c r="A341" s="5" t="s">
         <v>484</v>
       </c>
@@ -23461,7 +23565,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="16.5" customHeight="1">
+    <row r="342" spans="1:8" ht="16.5" customHeight="1">
       <c r="A342" s="5" t="s">
         <v>485</v>
       </c>
@@ -23484,7 +23588,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="16.5" customHeight="1">
+    <row r="343" spans="1:8" ht="16.5" customHeight="1">
       <c r="A343" s="5" t="s">
         <v>486</v>
       </c>
@@ -23507,7 +23611,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="16.5" customHeight="1">
+    <row r="344" spans="1:8" ht="16.5" customHeight="1">
       <c r="A344" s="5" t="s">
         <v>491</v>
       </c>
@@ -23530,7 +23634,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="16.5" customHeight="1">
+    <row r="345" spans="1:8" ht="16.5" customHeight="1">
       <c r="A345" s="5" t="s">
         <v>492</v>
       </c>
@@ -23553,7 +23657,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="16.5" customHeight="1">
+    <row r="346" spans="1:8" ht="16.5" customHeight="1">
       <c r="A346" s="5" t="s">
         <v>493</v>
       </c>
@@ -23576,7 +23680,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="16.5" customHeight="1">
+    <row r="347" spans="1:8" ht="16.5" customHeight="1">
       <c r="A347" s="5" t="s">
         <v>494</v>
       </c>
@@ -23599,7 +23703,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="16.5" customHeight="1">
+    <row r="348" spans="1:8" ht="16.5" customHeight="1">
       <c r="A348" s="5" t="s">
         <v>495</v>
       </c>
@@ -23622,7 +23726,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="16.5" customHeight="1">
+    <row r="349" spans="1:8" ht="16.5" customHeight="1">
       <c r="A349" s="5" t="s">
         <v>496</v>
       </c>
@@ -23645,7 +23749,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="16.5" customHeight="1">
+    <row r="350" spans="1:8" ht="16.5" customHeight="1">
       <c r="A350" s="5" t="s">
         <v>501</v>
       </c>
@@ -23668,7 +23772,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="16.5" customHeight="1">
+    <row r="351" spans="1:8" ht="16.5" customHeight="1">
       <c r="A351" s="5" t="s">
         <v>502</v>
       </c>
@@ -23691,7 +23795,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="16.5" customHeight="1">
+    <row r="352" spans="1:8" ht="16.5" customHeight="1">
       <c r="A352" s="5" t="s">
         <v>503</v>
       </c>
@@ -23713,8 +23817,11 @@
       <c r="G352" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H352" s="13" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" ht="16.5" customHeight="1">
       <c r="A353" s="5" t="s">
         <v>504</v>
       </c>
@@ -23736,8 +23843,11 @@
       <c r="G353" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H353" s="13" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" ht="16.5" customHeight="1">
       <c r="A354" s="5" t="s">
         <v>509</v>
       </c>
@@ -23759,8 +23869,11 @@
       <c r="G354" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H354" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" ht="16.5" customHeight="1">
       <c r="A355" s="5" t="s">
         <v>514</v>
       </c>
@@ -23782,8 +23895,11 @@
       <c r="G355" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H355" s="13" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" ht="16.5" customHeight="1">
       <c r="A356" s="5" t="s">
         <v>515</v>
       </c>
@@ -23806,7 +23922,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="16.5" customHeight="1">
+    <row r="357" spans="1:8" ht="16.5" customHeight="1">
       <c r="A357" s="5" t="s">
         <v>515</v>
       </c>
@@ -23829,7 +23945,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="16.5" customHeight="1">
+    <row r="358" spans="1:8" ht="16.5" customHeight="1">
       <c r="A358" s="5" t="s">
         <v>520</v>
       </c>
@@ -23852,7 +23968,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="16.5" customHeight="1">
+    <row r="359" spans="1:8" ht="16.5" customHeight="1">
       <c r="A359" s="5" t="s">
         <v>525</v>
       </c>
@@ -23875,7 +23991,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="16.5" customHeight="1">
+    <row r="360" spans="1:8" ht="16.5" customHeight="1">
       <c r="A360" s="5" t="s">
         <v>530</v>
       </c>
@@ -23898,7 +24014,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="16.5" customHeight="1">
+    <row r="361" spans="1:8" ht="16.5" customHeight="1">
       <c r="A361" s="5" t="s">
         <v>531</v>
       </c>
@@ -23921,7 +24037,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="16.5" customHeight="1">
+    <row r="362" spans="1:8" ht="16.5" customHeight="1">
       <c r="A362" s="5" t="s">
         <v>536</v>
       </c>
@@ -23944,7 +24060,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="16.5" customHeight="1">
+    <row r="363" spans="1:8" ht="16.5" customHeight="1">
       <c r="A363" s="5" t="s">
         <v>541</v>
       </c>
@@ -23967,7 +24083,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="16.5" customHeight="1">
+    <row r="364" spans="1:8" ht="16.5" customHeight="1">
       <c r="A364" s="5" t="s">
         <v>546</v>
       </c>
@@ -23990,7 +24106,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="16.5" customHeight="1">
+    <row r="365" spans="1:8" ht="16.5" customHeight="1">
       <c r="A365" s="5" t="s">
         <v>551</v>
       </c>
@@ -24013,7 +24129,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="16.5" customHeight="1">
+    <row r="366" spans="1:8" ht="16.5" customHeight="1">
       <c r="A366" s="5" t="s">
         <v>556</v>
       </c>
@@ -24036,7 +24152,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="16.5" customHeight="1">
+    <row r="367" spans="1:8" ht="16.5" customHeight="1">
       <c r="A367" s="5" t="s">
         <v>557</v>
       </c>
@@ -24059,7 +24175,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="16.5" customHeight="1">
+    <row r="368" spans="1:8" ht="16.5" customHeight="1">
       <c r="A368" s="5" t="s">
         <v>558</v>
       </c>
@@ -25047,11 +25163,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="D276" sqref="D276"/>
+    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="C364" sqref="C364"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.73046875" customWidth="1"/>
     <col min="2" max="7" width="17.53125" customWidth="1"/>
@@ -31778,7 +31894,7 @@
         <v>423</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>576</v>
@@ -31801,7 +31917,7 @@
         <v>424</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>576</v>
@@ -31824,7 +31940,7 @@
         <v>425</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>576</v>
@@ -31847,7 +31963,7 @@
         <v>430</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>576</v>
@@ -31870,7 +31986,7 @@
         <v>431</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>576</v>
@@ -31893,7 +32009,7 @@
         <v>432</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>576</v>
@@ -31916,7 +32032,7 @@
         <v>433</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>576</v>
@@ -31939,7 +32055,7 @@
         <v>434</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>576</v>
@@ -31962,7 +32078,7 @@
         <v>435</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>576</v>
@@ -32100,7 +32216,7 @@
         <v>441</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>575</v>
+        <v>772</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>580</v>
@@ -32123,7 +32239,7 @@
         <v>442</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>575</v>
+        <v>772</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>580</v>
@@ -32146,7 +32262,7 @@
         <v>443</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>575</v>
+        <v>772</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>580</v>
@@ -32169,7 +32285,7 @@
         <v>444</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>575</v>
+        <v>772</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>580</v>
@@ -32192,7 +32308,7 @@
         <v>445</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>575</v>
+        <v>772</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>580</v>
@@ -32215,7 +32331,7 @@
         <v>446</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>575</v>
+        <v>772</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>580</v>
@@ -32238,7 +32354,7 @@
         <v>447</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>575</v>
+        <v>772</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>580</v>
@@ -32261,7 +32377,7 @@
         <v>448</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>575</v>
+        <v>772</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>580</v>
@@ -32284,7 +32400,7 @@
         <v>449</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>575</v>
+        <v>772</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>580</v>
@@ -32307,7 +32423,7 @@
         <v>450</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>579</v>
+        <v>772</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>580</v>
@@ -32330,7 +32446,7 @@
         <v>451</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>579</v>
+        <v>772</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>580</v>
@@ -32353,7 +32469,7 @@
         <v>452</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>579</v>
+        <v>772</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>580</v>
@@ -32376,7 +32492,7 @@
         <v>457</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>579</v>
+        <v>772</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>580</v>
@@ -32399,7 +32515,7 @@
         <v>458</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>579</v>
+        <v>772</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>580</v>
@@ -32422,7 +32538,7 @@
         <v>459</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>579</v>
+        <v>772</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>580</v>
@@ -32445,7 +32561,7 @@
         <v>464</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>579</v>
+        <v>773</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>584</v>
@@ -32468,7 +32584,7 @@
         <v>465</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>579</v>
+        <v>773</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>584</v>
@@ -32491,7 +32607,7 @@
         <v>466</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>579</v>
+        <v>773</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>584</v>
@@ -32514,7 +32630,7 @@
         <v>467</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>579</v>
+        <v>773</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>584</v>
@@ -32537,7 +32653,7 @@
         <v>468</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>579</v>
+        <v>773</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>584</v>
@@ -32560,7 +32676,7 @@
         <v>469</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>579</v>
+        <v>773</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>584</v>
@@ -32583,7 +32699,7 @@
         <v>470</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>579</v>
+        <v>773</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>584</v>
@@ -32606,7 +32722,7 @@
         <v>471</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>579</v>
+        <v>774</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>588</v>
@@ -32629,7 +32745,7 @@
         <v>472</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>579</v>
+        <v>774</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>588</v>
@@ -32652,7 +32768,7 @@
         <v>473</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>583</v>
+        <v>774</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>588</v>
@@ -32675,7 +32791,7 @@
         <v>474</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>583</v>
+        <v>774</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>588</v>
@@ -32698,7 +32814,7 @@
         <v>475</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>583</v>
+        <v>774</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>588</v>
@@ -32721,7 +32837,7 @@
         <v>476</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>583</v>
+        <v>774</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>588</v>
@@ -32744,7 +32860,7 @@
         <v>477</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>583</v>
+        <v>774</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>588</v>
@@ -32767,7 +32883,7 @@
         <v>478</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>598</v>
@@ -32790,7 +32906,7 @@
         <v>479</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>598</v>
@@ -32813,7 +32929,7 @@
         <v>480</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>598</v>
@@ -32836,7 +32952,7 @@
         <v>481</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>598</v>
@@ -32859,7 +32975,7 @@
         <v>482</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>601</v>
@@ -32882,7 +32998,7 @@
         <v>483</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>601</v>
@@ -32905,7 +33021,7 @@
         <v>484</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>605</v>
@@ -32928,7 +33044,7 @@
         <v>485</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>605</v>
@@ -32951,7 +33067,7 @@
         <v>486</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>605</v>
@@ -32974,7 +33090,7 @@
         <v>491</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>609</v>
@@ -32997,7 +33113,7 @@
         <v>492</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>609</v>
@@ -33020,7 +33136,7 @@
         <v>493</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>613</v>
@@ -33043,7 +33159,7 @@
         <v>494</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>617</v>
@@ -33066,7 +33182,7 @@
         <v>495</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>621</v>
@@ -33089,7 +33205,7 @@
         <v>496</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>625</v>
@@ -33112,7 +33228,7 @@
         <v>501</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>625</v>
@@ -33135,7 +33251,7 @@
         <v>502</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>629</v>
@@ -33158,7 +33274,7 @@
         <v>503</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>604</v>
+        <v>632</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>633</v>
@@ -33204,7 +33320,7 @@
         <v>509</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>608</v>
+        <v>639</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>640</v>
@@ -33227,7 +33343,7 @@
         <v>514</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>640</v>
@@ -33250,7 +33366,7 @@
         <v>515</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>640</v>
@@ -33273,7 +33389,7 @@
         <v>515</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>620</v>
+        <v>639</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>640</v>
@@ -33296,7 +33412,7 @@
         <v>520</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>644</v>
@@ -33319,7 +33435,7 @@
         <v>525</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>644</v>
@@ -34249,6 +34365,6 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>